--- a/code/ohmslaw-pi.xlsx
+++ b/code/ohmslaw-pi.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1_2_2" sheetId="1" state="visible" r:id="rId2"/>
@@ -459,7 +459,7 @@
     <numFmt numFmtId="172" formatCode="[$-409]D\-MMM"/>
     <numFmt numFmtId="173" formatCode="[$-409]0"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -521,13 +521,6 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
-      <sz val="14"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="22"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -576,7 +569,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -629,6 +622,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFDEB887"/>
         <bgColor rgb="FFFEB6B6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
     <fill>
@@ -780,7 +779,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="363">
+  <cellXfs count="364">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -937,10 +936,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="9" fillId="3" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="165" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1009,7 +1004,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1681,7 +1676,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="8" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="8" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1745,11 +1740,15 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="171" fontId="4" fillId="10" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="171" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1773,11 +1772,11 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="13" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1789,11 +1788,15 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="171" fontId="4" fillId="10" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="12" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1813,7 +1816,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="12" fillId="3" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="11" fillId="3" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1829,11 +1832,11 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2145,18 +2148,6 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="172" fontId="5" fillId="12" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="5" fillId="12" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2165,6 +2156,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="172" fontId="5" fillId="13" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="13" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2173,10 +2168,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="172" fontId="5" fillId="14" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="5" fillId="14" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2185,6 +2176,18 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="172" fontId="5" fillId="15" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="15" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="15" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="7" fillId="3" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2197,7 +2200,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="13" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="12" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2316,9 +2319,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>36</xdr:col>
-      <xdr:colOff>360720</xdr:colOff>
+      <xdr:colOff>360360</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>8640</xdr:rowOff>
+      <xdr:rowOff>8280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2327,8 +2330,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="28182600" y="12564360"/>
-          <a:ext cx="58320" cy="228600"/>
+          <a:off x="28180800" y="12564360"/>
+          <a:ext cx="57960" cy="228240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2361,9 +2364,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>35</xdr:col>
-      <xdr:colOff>274320</xdr:colOff>
+      <xdr:colOff>273960</xdr:colOff>
       <xdr:row>39</xdr:row>
-      <xdr:rowOff>8640</xdr:rowOff>
+      <xdr:rowOff>8280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2372,8 +2375,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="18335520" y="13772880"/>
-          <a:ext cx="58320" cy="228600"/>
+          <a:off x="18334440" y="13772880"/>
+          <a:ext cx="57960" cy="228240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2406,9 +2409,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>273600</xdr:colOff>
+      <xdr:colOff>273240</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>7920</xdr:rowOff>
+      <xdr:rowOff>7560</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2417,8 +2420,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7904880" y="12580920"/>
-          <a:ext cx="58320" cy="228600"/>
+          <a:off x="7903800" y="12580920"/>
+          <a:ext cx="57960" cy="228240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2447,11 +2450,11 @@
   </sheetPr>
   <dimension ref="A1:AO57"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C13" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="AD13" activeCellId="0" sqref="AD13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.51953125" defaultRowHeight="17.35" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.51171875" defaultRowHeight="17.35" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="12.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16.52"/>
@@ -2871,11 +2874,11 @@
       </c>
       <c r="X14" s="36"/>
       <c r="Y14" s="36"/>
-      <c r="Z14" s="39" t="n">
+      <c r="Z14" s="37" t="n">
         <v>3.14159265358979</v>
       </c>
-      <c r="AA14" s="39"/>
-      <c r="AB14" s="39"/>
+      <c r="AA14" s="37"/>
+      <c r="AB14" s="37"/>
       <c r="AC14" s="27"/>
       <c r="AD14" s="27"/>
       <c r="AE14" s="28"/>
@@ -2903,40 +2906,40 @@
       <c r="F15" s="18"/>
       <c r="G15" s="19"/>
       <c r="H15" s="19"/>
-      <c r="I15" s="40" t="n">
+      <c r="I15" s="39" t="n">
         <v>3</v>
       </c>
-      <c r="J15" s="40"/>
-      <c r="K15" s="41"/>
-      <c r="L15" s="42" t="s">
+      <c r="J15" s="39"/>
+      <c r="K15" s="40"/>
+      <c r="L15" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="M15" s="42"/>
-      <c r="N15" s="42"/>
-      <c r="O15" s="43"/>
-      <c r="P15" s="44" t="n">
+      <c r="M15" s="41"/>
+      <c r="N15" s="41"/>
+      <c r="O15" s="42"/>
+      <c r="P15" s="43" t="n">
         <f aca="false">+SQRT(P14/P13)</f>
         <v>1.25331360800081</v>
       </c>
-      <c r="Q15" s="44"/>
-      <c r="R15" s="41"/>
-      <c r="S15" s="45" t="s">
+      <c r="Q15" s="43"/>
+      <c r="R15" s="40"/>
+      <c r="S15" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="T15" s="45"/>
-      <c r="U15" s="45"/>
+      <c r="T15" s="44"/>
+      <c r="U15" s="44"/>
       <c r="V15" s="16"/>
-      <c r="W15" s="46" t="s">
+      <c r="W15" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="X15" s="46"/>
-      <c r="Y15" s="46"/>
-      <c r="Z15" s="47" t="n">
+      <c r="X15" s="45"/>
+      <c r="Y15" s="45"/>
+      <c r="Z15" s="46" t="n">
         <f aca="false">+SQRT(Z14/Z13)</f>
         <v>1.2533141373155</v>
       </c>
-      <c r="AA15" s="47"/>
-      <c r="AB15" s="47"/>
+      <c r="AA15" s="46"/>
+      <c r="AB15" s="46"/>
       <c r="AC15" s="27"/>
       <c r="AD15" s="27"/>
       <c r="AE15" s="28"/>
@@ -2962,31 +2965,31 @@
       <c r="H16" s="19"/>
       <c r="I16" s="18"/>
       <c r="J16" s="18"/>
-      <c r="K16" s="48"/>
-      <c r="L16" s="48"/>
+      <c r="K16" s="47"/>
+      <c r="L16" s="47"/>
       <c r="M16" s="18"/>
-      <c r="N16" s="49"/>
-      <c r="O16" s="49"/>
+      <c r="N16" s="48"/>
+      <c r="O16" s="48"/>
       <c r="P16" s="18"/>
       <c r="Q16" s="18"/>
-      <c r="R16" s="48"/>
-      <c r="S16" s="48"/>
+      <c r="R16" s="47"/>
+      <c r="S16" s="47"/>
       <c r="T16" s="18"/>
-      <c r="U16" s="49"/>
+      <c r="U16" s="48"/>
       <c r="V16" s="18"/>
       <c r="W16" s="18"/>
       <c r="X16" s="18"/>
-      <c r="Y16" s="48"/>
-      <c r="Z16" s="48"/>
+      <c r="Y16" s="47"/>
+      <c r="Z16" s="47"/>
       <c r="AA16" s="18"/>
-      <c r="AB16" s="49"/>
+      <c r="AB16" s="48"/>
       <c r="AC16" s="19"/>
       <c r="AD16" s="19"/>
       <c r="AE16" s="19"/>
       <c r="AF16" s="13"/>
       <c r="AG16" s="29"/>
       <c r="AH16" s="14"/>
-      <c r="AI16" s="50" t="n">
+      <c r="AI16" s="49" t="n">
         <v>299792458</v>
       </c>
       <c r="AJ16" s="13"/>
@@ -3000,92 +3003,92 @@
       <c r="A17" s="11"/>
       <c r="B17" s="12"/>
       <c r="C17" s="13"/>
-      <c r="D17" s="51" t="s">
+      <c r="D17" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="E17" s="52" t="s">
-        <v>1</v>
-      </c>
-      <c r="F17" s="53" t="s">
+      <c r="E17" s="51" t="s">
+        <v>1</v>
+      </c>
+      <c r="F17" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="G17" s="54"/>
-      <c r="H17" s="55"/>
-      <c r="I17" s="56" t="n">
+      <c r="G17" s="53"/>
+      <c r="H17" s="54"/>
+      <c r="I17" s="55" t="n">
         <f aca="false">SQRT(L17*N17)</f>
         <v>6</v>
       </c>
-      <c r="J17" s="52" t="s">
-        <v>1</v>
-      </c>
-      <c r="K17" s="57" t="s">
+      <c r="J17" s="51" t="s">
+        <v>1</v>
+      </c>
+      <c r="K17" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="L17" s="58" t="n">
+      <c r="L17" s="57" t="n">
         <f aca="false">+$I$14</f>
         <v>18</v>
       </c>
-      <c r="M17" s="59" t="s">
+      <c r="M17" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="N17" s="60" t="n">
+      <c r="N17" s="59" t="n">
         <f aca="false">+$I$13</f>
         <v>2</v>
       </c>
-      <c r="O17" s="61"/>
-      <c r="P17" s="62" t="n">
+      <c r="O17" s="60"/>
+      <c r="P17" s="61" t="n">
         <f aca="false">SQRT(S17*U17)</f>
         <v>2.50662721600161</v>
       </c>
-      <c r="Q17" s="52" t="s">
-        <v>1</v>
-      </c>
-      <c r="R17" s="57" t="s">
+      <c r="Q17" s="51" t="s">
+        <v>1</v>
+      </c>
+      <c r="R17" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="S17" s="63" t="n">
+      <c r="S17" s="62" t="n">
         <f aca="false">+P14</f>
         <v>3.14159</v>
       </c>
-      <c r="T17" s="52" t="s">
+      <c r="T17" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="U17" s="64" t="n">
+      <c r="U17" s="63" t="n">
         <f aca="false">+P13</f>
         <v>2</v>
       </c>
-      <c r="V17" s="65"/>
-      <c r="W17" s="66" t="n">
+      <c r="V17" s="64"/>
+      <c r="W17" s="65" t="n">
         <f aca="false">SQRT(Z17*AB17)</f>
         <v>2.506628274631</v>
       </c>
-      <c r="X17" s="52" t="s">
-        <v>1</v>
-      </c>
-      <c r="Y17" s="57" t="s">
+      <c r="X17" s="51" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y17" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="Z17" s="67" t="n">
+      <c r="Z17" s="66" t="n">
         <f aca="false">+Z14</f>
         <v>3.14159265358979</v>
       </c>
-      <c r="AA17" s="52" t="s">
+      <c r="AA17" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="AB17" s="68" t="n">
+      <c r="AB17" s="67" t="n">
         <f aca="false">+Z13</f>
         <v>2</v>
       </c>
-      <c r="AC17" s="55"/>
-      <c r="AD17" s="69" t="n">
+      <c r="AC17" s="54"/>
+      <c r="AD17" s="68" t="n">
         <f aca="false">+W17^2</f>
         <v>6.28318530717958</v>
       </c>
-      <c r="AE17" s="69" t="n">
+      <c r="AE17" s="68" t="n">
         <f aca="false">+Z14^2</f>
         <v>9.86960440108934</v>
       </c>
-      <c r="AF17" s="69" t="n">
+      <c r="AF17" s="68" t="n">
         <f aca="false">+AB17^2</f>
         <v>4</v>
       </c>
@@ -3096,7 +3099,7 @@
         <v>2198.7231649145</v>
       </c>
       <c r="AJ17" s="27"/>
-      <c r="AK17" s="70"/>
+      <c r="AK17" s="69"/>
       <c r="AL17" s="27"/>
       <c r="AM17" s="27"/>
       <c r="AN17" s="11"/>
@@ -3106,86 +3109,86 @@
       <c r="A18" s="11"/>
       <c r="B18" s="12"/>
       <c r="C18" s="13"/>
-      <c r="D18" s="71" t="s">
+      <c r="D18" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="E18" s="72" t="s">
-        <v>1</v>
-      </c>
-      <c r="F18" s="73" t="s">
+      <c r="E18" s="71" t="s">
+        <v>1</v>
+      </c>
+      <c r="F18" s="72" t="s">
         <v>17</v>
       </c>
-      <c r="G18" s="54"/>
-      <c r="H18" s="55"/>
-      <c r="I18" s="74" t="n">
+      <c r="G18" s="53"/>
+      <c r="H18" s="54"/>
+      <c r="I18" s="73" t="n">
         <f aca="false">+L18/N18</f>
         <v>6</v>
       </c>
-      <c r="J18" s="75" t="s">
-        <v>1</v>
-      </c>
-      <c r="K18" s="76"/>
-      <c r="L18" s="77" t="n">
+      <c r="J18" s="74" t="s">
+        <v>1</v>
+      </c>
+      <c r="K18" s="75"/>
+      <c r="L18" s="76" t="n">
         <f aca="false">+$I$14</f>
         <v>18</v>
       </c>
-      <c r="M18" s="78" t="s">
+      <c r="M18" s="77" t="s">
         <v>18</v>
       </c>
-      <c r="N18" s="79" t="n">
+      <c r="N18" s="78" t="n">
         <f aca="false">+$I$15</f>
         <v>3</v>
       </c>
-      <c r="O18" s="61"/>
-      <c r="P18" s="80" t="n">
+      <c r="O18" s="60"/>
+      <c r="P18" s="79" t="n">
         <f aca="false">+S18/U18</f>
         <v>2.50662721600161</v>
       </c>
-      <c r="Q18" s="75" t="s">
-        <v>1</v>
-      </c>
-      <c r="R18" s="76"/>
-      <c r="S18" s="81" t="n">
+      <c r="Q18" s="74" t="s">
+        <v>1</v>
+      </c>
+      <c r="R18" s="75"/>
+      <c r="S18" s="80" t="n">
         <f aca="false">+P14</f>
         <v>3.14159</v>
       </c>
-      <c r="T18" s="75" t="s">
+      <c r="T18" s="74" t="s">
         <v>18</v>
       </c>
-      <c r="U18" s="82" t="n">
+      <c r="U18" s="81" t="n">
         <f aca="false">+P15</f>
         <v>1.25331360800081</v>
       </c>
-      <c r="V18" s="65"/>
-      <c r="W18" s="83" t="n">
+      <c r="V18" s="64"/>
+      <c r="W18" s="82" t="n">
         <f aca="false">+Z18/AB18</f>
         <v>2.506628274631</v>
       </c>
-      <c r="X18" s="75" t="s">
-        <v>1</v>
-      </c>
-      <c r="Y18" s="76"/>
-      <c r="Z18" s="84" t="n">
+      <c r="X18" s="74" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y18" s="75"/>
+      <c r="Z18" s="83" t="n">
         <f aca="false">+Z14</f>
         <v>3.14159265358979</v>
       </c>
-      <c r="AA18" s="75" t="s">
+      <c r="AA18" s="74" t="s">
         <v>18</v>
       </c>
-      <c r="AB18" s="85" t="n">
+      <c r="AB18" s="84" t="n">
         <f aca="false">+Z15</f>
         <v>1.2533141373155</v>
       </c>
-      <c r="AC18" s="55"/>
-      <c r="AD18" s="69" t="n">
+      <c r="AC18" s="54"/>
+      <c r="AD18" s="68" t="n">
         <f aca="false">+W18^2</f>
         <v>6.28318530717958</v>
       </c>
-      <c r="AE18" s="69" t="n">
+      <c r="AE18" s="68" t="n">
         <f aca="false">+Z15^2</f>
         <v>1.5707963267949</v>
       </c>
-      <c r="AF18" s="69" t="n">
+      <c r="AF18" s="68" t="n">
         <f aca="false">+AB18^2</f>
         <v>1.5707963267949</v>
       </c>
@@ -3206,86 +3209,86 @@
       <c r="A19" s="11"/>
       <c r="B19" s="12"/>
       <c r="C19" s="13"/>
-      <c r="D19" s="86" t="s">
+      <c r="D19" s="85" t="s">
         <v>0</v>
       </c>
-      <c r="E19" s="87" t="s">
-        <v>1</v>
-      </c>
-      <c r="F19" s="88" t="s">
+      <c r="E19" s="86" t="s">
+        <v>1</v>
+      </c>
+      <c r="F19" s="87" t="s">
         <v>19</v>
       </c>
-      <c r="G19" s="54"/>
-      <c r="H19" s="55"/>
-      <c r="I19" s="89" t="n">
+      <c r="G19" s="53"/>
+      <c r="H19" s="54"/>
+      <c r="I19" s="88" t="n">
         <f aca="false">+N19*L19</f>
         <v>6</v>
       </c>
-      <c r="J19" s="87" t="s">
-        <v>1</v>
-      </c>
-      <c r="K19" s="90"/>
-      <c r="L19" s="91" t="n">
+      <c r="J19" s="86" t="s">
+        <v>1</v>
+      </c>
+      <c r="K19" s="89"/>
+      <c r="L19" s="90" t="n">
         <f aca="false">+$I$15</f>
         <v>3</v>
       </c>
-      <c r="M19" s="92" t="s">
+      <c r="M19" s="91" t="s">
         <v>16</v>
       </c>
-      <c r="N19" s="93" t="n">
+      <c r="N19" s="92" t="n">
         <f aca="false">+$I$13</f>
         <v>2</v>
       </c>
-      <c r="O19" s="61"/>
-      <c r="P19" s="94" t="n">
+      <c r="O19" s="60"/>
+      <c r="P19" s="93" t="n">
         <f aca="false">+U19*S19</f>
         <v>2.50662721600161</v>
       </c>
-      <c r="Q19" s="87" t="s">
-        <v>1</v>
-      </c>
-      <c r="R19" s="90"/>
-      <c r="S19" s="95" t="n">
+      <c r="Q19" s="86" t="s">
+        <v>1</v>
+      </c>
+      <c r="R19" s="89"/>
+      <c r="S19" s="94" t="n">
         <f aca="false">+P15</f>
         <v>1.25331360800081</v>
       </c>
-      <c r="T19" s="87" t="s">
+      <c r="T19" s="86" t="s">
         <v>16</v>
       </c>
-      <c r="U19" s="96" t="n">
+      <c r="U19" s="95" t="n">
         <f aca="false">+P13</f>
         <v>2</v>
       </c>
-      <c r="V19" s="65"/>
-      <c r="W19" s="97" t="n">
+      <c r="V19" s="64"/>
+      <c r="W19" s="96" t="n">
         <f aca="false">+AB19*Z19</f>
         <v>2.506628274631</v>
       </c>
-      <c r="X19" s="87" t="s">
-        <v>1</v>
-      </c>
-      <c r="Y19" s="90"/>
-      <c r="Z19" s="98" t="n">
+      <c r="X19" s="86" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y19" s="89"/>
+      <c r="Z19" s="97" t="n">
         <f aca="false">+Z15</f>
         <v>1.2533141373155</v>
       </c>
-      <c r="AA19" s="87" t="s">
+      <c r="AA19" s="86" t="s">
         <v>16</v>
       </c>
-      <c r="AB19" s="99" t="n">
+      <c r="AB19" s="98" t="n">
         <f aca="false">+Z13</f>
         <v>2</v>
       </c>
-      <c r="AC19" s="55"/>
-      <c r="AD19" s="69" t="n">
+      <c r="AC19" s="54"/>
+      <c r="AD19" s="68" t="n">
         <f aca="false">+W19^2</f>
         <v>6.28318530717958</v>
       </c>
-      <c r="AE19" s="69" t="n">
+      <c r="AE19" s="68" t="n">
         <f aca="false">+Z16^2</f>
         <v>0</v>
       </c>
-      <c r="AF19" s="69" t="n">
+      <c r="AF19" s="68" t="n">
         <f aca="false">+AB19^2</f>
         <v>4</v>
       </c>
@@ -3303,86 +3306,86 @@
       <c r="A20" s="11"/>
       <c r="B20" s="12"/>
       <c r="C20" s="13"/>
-      <c r="D20" s="100" t="s">
+      <c r="D20" s="99" t="s">
         <v>2</v>
       </c>
-      <c r="E20" s="101" t="s">
-        <v>1</v>
-      </c>
-      <c r="F20" s="102" t="s">
+      <c r="E20" s="100" t="s">
+        <v>1</v>
+      </c>
+      <c r="F20" s="101" t="s">
         <v>20</v>
       </c>
-      <c r="G20" s="54"/>
-      <c r="H20" s="55"/>
-      <c r="I20" s="103" t="n">
+      <c r="G20" s="53"/>
+      <c r="H20" s="54"/>
+      <c r="I20" s="102" t="n">
         <f aca="false">+L20/N20</f>
         <v>2</v>
       </c>
-      <c r="J20" s="101" t="s">
-        <v>1</v>
-      </c>
-      <c r="K20" s="104"/>
-      <c r="L20" s="105" t="n">
+      <c r="J20" s="100" t="s">
+        <v>1</v>
+      </c>
+      <c r="K20" s="103"/>
+      <c r="L20" s="104" t="n">
         <f aca="false">+$I$12</f>
         <v>6</v>
       </c>
-      <c r="M20" s="106" t="s">
+      <c r="M20" s="105" t="s">
         <v>18</v>
       </c>
-      <c r="N20" s="107" t="n">
+      <c r="N20" s="106" t="n">
         <f aca="false">+$I$15</f>
         <v>3</v>
       </c>
-      <c r="O20" s="61"/>
-      <c r="P20" s="108" t="n">
+      <c r="O20" s="60"/>
+      <c r="P20" s="107" t="n">
         <f aca="false">+S20/U20</f>
         <v>2</v>
       </c>
-      <c r="Q20" s="101" t="s">
-        <v>1</v>
-      </c>
-      <c r="R20" s="104"/>
-      <c r="S20" s="109" t="n">
+      <c r="Q20" s="100" t="s">
+        <v>1</v>
+      </c>
+      <c r="R20" s="103"/>
+      <c r="S20" s="108" t="n">
         <f aca="false">+P12</f>
         <v>2.50662721600161</v>
       </c>
-      <c r="T20" s="110" t="s">
+      <c r="T20" s="109" t="s">
         <v>18</v>
       </c>
-      <c r="U20" s="111" t="n">
+      <c r="U20" s="110" t="n">
         <f aca="false">+P15</f>
         <v>1.25331360800081</v>
       </c>
-      <c r="V20" s="112"/>
-      <c r="W20" s="113" t="n">
+      <c r="V20" s="111"/>
+      <c r="W20" s="112" t="n">
         <f aca="false">+Z20/AB20</f>
         <v>2</v>
       </c>
-      <c r="X20" s="101" t="s">
-        <v>1</v>
-      </c>
-      <c r="Y20" s="104"/>
-      <c r="Z20" s="114" t="n">
+      <c r="X20" s="100" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y20" s="103"/>
+      <c r="Z20" s="113" t="n">
         <f aca="false">+Z12</f>
         <v>2.506628274631</v>
       </c>
-      <c r="AA20" s="110" t="s">
+      <c r="AA20" s="109" t="s">
         <v>18</v>
       </c>
-      <c r="AB20" s="115" t="n">
+      <c r="AB20" s="114" t="n">
         <f aca="false">+Z15</f>
         <v>1.2533141373155</v>
       </c>
-      <c r="AC20" s="55"/>
-      <c r="AD20" s="69" t="n">
+      <c r="AC20" s="54"/>
+      <c r="AD20" s="68" t="n">
         <f aca="false">+W20^2</f>
         <v>4</v>
       </c>
-      <c r="AE20" s="69" t="n">
+      <c r="AE20" s="68" t="n">
         <f aca="false">+Z17^2</f>
         <v>9.86960440108934</v>
       </c>
-      <c r="AF20" s="69" t="n">
+      <c r="AF20" s="68" t="n">
         <f aca="false">+AB20^2</f>
         <v>1.5707963267949</v>
       </c>
@@ -3400,86 +3403,86 @@
       <c r="A21" s="11"/>
       <c r="B21" s="12"/>
       <c r="C21" s="13"/>
-      <c r="D21" s="116" t="s">
+      <c r="D21" s="115" t="s">
         <v>2</v>
       </c>
-      <c r="E21" s="117" t="s">
-        <v>1</v>
-      </c>
-      <c r="F21" s="118" t="s">
+      <c r="E21" s="116" t="s">
+        <v>1</v>
+      </c>
+      <c r="F21" s="117" t="s">
         <v>21</v>
       </c>
-      <c r="G21" s="54"/>
-      <c r="H21" s="55"/>
-      <c r="I21" s="119" t="n">
+      <c r="G21" s="53"/>
+      <c r="H21" s="54"/>
+      <c r="I21" s="118" t="n">
         <f aca="false">+L21/N21</f>
         <v>2</v>
       </c>
-      <c r="J21" s="117" t="s">
-        <v>1</v>
-      </c>
-      <c r="K21" s="120"/>
-      <c r="L21" s="121" t="n">
+      <c r="J21" s="116" t="s">
+        <v>1</v>
+      </c>
+      <c r="K21" s="119"/>
+      <c r="L21" s="120" t="n">
         <f aca="false">+$I$12^2</f>
         <v>36</v>
       </c>
-      <c r="M21" s="122" t="s">
+      <c r="M21" s="121" t="s">
         <v>18</v>
       </c>
-      <c r="N21" s="123" t="n">
+      <c r="N21" s="122" t="n">
         <f aca="false">+$I$14</f>
         <v>18</v>
       </c>
-      <c r="O21" s="61"/>
-      <c r="P21" s="124" t="n">
+      <c r="O21" s="60"/>
+      <c r="P21" s="123" t="n">
         <f aca="false">+S21/U21</f>
         <v>2</v>
       </c>
-      <c r="Q21" s="117" t="s">
-        <v>1</v>
-      </c>
-      <c r="R21" s="120"/>
-      <c r="S21" s="125" t="n">
+      <c r="Q21" s="116" t="s">
+        <v>1</v>
+      </c>
+      <c r="R21" s="119"/>
+      <c r="S21" s="124" t="n">
         <f aca="false">+P12^2</f>
         <v>6.28318</v>
       </c>
-      <c r="T21" s="126" t="s">
+      <c r="T21" s="125" t="s">
         <v>18</v>
       </c>
-      <c r="U21" s="127" t="n">
+      <c r="U21" s="126" t="n">
         <f aca="false">+P14</f>
         <v>3.14159</v>
       </c>
-      <c r="V21" s="65"/>
-      <c r="W21" s="128" t="n">
+      <c r="V21" s="64"/>
+      <c r="W21" s="127" t="n">
         <f aca="false">+Z21/AB21</f>
         <v>2</v>
       </c>
-      <c r="X21" s="117" t="s">
-        <v>1</v>
-      </c>
-      <c r="Y21" s="120"/>
-      <c r="Z21" s="129" t="n">
+      <c r="X21" s="116" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y21" s="119"/>
+      <c r="Z21" s="128" t="n">
         <f aca="false">+Z12^2</f>
         <v>6.28318530717958</v>
       </c>
-      <c r="AA21" s="126" t="s">
+      <c r="AA21" s="125" t="s">
         <v>18</v>
       </c>
-      <c r="AB21" s="130" t="n">
+      <c r="AB21" s="129" t="n">
         <f aca="false">+Z14</f>
         <v>3.14159265358979</v>
       </c>
-      <c r="AC21" s="55"/>
-      <c r="AD21" s="69" t="n">
+      <c r="AC21" s="54"/>
+      <c r="AD21" s="68" t="n">
         <f aca="false">+W21^2</f>
         <v>4</v>
       </c>
-      <c r="AE21" s="69" t="n">
+      <c r="AE21" s="68" t="n">
         <f aca="false">+Z18^2</f>
         <v>9.86960440108934</v>
       </c>
-      <c r="AF21" s="69" t="n">
+      <c r="AF21" s="68" t="n">
         <f aca="false">+AB21^2</f>
         <v>9.86960440108934</v>
       </c>
@@ -3497,86 +3500,86 @@
       <c r="A22" s="11"/>
       <c r="B22" s="12"/>
       <c r="C22" s="13"/>
-      <c r="D22" s="131" t="s">
+      <c r="D22" s="130" t="s">
         <v>2</v>
       </c>
-      <c r="E22" s="132" t="s">
-        <v>1</v>
-      </c>
-      <c r="F22" s="133" t="s">
+      <c r="E22" s="131" t="s">
+        <v>1</v>
+      </c>
+      <c r="F22" s="132" t="s">
         <v>22</v>
       </c>
-      <c r="G22" s="54"/>
-      <c r="H22" s="55"/>
-      <c r="I22" s="134" t="n">
+      <c r="G22" s="53"/>
+      <c r="H22" s="54"/>
+      <c r="I22" s="133" t="n">
         <f aca="false">+L22/N22</f>
         <v>2</v>
       </c>
-      <c r="J22" s="132" t="s">
-        <v>1</v>
-      </c>
-      <c r="K22" s="135"/>
-      <c r="L22" s="136" t="n">
+      <c r="J22" s="131" t="s">
+        <v>1</v>
+      </c>
+      <c r="K22" s="134"/>
+      <c r="L22" s="135" t="n">
         <f aca="false">+$I$14</f>
         <v>18</v>
       </c>
-      <c r="M22" s="137" t="s">
+      <c r="M22" s="136" t="s">
         <v>18</v>
       </c>
-      <c r="N22" s="138" t="n">
+      <c r="N22" s="137" t="n">
         <f aca="false">+$I$15^2</f>
         <v>9</v>
       </c>
-      <c r="O22" s="61"/>
-      <c r="P22" s="139" t="n">
+      <c r="O22" s="60"/>
+      <c r="P22" s="138" t="n">
         <f aca="false">+S22/U22</f>
         <v>2</v>
       </c>
-      <c r="Q22" s="132" t="s">
-        <v>1</v>
-      </c>
-      <c r="R22" s="135"/>
-      <c r="S22" s="140" t="n">
+      <c r="Q22" s="131" t="s">
+        <v>1</v>
+      </c>
+      <c r="R22" s="134"/>
+      <c r="S22" s="139" t="n">
         <f aca="false">+P14</f>
         <v>3.14159</v>
       </c>
-      <c r="T22" s="132" t="s">
+      <c r="T22" s="131" t="s">
         <v>18</v>
       </c>
-      <c r="U22" s="141" t="n">
+      <c r="U22" s="140" t="n">
         <f aca="false">+P15^2</f>
         <v>1.570795</v>
       </c>
-      <c r="V22" s="65"/>
-      <c r="W22" s="142" t="n">
+      <c r="V22" s="64"/>
+      <c r="W22" s="141" t="n">
         <f aca="false">+Z22/AB22</f>
         <v>2</v>
       </c>
-      <c r="X22" s="132" t="s">
-        <v>1</v>
-      </c>
-      <c r="Y22" s="135"/>
-      <c r="Z22" s="143" t="n">
+      <c r="X22" s="131" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y22" s="134"/>
+      <c r="Z22" s="142" t="n">
         <f aca="false">+Z14</f>
         <v>3.14159265358979</v>
       </c>
-      <c r="AA22" s="132" t="s">
+      <c r="AA22" s="131" t="s">
         <v>18</v>
       </c>
-      <c r="AB22" s="144" t="n">
+      <c r="AB22" s="143" t="n">
         <f aca="false">+Z15^2</f>
         <v>1.5707963267949</v>
       </c>
-      <c r="AC22" s="55"/>
-      <c r="AD22" s="69" t="n">
+      <c r="AC22" s="54"/>
+      <c r="AD22" s="68" t="n">
         <f aca="false">+W22^2</f>
         <v>4</v>
       </c>
-      <c r="AE22" s="69" t="n">
+      <c r="AE22" s="68" t="n">
         <f aca="false">+Z19^2</f>
         <v>1.5707963267949</v>
       </c>
-      <c r="AF22" s="69" t="n">
+      <c r="AF22" s="68" t="n">
         <f aca="false">+AB22^2</f>
         <v>2.46740110027233</v>
       </c>
@@ -3594,86 +3597,86 @@
       <c r="A23" s="11"/>
       <c r="B23" s="12"/>
       <c r="C23" s="13"/>
-      <c r="D23" s="145" t="s">
+      <c r="D23" s="144" t="s">
         <v>23</v>
       </c>
-      <c r="E23" s="146" t="s">
-        <v>1</v>
-      </c>
-      <c r="F23" s="147" t="s">
+      <c r="E23" s="145" t="s">
+        <v>1</v>
+      </c>
+      <c r="F23" s="146" t="s">
         <v>24</v>
       </c>
-      <c r="G23" s="54"/>
-      <c r="H23" s="55"/>
-      <c r="I23" s="148" t="n">
+      <c r="G23" s="53"/>
+      <c r="H23" s="54"/>
+      <c r="I23" s="147" t="n">
         <f aca="false">+L23/N23</f>
         <v>18</v>
       </c>
-      <c r="J23" s="146" t="s">
-        <v>1</v>
-      </c>
-      <c r="K23" s="149"/>
-      <c r="L23" s="150" t="n">
+      <c r="J23" s="145" t="s">
+        <v>1</v>
+      </c>
+      <c r="K23" s="148"/>
+      <c r="L23" s="149" t="n">
         <f aca="false">+$I$12^2</f>
         <v>36</v>
       </c>
-      <c r="M23" s="151" t="s">
+      <c r="M23" s="150" t="s">
         <v>18</v>
       </c>
-      <c r="N23" s="152" t="n">
+      <c r="N23" s="151" t="n">
         <f aca="false">+$I$13</f>
         <v>2</v>
       </c>
-      <c r="O23" s="61"/>
-      <c r="P23" s="153" t="n">
+      <c r="O23" s="60"/>
+      <c r="P23" s="152" t="n">
         <f aca="false">+S23/U23</f>
         <v>3.14159</v>
       </c>
-      <c r="Q23" s="146" t="s">
-        <v>1</v>
-      </c>
-      <c r="R23" s="149"/>
-      <c r="S23" s="154" t="n">
+      <c r="Q23" s="145" t="s">
+        <v>1</v>
+      </c>
+      <c r="R23" s="148"/>
+      <c r="S23" s="153" t="n">
         <f aca="false">+P12^2</f>
         <v>6.28318</v>
       </c>
-      <c r="T23" s="146" t="s">
+      <c r="T23" s="145" t="s">
         <v>18</v>
       </c>
-      <c r="U23" s="155" t="n">
+      <c r="U23" s="154" t="n">
         <f aca="false">+P13</f>
         <v>2</v>
       </c>
-      <c r="V23" s="65"/>
-      <c r="W23" s="156" t="n">
+      <c r="V23" s="64"/>
+      <c r="W23" s="155" t="n">
         <f aca="false">+Z23/AB23</f>
         <v>3.14159265358979</v>
       </c>
-      <c r="X23" s="146" t="s">
-        <v>1</v>
-      </c>
-      <c r="Y23" s="149"/>
-      <c r="Z23" s="157" t="n">
+      <c r="X23" s="145" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y23" s="148"/>
+      <c r="Z23" s="156" t="n">
         <f aca="false">+Z12^2</f>
         <v>6.28318530717958</v>
       </c>
-      <c r="AA23" s="146" t="s">
+      <c r="AA23" s="145" t="s">
         <v>18</v>
       </c>
-      <c r="AB23" s="158" t="n">
+      <c r="AB23" s="157" t="n">
         <f aca="false">+Z13</f>
         <v>2</v>
       </c>
-      <c r="AC23" s="55"/>
-      <c r="AD23" s="69" t="n">
+      <c r="AC23" s="54"/>
+      <c r="AD23" s="68" t="n">
         <f aca="false">+W23^2</f>
         <v>9.86960440108934</v>
       </c>
-      <c r="AE23" s="69" t="n">
+      <c r="AE23" s="68" t="n">
         <f aca="false">+Z20^2</f>
         <v>6.28318530717958</v>
       </c>
-      <c r="AF23" s="69" t="n">
+      <c r="AF23" s="68" t="n">
         <f aca="false">+AB23^2</f>
         <v>4</v>
       </c>
@@ -3691,86 +3694,86 @@
       <c r="A24" s="11"/>
       <c r="B24" s="12"/>
       <c r="C24" s="13"/>
-      <c r="D24" s="159" t="s">
+      <c r="D24" s="158" t="s">
         <v>3</v>
       </c>
-      <c r="E24" s="160" t="s">
-        <v>1</v>
-      </c>
-      <c r="F24" s="161" t="s">
+      <c r="E24" s="159" t="s">
+        <v>1</v>
+      </c>
+      <c r="F24" s="160" t="s">
         <v>25</v>
       </c>
-      <c r="G24" s="54"/>
-      <c r="H24" s="55"/>
-      <c r="I24" s="162" t="n">
+      <c r="G24" s="53"/>
+      <c r="H24" s="54"/>
+      <c r="I24" s="161" t="n">
         <f aca="false">+N24*L24</f>
         <v>18</v>
       </c>
-      <c r="J24" s="160" t="s">
-        <v>1</v>
-      </c>
-      <c r="K24" s="163"/>
-      <c r="L24" s="164" t="n">
+      <c r="J24" s="159" t="s">
+        <v>1</v>
+      </c>
+      <c r="K24" s="162"/>
+      <c r="L24" s="163" t="n">
         <f aca="false">+$I$15^2</f>
         <v>9</v>
       </c>
-      <c r="M24" s="165" t="s">
+      <c r="M24" s="164" t="s">
         <v>16</v>
       </c>
-      <c r="N24" s="166" t="n">
+      <c r="N24" s="165" t="n">
         <f aca="false">+$I$13</f>
         <v>2</v>
       </c>
-      <c r="O24" s="61"/>
-      <c r="P24" s="167" t="n">
+      <c r="O24" s="60"/>
+      <c r="P24" s="166" t="n">
         <f aca="false">+U24*S24</f>
         <v>3.14159</v>
       </c>
-      <c r="Q24" s="160" t="s">
-        <v>1</v>
-      </c>
-      <c r="R24" s="163"/>
-      <c r="S24" s="168" t="n">
+      <c r="Q24" s="159" t="s">
+        <v>1</v>
+      </c>
+      <c r="R24" s="162"/>
+      <c r="S24" s="167" t="n">
         <f aca="false">+P15^2</f>
         <v>1.570795</v>
       </c>
-      <c r="T24" s="169" t="s">
+      <c r="T24" s="168" t="s">
         <v>16</v>
       </c>
-      <c r="U24" s="170" t="n">
+      <c r="U24" s="169" t="n">
         <f aca="false">+P13</f>
         <v>2</v>
       </c>
-      <c r="V24" s="65"/>
-      <c r="W24" s="171" t="n">
+      <c r="V24" s="64"/>
+      <c r="W24" s="170" t="n">
         <f aca="false">+AB24*Z24</f>
         <v>3.14159265358979</v>
       </c>
-      <c r="X24" s="160" t="s">
-        <v>1</v>
-      </c>
-      <c r="Y24" s="163"/>
-      <c r="Z24" s="172" t="n">
+      <c r="X24" s="159" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y24" s="162"/>
+      <c r="Z24" s="171" t="n">
         <f aca="false">+Z15^2</f>
         <v>1.5707963267949</v>
       </c>
-      <c r="AA24" s="169" t="s">
+      <c r="AA24" s="168" t="s">
         <v>16</v>
       </c>
-      <c r="AB24" s="173" t="n">
+      <c r="AB24" s="172" t="n">
         <f aca="false">+Z13</f>
         <v>2</v>
       </c>
-      <c r="AC24" s="55"/>
-      <c r="AD24" s="69" t="n">
+      <c r="AC24" s="54"/>
+      <c r="AD24" s="68" t="n">
         <f aca="false">+W24^2</f>
         <v>9.86960440108934</v>
       </c>
-      <c r="AE24" s="69" t="n">
+      <c r="AE24" s="68" t="n">
         <f aca="false">+Z21^2</f>
         <v>39.4784176043574</v>
       </c>
-      <c r="AF24" s="69" t="n">
+      <c r="AF24" s="68" t="n">
         <f aca="false">+AB24^2</f>
         <v>4</v>
       </c>
@@ -3788,86 +3791,86 @@
       <c r="A25" s="11"/>
       <c r="B25" s="12"/>
       <c r="C25" s="13"/>
-      <c r="D25" s="174" t="s">
+      <c r="D25" s="173" t="s">
         <v>3</v>
       </c>
-      <c r="E25" s="175" t="s">
-        <v>1</v>
-      </c>
-      <c r="F25" s="176" t="s">
+      <c r="E25" s="174" t="s">
+        <v>1</v>
+      </c>
+      <c r="F25" s="175" t="s">
         <v>26</v>
       </c>
-      <c r="G25" s="54"/>
-      <c r="H25" s="55"/>
-      <c r="I25" s="177" t="n">
+      <c r="G25" s="53"/>
+      <c r="H25" s="54"/>
+      <c r="I25" s="176" t="n">
         <f aca="false">+L25*N25</f>
         <v>18</v>
       </c>
-      <c r="J25" s="175" t="s">
-        <v>1</v>
-      </c>
-      <c r="K25" s="178"/>
-      <c r="L25" s="179" t="n">
+      <c r="J25" s="174" t="s">
+        <v>1</v>
+      </c>
+      <c r="K25" s="177"/>
+      <c r="L25" s="178" t="n">
         <f aca="false">+$I$12</f>
         <v>6</v>
       </c>
-      <c r="M25" s="180" t="s">
+      <c r="M25" s="179" t="s">
         <v>16</v>
       </c>
-      <c r="N25" s="181" t="n">
+      <c r="N25" s="180" t="n">
         <f aca="false">+$I$15</f>
         <v>3</v>
       </c>
-      <c r="O25" s="61"/>
-      <c r="P25" s="182" t="n">
+      <c r="O25" s="60"/>
+      <c r="P25" s="181" t="n">
         <f aca="false">+S25*U25</f>
         <v>3.14159</v>
       </c>
-      <c r="Q25" s="175" t="s">
-        <v>1</v>
-      </c>
-      <c r="R25" s="178"/>
-      <c r="S25" s="183" t="n">
+      <c r="Q25" s="174" t="s">
+        <v>1</v>
+      </c>
+      <c r="R25" s="177"/>
+      <c r="S25" s="182" t="n">
         <f aca="false">+P12</f>
         <v>2.50662721600161</v>
       </c>
-      <c r="T25" s="175" t="s">
+      <c r="T25" s="174" t="s">
         <v>16</v>
       </c>
-      <c r="U25" s="184" t="n">
+      <c r="U25" s="183" t="n">
         <f aca="false">+P15</f>
         <v>1.25331360800081</v>
       </c>
-      <c r="V25" s="65"/>
-      <c r="W25" s="185" t="n">
+      <c r="V25" s="64"/>
+      <c r="W25" s="184" t="n">
         <f aca="false">+Z25*AB25</f>
         <v>3.14159265358979</v>
       </c>
-      <c r="X25" s="175" t="s">
-        <v>1</v>
-      </c>
-      <c r="Y25" s="178"/>
-      <c r="Z25" s="186" t="n">
+      <c r="X25" s="174" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y25" s="177"/>
+      <c r="Z25" s="185" t="n">
         <f aca="false">+Z12</f>
         <v>2.506628274631</v>
       </c>
-      <c r="AA25" s="175" t="s">
+      <c r="AA25" s="174" t="s">
         <v>16</v>
       </c>
-      <c r="AB25" s="187" t="n">
+      <c r="AB25" s="186" t="n">
         <f aca="false">+Z15</f>
         <v>1.2533141373155</v>
       </c>
-      <c r="AC25" s="55"/>
-      <c r="AD25" s="69" t="n">
+      <c r="AC25" s="54"/>
+      <c r="AD25" s="68" t="n">
         <f aca="false">+W25^2</f>
         <v>9.86960440108934</v>
       </c>
-      <c r="AE25" s="69" t="n">
+      <c r="AE25" s="68" t="n">
         <f aca="false">+Z22^2</f>
         <v>9.86960440108934</v>
       </c>
-      <c r="AF25" s="69" t="n">
+      <c r="AF25" s="68" t="n">
         <f aca="false">+AB25^2</f>
         <v>1.5707963267949</v>
       </c>
@@ -3885,86 +3888,86 @@
       <c r="A26" s="11"/>
       <c r="B26" s="12"/>
       <c r="C26" s="13"/>
-      <c r="D26" s="188" t="s">
+      <c r="D26" s="187" t="s">
         <v>4</v>
       </c>
-      <c r="E26" s="189" t="s">
-        <v>1</v>
-      </c>
-      <c r="F26" s="190" t="s">
+      <c r="E26" s="188" t="s">
+        <v>1</v>
+      </c>
+      <c r="F26" s="189" t="s">
         <v>27</v>
       </c>
-      <c r="G26" s="54"/>
-      <c r="H26" s="54"/>
-      <c r="I26" s="191" t="n">
+      <c r="G26" s="53"/>
+      <c r="H26" s="53"/>
+      <c r="I26" s="190" t="n">
         <f aca="false">+L26/N26</f>
         <v>3</v>
       </c>
-      <c r="J26" s="192" t="s">
-        <v>1</v>
-      </c>
-      <c r="K26" s="193"/>
-      <c r="L26" s="194" t="n">
+      <c r="J26" s="191" t="s">
+        <v>1</v>
+      </c>
+      <c r="K26" s="192"/>
+      <c r="L26" s="193" t="n">
         <f aca="false">+$I$12</f>
         <v>6</v>
       </c>
-      <c r="M26" s="195" t="s">
+      <c r="M26" s="194" t="s">
         <v>18</v>
       </c>
-      <c r="N26" s="196" t="n">
+      <c r="N26" s="195" t="n">
         <f aca="false">+$I$13</f>
         <v>2</v>
       </c>
-      <c r="O26" s="61"/>
-      <c r="P26" s="197" t="n">
+      <c r="O26" s="60"/>
+      <c r="P26" s="196" t="n">
         <f aca="false">+S26/U26</f>
         <v>1.25331360800081</v>
       </c>
-      <c r="Q26" s="192" t="s">
-        <v>1</v>
-      </c>
-      <c r="R26" s="193"/>
-      <c r="S26" s="198" t="n">
+      <c r="Q26" s="191" t="s">
+        <v>1</v>
+      </c>
+      <c r="R26" s="192"/>
+      <c r="S26" s="197" t="n">
         <f aca="false">+P12</f>
         <v>2.50662721600161</v>
       </c>
-      <c r="T26" s="199" t="s">
+      <c r="T26" s="198" t="s">
         <v>18</v>
       </c>
-      <c r="U26" s="200" t="n">
+      <c r="U26" s="199" t="n">
         <f aca="false">+P13</f>
         <v>2</v>
       </c>
-      <c r="V26" s="112"/>
-      <c r="W26" s="201" t="n">
+      <c r="V26" s="111"/>
+      <c r="W26" s="200" t="n">
         <f aca="false">+Z26/AB26</f>
         <v>1.2533141373155</v>
       </c>
-      <c r="X26" s="192" t="s">
-        <v>1</v>
-      </c>
-      <c r="Y26" s="193"/>
-      <c r="Z26" s="202" t="n">
+      <c r="X26" s="191" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y26" s="192"/>
+      <c r="Z26" s="201" t="n">
         <f aca="false">+Z12</f>
         <v>2.506628274631</v>
       </c>
-      <c r="AA26" s="199" t="s">
+      <c r="AA26" s="198" t="s">
         <v>18</v>
       </c>
-      <c r="AB26" s="203" t="n">
+      <c r="AB26" s="202" t="n">
         <f aca="false">+Z13</f>
         <v>2</v>
       </c>
-      <c r="AC26" s="54"/>
-      <c r="AD26" s="69" t="n">
+      <c r="AC26" s="53"/>
+      <c r="AD26" s="68" t="n">
         <f aca="false">+W26^2</f>
         <v>1.5707963267949</v>
       </c>
-      <c r="AE26" s="69" t="n">
+      <c r="AE26" s="68" t="n">
         <f aca="false">+Z23^2</f>
         <v>39.4784176043574</v>
       </c>
-      <c r="AF26" s="69" t="n">
+      <c r="AF26" s="68" t="n">
         <f aca="false">+AB26^2</f>
         <v>4</v>
       </c>
@@ -3982,86 +3985,86 @@
       <c r="A27" s="11"/>
       <c r="B27" s="12"/>
       <c r="C27" s="13"/>
-      <c r="D27" s="204" t="s">
+      <c r="D27" s="203" t="s">
         <v>4</v>
       </c>
-      <c r="E27" s="205" t="s">
-        <v>1</v>
-      </c>
-      <c r="F27" s="206" t="s">
+      <c r="E27" s="204" t="s">
+        <v>1</v>
+      </c>
+      <c r="F27" s="205" t="s">
         <v>28</v>
       </c>
-      <c r="G27" s="54"/>
-      <c r="H27" s="54"/>
-      <c r="I27" s="207" t="n">
+      <c r="G27" s="53"/>
+      <c r="H27" s="53"/>
+      <c r="I27" s="206" t="n">
         <f aca="false">+L27/N27</f>
         <v>3</v>
       </c>
-      <c r="J27" s="208" t="s">
-        <v>1</v>
-      </c>
-      <c r="K27" s="209"/>
-      <c r="L27" s="210" t="n">
+      <c r="J27" s="207" t="s">
+        <v>1</v>
+      </c>
+      <c r="K27" s="208"/>
+      <c r="L27" s="209" t="n">
         <f aca="false">+$I$14</f>
         <v>18</v>
       </c>
-      <c r="M27" s="211" t="s">
+      <c r="M27" s="210" t="s">
         <v>18</v>
       </c>
-      <c r="N27" s="212" t="n">
+      <c r="N27" s="211" t="n">
         <f aca="false">+$I$12</f>
         <v>6</v>
       </c>
-      <c r="O27" s="61"/>
-      <c r="P27" s="213" t="n">
+      <c r="O27" s="60"/>
+      <c r="P27" s="212" t="n">
         <f aca="false">+S27/U27</f>
         <v>1.25331360800081</v>
       </c>
-      <c r="Q27" s="208" t="s">
-        <v>1</v>
-      </c>
-      <c r="R27" s="209"/>
-      <c r="S27" s="214" t="n">
+      <c r="Q27" s="207" t="s">
+        <v>1</v>
+      </c>
+      <c r="R27" s="208"/>
+      <c r="S27" s="213" t="n">
         <f aca="false">+P14</f>
         <v>3.14159</v>
       </c>
-      <c r="T27" s="215" t="s">
+      <c r="T27" s="214" t="s">
         <v>18</v>
       </c>
-      <c r="U27" s="216" t="n">
+      <c r="U27" s="215" t="n">
         <f aca="false">+P12</f>
         <v>2.50662721600161</v>
       </c>
-      <c r="V27" s="65"/>
-      <c r="W27" s="217" t="n">
+      <c r="V27" s="64"/>
+      <c r="W27" s="216" t="n">
         <f aca="false">+Z27/AB27</f>
         <v>1.2533141373155</v>
       </c>
-      <c r="X27" s="208" t="s">
-        <v>1</v>
-      </c>
-      <c r="Y27" s="209"/>
-      <c r="Z27" s="218" t="n">
+      <c r="X27" s="207" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y27" s="208"/>
+      <c r="Z27" s="217" t="n">
         <f aca="false">+Z14</f>
         <v>3.14159265358979</v>
       </c>
-      <c r="AA27" s="215" t="s">
+      <c r="AA27" s="214" t="s">
         <v>18</v>
       </c>
-      <c r="AB27" s="219" t="n">
+      <c r="AB27" s="218" t="n">
         <f aca="false">+Z12</f>
         <v>2.506628274631</v>
       </c>
-      <c r="AC27" s="54"/>
-      <c r="AD27" s="69" t="n">
+      <c r="AC27" s="53"/>
+      <c r="AD27" s="68" t="n">
         <f aca="false">+W27^2</f>
         <v>1.57079632679489</v>
       </c>
-      <c r="AE27" s="69" t="n">
+      <c r="AE27" s="68" t="n">
         <f aca="false">+Z24^2</f>
         <v>2.46740110027233</v>
       </c>
-      <c r="AF27" s="69" t="n">
+      <c r="AF27" s="68" t="n">
         <f aca="false">+AB27^2</f>
         <v>6.28318530717958</v>
       </c>
@@ -4079,92 +4082,92 @@
       <c r="A28" s="11"/>
       <c r="B28" s="12"/>
       <c r="C28" s="13"/>
-      <c r="D28" s="220" t="s">
+      <c r="D28" s="219" t="s">
         <v>4</v>
       </c>
-      <c r="E28" s="221" t="s">
-        <v>1</v>
-      </c>
-      <c r="F28" s="222" t="s">
+      <c r="E28" s="220" t="s">
+        <v>1</v>
+      </c>
+      <c r="F28" s="221" t="s">
         <v>29</v>
       </c>
-      <c r="G28" s="54"/>
-      <c r="H28" s="54"/>
-      <c r="I28" s="223" t="n">
+      <c r="G28" s="53"/>
+      <c r="H28" s="53"/>
+      <c r="I28" s="222" t="n">
         <f aca="false">+SQRT(L28/N28)</f>
         <v>3</v>
       </c>
-      <c r="J28" s="224" t="s">
-        <v>1</v>
-      </c>
-      <c r="K28" s="225" t="s">
+      <c r="J28" s="223" t="s">
+        <v>1</v>
+      </c>
+      <c r="K28" s="224" t="s">
         <v>30</v>
       </c>
-      <c r="L28" s="226" t="n">
+      <c r="L28" s="225" t="n">
         <f aca="false">+$I$14</f>
         <v>18</v>
       </c>
-      <c r="M28" s="227" t="s">
+      <c r="M28" s="226" t="s">
         <v>18</v>
       </c>
-      <c r="N28" s="228" t="n">
+      <c r="N28" s="227" t="n">
         <f aca="false">+$I$13</f>
         <v>2</v>
       </c>
-      <c r="O28" s="61"/>
-      <c r="P28" s="229" t="n">
+      <c r="O28" s="60"/>
+      <c r="P28" s="228" t="n">
         <f aca="false">+SQRT(S28/U28)</f>
         <v>1.25331360800081</v>
       </c>
-      <c r="Q28" s="224" t="s">
-        <v>1</v>
-      </c>
-      <c r="R28" s="225" t="s">
+      <c r="Q28" s="223" t="s">
+        <v>1</v>
+      </c>
+      <c r="R28" s="224" t="s">
         <v>30</v>
       </c>
-      <c r="S28" s="230" t="n">
+      <c r="S28" s="229" t="n">
         <f aca="false">+P14</f>
         <v>3.14159</v>
       </c>
-      <c r="T28" s="224" t="s">
+      <c r="T28" s="223" t="s">
         <v>18</v>
       </c>
-      <c r="U28" s="231" t="n">
+      <c r="U28" s="230" t="n">
         <f aca="false">+P13</f>
         <v>2</v>
       </c>
-      <c r="V28" s="65"/>
-      <c r="W28" s="232" t="n">
+      <c r="V28" s="64"/>
+      <c r="W28" s="231" t="n">
         <f aca="false">+SQRT(Z28/AB28)</f>
         <v>1.2533141373155</v>
       </c>
-      <c r="X28" s="224" t="s">
-        <v>1</v>
-      </c>
-      <c r="Y28" s="225" t="s">
+      <c r="X28" s="223" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y28" s="224" t="s">
         <v>30</v>
       </c>
-      <c r="Z28" s="233" t="n">
+      <c r="Z28" s="232" t="n">
         <f aca="false">+Z14</f>
         <v>3.14159265358979</v>
       </c>
-      <c r="AA28" s="224" t="s">
+      <c r="AA28" s="223" t="s">
         <v>18</v>
       </c>
-      <c r="AB28" s="234" t="n">
+      <c r="AB28" s="233" t="n">
         <f aca="false">+Z13</f>
         <v>2</v>
       </c>
-      <c r="AC28" s="54"/>
-      <c r="AD28" s="69" t="n">
+      <c r="AC28" s="53"/>
+      <c r="AD28" s="68" t="n">
         <f aca="false">+W28^2</f>
         <v>1.5707963267949</v>
       </c>
-      <c r="AE28" s="69" t="n">
+      <c r="AE28" s="68" t="n">
         <f aca="false">+Z25^2</f>
         <v>6.28318530717958</v>
       </c>
-      <c r="AF28" s="69" t="n">
+      <c r="AF28" s="68" t="n">
         <f aca="false">+AB28^2</f>
         <v>4</v>
       </c>
@@ -4343,39 +4346,39 @@
       <c r="AI32" s="11"/>
       <c r="AJ32" s="27"/>
       <c r="AK32" s="11"/>
-      <c r="AL32" s="235"/>
+      <c r="AL32" s="234"/>
       <c r="AM32" s="14"/>
       <c r="AN32" s="30"/>
       <c r="AO32" s="27"/>
     </row>
     <row r="33" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="236"/>
+      <c r="B33" s="235"/>
       <c r="C33" s="11"/>
-      <c r="D33" s="236"/>
+      <c r="D33" s="235"/>
       <c r="E33" s="29"/>
       <c r="F33" s="11"/>
       <c r="G33" s="11"/>
       <c r="H33" s="11"/>
       <c r="I33" s="11"/>
       <c r="J33" s="11"/>
-      <c r="K33" s="236"/>
-      <c r="L33" s="236"/>
+      <c r="K33" s="235"/>
+      <c r="L33" s="235"/>
       <c r="M33" s="29"/>
-      <c r="N33" s="237"/>
-      <c r="O33" s="237"/>
+      <c r="N33" s="236"/>
+      <c r="O33" s="236"/>
       <c r="P33" s="11"/>
       <c r="Q33" s="11"/>
-      <c r="R33" s="236"/>
-      <c r="S33" s="236"/>
+      <c r="R33" s="235"/>
+      <c r="S33" s="235"/>
       <c r="T33" s="29"/>
-      <c r="U33" s="237"/>
+      <c r="U33" s="236"/>
       <c r="V33" s="16"/>
       <c r="W33" s="11"/>
       <c r="X33" s="11"/>
-      <c r="Y33" s="236"/>
-      <c r="Z33" s="236"/>
+      <c r="Y33" s="235"/>
+      <c r="Z33" s="235"/>
       <c r="AA33" s="29"/>
-      <c r="AB33" s="237"/>
+      <c r="AB33" s="236"/>
       <c r="AC33" s="11"/>
       <c r="AD33" s="11"/>
       <c r="AE33" s="11"/>
@@ -4391,33 +4394,33 @@
       <c r="AO33" s="27"/>
     </row>
     <row r="34" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B34" s="236"/>
+      <c r="B34" s="235"/>
       <c r="C34" s="11"/>
-      <c r="D34" s="236"/>
+      <c r="D34" s="235"/>
       <c r="E34" s="29"/>
       <c r="F34" s="11"/>
       <c r="G34" s="11"/>
       <c r="H34" s="11"/>
       <c r="I34" s="11"/>
       <c r="J34" s="11"/>
-      <c r="K34" s="236"/>
-      <c r="L34" s="236"/>
+      <c r="K34" s="235"/>
+      <c r="L34" s="235"/>
       <c r="M34" s="29"/>
-      <c r="N34" s="237"/>
-      <c r="O34" s="237"/>
+      <c r="N34" s="236"/>
+      <c r="O34" s="236"/>
       <c r="P34" s="11"/>
       <c r="Q34" s="11"/>
-      <c r="R34" s="236"/>
-      <c r="S34" s="236"/>
+      <c r="R34" s="235"/>
+      <c r="S34" s="235"/>
       <c r="T34" s="29"/>
-      <c r="U34" s="237"/>
+      <c r="U34" s="236"/>
       <c r="V34" s="16"/>
       <c r="W34" s="11"/>
       <c r="X34" s="11"/>
-      <c r="Y34" s="236"/>
-      <c r="Z34" s="236"/>
+      <c r="Y34" s="235"/>
+      <c r="Z34" s="235"/>
       <c r="AA34" s="29"/>
-      <c r="AB34" s="237"/>
+      <c r="AB34" s="236"/>
       <c r="AC34" s="11"/>
       <c r="AD34" s="11"/>
       <c r="AE34" s="11"/>
@@ -4433,33 +4436,33 @@
       <c r="AO34" s="27"/>
     </row>
     <row r="35" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B35" s="236"/>
+      <c r="B35" s="235"/>
       <c r="C35" s="11"/>
-      <c r="D35" s="236"/>
+      <c r="D35" s="235"/>
       <c r="E35" s="29"/>
       <c r="F35" s="11"/>
       <c r="G35" s="11"/>
       <c r="H35" s="11"/>
       <c r="I35" s="11"/>
       <c r="J35" s="11"/>
-      <c r="K35" s="236"/>
-      <c r="L35" s="236"/>
+      <c r="K35" s="235"/>
+      <c r="L35" s="235"/>
       <c r="M35" s="29"/>
-      <c r="N35" s="237"/>
-      <c r="O35" s="237"/>
+      <c r="N35" s="236"/>
+      <c r="O35" s="236"/>
       <c r="P35" s="11"/>
       <c r="Q35" s="11"/>
-      <c r="R35" s="236"/>
-      <c r="S35" s="236"/>
+      <c r="R35" s="235"/>
+      <c r="S35" s="235"/>
       <c r="T35" s="29"/>
-      <c r="U35" s="237"/>
+      <c r="U35" s="236"/>
       <c r="V35" s="16"/>
       <c r="W35" s="11"/>
       <c r="X35" s="11"/>
-      <c r="Y35" s="236"/>
-      <c r="Z35" s="236"/>
+      <c r="Y35" s="235"/>
+      <c r="Z35" s="235"/>
       <c r="AA35" s="29"/>
-      <c r="AB35" s="237"/>
+      <c r="AB35" s="236"/>
       <c r="AC35" s="11"/>
       <c r="AD35" s="11"/>
       <c r="AE35" s="11"/>
@@ -4475,33 +4478,33 @@
       <c r="AO35" s="27"/>
     </row>
     <row r="36" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B36" s="236"/>
+      <c r="B36" s="235"/>
       <c r="C36" s="11"/>
-      <c r="D36" s="236"/>
+      <c r="D36" s="235"/>
       <c r="E36" s="29"/>
       <c r="F36" s="11"/>
       <c r="G36" s="11"/>
       <c r="H36" s="11"/>
       <c r="I36" s="11"/>
       <c r="J36" s="11"/>
-      <c r="K36" s="236"/>
-      <c r="L36" s="236"/>
+      <c r="K36" s="235"/>
+      <c r="L36" s="235"/>
       <c r="M36" s="29"/>
-      <c r="N36" s="237"/>
-      <c r="O36" s="237"/>
+      <c r="N36" s="236"/>
+      <c r="O36" s="236"/>
       <c r="P36" s="11"/>
       <c r="Q36" s="11"/>
-      <c r="R36" s="236"/>
-      <c r="S36" s="236"/>
+      <c r="R36" s="235"/>
+      <c r="S36" s="235"/>
       <c r="T36" s="29"/>
-      <c r="U36" s="237"/>
+      <c r="U36" s="236"/>
       <c r="V36" s="16"/>
       <c r="W36" s="11"/>
       <c r="X36" s="11"/>
-      <c r="Y36" s="236"/>
-      <c r="Z36" s="236"/>
+      <c r="Y36" s="235"/>
+      <c r="Z36" s="235"/>
       <c r="AA36" s="29"/>
-      <c r="AB36" s="237"/>
+      <c r="AB36" s="236"/>
       <c r="AC36" s="11"/>
       <c r="AD36" s="11"/>
       <c r="AE36" s="11"/>
@@ -4517,33 +4520,33 @@
       <c r="AO36" s="27"/>
     </row>
     <row r="37" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B37" s="236"/>
+      <c r="B37" s="235"/>
       <c r="C37" s="11"/>
-      <c r="D37" s="236"/>
+      <c r="D37" s="235"/>
       <c r="E37" s="29"/>
       <c r="F37" s="11"/>
       <c r="G37" s="11"/>
       <c r="H37" s="11"/>
       <c r="I37" s="11"/>
       <c r="J37" s="11"/>
-      <c r="K37" s="236"/>
-      <c r="L37" s="236"/>
+      <c r="K37" s="235"/>
+      <c r="L37" s="235"/>
       <c r="M37" s="29"/>
-      <c r="N37" s="237"/>
-      <c r="O37" s="237"/>
+      <c r="N37" s="236"/>
+      <c r="O37" s="236"/>
       <c r="P37" s="11"/>
       <c r="Q37" s="11"/>
-      <c r="R37" s="236"/>
-      <c r="S37" s="236"/>
+      <c r="R37" s="235"/>
+      <c r="S37" s="235"/>
       <c r="T37" s="29"/>
-      <c r="U37" s="237"/>
+      <c r="U37" s="236"/>
       <c r="V37" s="16"/>
       <c r="W37" s="11"/>
       <c r="X37" s="11"/>
-      <c r="Y37" s="236"/>
-      <c r="Z37" s="236"/>
+      <c r="Y37" s="235"/>
+      <c r="Z37" s="235"/>
       <c r="AA37" s="29"/>
-      <c r="AB37" s="237"/>
+      <c r="AB37" s="236"/>
       <c r="AC37" s="11"/>
       <c r="AD37" s="11"/>
       <c r="AE37" s="11"/>
@@ -4559,33 +4562,33 @@
       <c r="AO37" s="27"/>
     </row>
     <row r="38" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B38" s="236"/>
+      <c r="B38" s="235"/>
       <c r="C38" s="11"/>
-      <c r="D38" s="236"/>
+      <c r="D38" s="235"/>
       <c r="E38" s="29"/>
       <c r="F38" s="11"/>
       <c r="G38" s="11"/>
       <c r="H38" s="11"/>
       <c r="I38" s="11"/>
       <c r="J38" s="11"/>
-      <c r="K38" s="236"/>
-      <c r="L38" s="236"/>
+      <c r="K38" s="235"/>
+      <c r="L38" s="235"/>
       <c r="M38" s="29"/>
-      <c r="N38" s="237"/>
-      <c r="O38" s="237"/>
+      <c r="N38" s="236"/>
+      <c r="O38" s="236"/>
       <c r="P38" s="11"/>
       <c r="Q38" s="11"/>
-      <c r="R38" s="236"/>
-      <c r="S38" s="236"/>
+      <c r="R38" s="235"/>
+      <c r="S38" s="235"/>
       <c r="T38" s="29"/>
-      <c r="U38" s="237"/>
+      <c r="U38" s="236"/>
       <c r="V38" s="16"/>
       <c r="W38" s="11"/>
       <c r="X38" s="11"/>
-      <c r="Y38" s="236"/>
-      <c r="Z38" s="236"/>
+      <c r="Y38" s="235"/>
+      <c r="Z38" s="235"/>
       <c r="AA38" s="29"/>
-      <c r="AB38" s="237"/>
+      <c r="AB38" s="236"/>
       <c r="AC38" s="11"/>
       <c r="AD38" s="11"/>
       <c r="AE38" s="11"/>
@@ -4595,39 +4598,39 @@
       <c r="AI38" s="11"/>
       <c r="AJ38" s="27"/>
       <c r="AK38" s="11"/>
-      <c r="AL38" s="235"/>
+      <c r="AL38" s="234"/>
       <c r="AM38" s="14"/>
       <c r="AN38" s="30"/>
       <c r="AO38" s="27"/>
     </row>
     <row r="39" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B39" s="236"/>
+      <c r="B39" s="235"/>
       <c r="C39" s="11"/>
-      <c r="D39" s="236"/>
+      <c r="D39" s="235"/>
       <c r="E39" s="29"/>
       <c r="F39" s="11"/>
       <c r="G39" s="11"/>
       <c r="H39" s="11"/>
       <c r="I39" s="11"/>
       <c r="J39" s="11"/>
-      <c r="K39" s="236"/>
-      <c r="L39" s="236"/>
+      <c r="K39" s="235"/>
+      <c r="L39" s="235"/>
       <c r="M39" s="29"/>
-      <c r="N39" s="237"/>
-      <c r="O39" s="237"/>
+      <c r="N39" s="236"/>
+      <c r="O39" s="236"/>
       <c r="P39" s="11"/>
       <c r="Q39" s="11"/>
-      <c r="R39" s="236"/>
-      <c r="S39" s="236"/>
+      <c r="R39" s="235"/>
+      <c r="S39" s="235"/>
       <c r="T39" s="29"/>
-      <c r="U39" s="237"/>
+      <c r="U39" s="236"/>
       <c r="V39" s="16"/>
       <c r="W39" s="11"/>
       <c r="X39" s="11"/>
-      <c r="Y39" s="236"/>
-      <c r="Z39" s="236"/>
+      <c r="Y39" s="235"/>
+      <c r="Z39" s="235"/>
       <c r="AA39" s="29"/>
-      <c r="AB39" s="237"/>
+      <c r="AB39" s="236"/>
       <c r="AC39" s="11"/>
       <c r="AD39" s="11"/>
       <c r="AE39" s="11"/>
@@ -4643,33 +4646,33 @@
       <c r="AO39" s="27"/>
     </row>
     <row r="40" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B40" s="236"/>
+      <c r="B40" s="235"/>
       <c r="C40" s="11"/>
-      <c r="D40" s="236"/>
+      <c r="D40" s="235"/>
       <c r="E40" s="29"/>
       <c r="F40" s="11"/>
       <c r="G40" s="11"/>
       <c r="H40" s="11"/>
       <c r="I40" s="11"/>
       <c r="J40" s="11"/>
-      <c r="K40" s="236"/>
-      <c r="L40" s="236"/>
+      <c r="K40" s="235"/>
+      <c r="L40" s="235"/>
       <c r="M40" s="29"/>
-      <c r="N40" s="237"/>
-      <c r="O40" s="237"/>
+      <c r="N40" s="236"/>
+      <c r="O40" s="236"/>
       <c r="P40" s="11"/>
       <c r="Q40" s="11"/>
-      <c r="R40" s="236"/>
-      <c r="S40" s="236"/>
+      <c r="R40" s="235"/>
+      <c r="S40" s="235"/>
       <c r="T40" s="29"/>
-      <c r="U40" s="237"/>
+      <c r="U40" s="236"/>
       <c r="V40" s="16"/>
       <c r="W40" s="11"/>
       <c r="X40" s="11"/>
-      <c r="Y40" s="236"/>
-      <c r="Z40" s="236"/>
+      <c r="Y40" s="235"/>
+      <c r="Z40" s="235"/>
       <c r="AA40" s="29"/>
-      <c r="AB40" s="237"/>
+      <c r="AB40" s="236"/>
       <c r="AC40" s="11"/>
       <c r="AD40" s="11"/>
       <c r="AE40" s="11"/>
@@ -4685,33 +4688,33 @@
       <c r="AO40" s="27"/>
     </row>
     <row r="41" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B41" s="236"/>
+      <c r="B41" s="235"/>
       <c r="C41" s="11"/>
-      <c r="D41" s="236"/>
+      <c r="D41" s="235"/>
       <c r="E41" s="29"/>
       <c r="F41" s="11"/>
       <c r="G41" s="11"/>
       <c r="H41" s="11"/>
       <c r="I41" s="11"/>
       <c r="J41" s="11"/>
-      <c r="K41" s="236"/>
-      <c r="L41" s="236"/>
+      <c r="K41" s="235"/>
+      <c r="L41" s="235"/>
       <c r="M41" s="29"/>
-      <c r="N41" s="237"/>
-      <c r="O41" s="237"/>
+      <c r="N41" s="236"/>
+      <c r="O41" s="236"/>
       <c r="P41" s="11"/>
       <c r="Q41" s="11"/>
-      <c r="R41" s="236"/>
-      <c r="S41" s="236"/>
+      <c r="R41" s="235"/>
+      <c r="S41" s="235"/>
       <c r="T41" s="29"/>
-      <c r="U41" s="237"/>
+      <c r="U41" s="236"/>
       <c r="V41" s="16"/>
       <c r="W41" s="11"/>
       <c r="X41" s="11"/>
-      <c r="Y41" s="236"/>
-      <c r="Z41" s="236"/>
+      <c r="Y41" s="235"/>
+      <c r="Z41" s="235"/>
       <c r="AA41" s="29"/>
-      <c r="AB41" s="237"/>
+      <c r="AB41" s="236"/>
       <c r="AC41" s="11"/>
       <c r="AD41" s="11"/>
       <c r="AE41" s="11"/>
@@ -4727,33 +4730,33 @@
       <c r="AO41" s="27"/>
     </row>
     <row r="42" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B42" s="236"/>
+      <c r="B42" s="235"/>
       <c r="C42" s="11"/>
-      <c r="D42" s="236"/>
+      <c r="D42" s="235"/>
       <c r="E42" s="29"/>
       <c r="F42" s="11"/>
       <c r="G42" s="11"/>
       <c r="H42" s="11"/>
       <c r="I42" s="11"/>
       <c r="J42" s="11"/>
-      <c r="K42" s="236"/>
-      <c r="L42" s="236"/>
+      <c r="K42" s="235"/>
+      <c r="L42" s="235"/>
       <c r="M42" s="29"/>
-      <c r="N42" s="237"/>
-      <c r="O42" s="237"/>
+      <c r="N42" s="236"/>
+      <c r="O42" s="236"/>
       <c r="P42" s="11"/>
       <c r="Q42" s="11"/>
-      <c r="R42" s="236"/>
-      <c r="S42" s="236"/>
+      <c r="R42" s="235"/>
+      <c r="S42" s="235"/>
       <c r="T42" s="29"/>
-      <c r="U42" s="237"/>
+      <c r="U42" s="236"/>
       <c r="V42" s="16"/>
       <c r="W42" s="11"/>
       <c r="X42" s="11"/>
-      <c r="Y42" s="236"/>
-      <c r="Z42" s="236"/>
+      <c r="Y42" s="235"/>
+      <c r="Z42" s="235"/>
       <c r="AA42" s="29"/>
-      <c r="AB42" s="237"/>
+      <c r="AB42" s="236"/>
       <c r="AC42" s="11"/>
       <c r="AD42" s="11"/>
       <c r="AE42" s="11"/>
@@ -4769,33 +4772,33 @@
       <c r="AO42" s="27"/>
     </row>
     <row r="43" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B43" s="236"/>
+      <c r="B43" s="235"/>
       <c r="C43" s="11"/>
-      <c r="D43" s="236"/>
+      <c r="D43" s="235"/>
       <c r="E43" s="29"/>
       <c r="F43" s="11"/>
       <c r="G43" s="11"/>
       <c r="H43" s="11"/>
       <c r="I43" s="11"/>
       <c r="J43" s="11"/>
-      <c r="K43" s="236"/>
-      <c r="L43" s="236"/>
+      <c r="K43" s="235"/>
+      <c r="L43" s="235"/>
       <c r="M43" s="29"/>
-      <c r="N43" s="237"/>
-      <c r="O43" s="237"/>
+      <c r="N43" s="236"/>
+      <c r="O43" s="236"/>
       <c r="P43" s="11"/>
       <c r="Q43" s="11"/>
-      <c r="R43" s="236"/>
-      <c r="S43" s="236"/>
+      <c r="R43" s="235"/>
+      <c r="S43" s="235"/>
       <c r="T43" s="29"/>
-      <c r="U43" s="237"/>
+      <c r="U43" s="236"/>
       <c r="V43" s="16"/>
       <c r="W43" s="11"/>
       <c r="X43" s="11"/>
-      <c r="Y43" s="236"/>
-      <c r="Z43" s="236"/>
+      <c r="Y43" s="235"/>
+      <c r="Z43" s="235"/>
       <c r="AA43" s="29"/>
-      <c r="AB43" s="237"/>
+      <c r="AB43" s="236"/>
       <c r="AC43" s="11"/>
       <c r="AD43" s="11"/>
       <c r="AE43" s="11"/>
@@ -4811,33 +4814,33 @@
       <c r="AO43" s="27"/>
     </row>
     <row r="44" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B44" s="236"/>
+      <c r="B44" s="235"/>
       <c r="C44" s="11"/>
-      <c r="D44" s="236"/>
+      <c r="D44" s="235"/>
       <c r="E44" s="29"/>
       <c r="F44" s="11"/>
       <c r="G44" s="11"/>
       <c r="H44" s="11"/>
       <c r="I44" s="11"/>
       <c r="J44" s="11"/>
-      <c r="K44" s="236"/>
-      <c r="L44" s="236"/>
+      <c r="K44" s="235"/>
+      <c r="L44" s="235"/>
       <c r="M44" s="29"/>
-      <c r="N44" s="237"/>
-      <c r="O44" s="237"/>
+      <c r="N44" s="236"/>
+      <c r="O44" s="236"/>
       <c r="P44" s="11"/>
       <c r="Q44" s="11"/>
-      <c r="R44" s="236"/>
-      <c r="S44" s="236"/>
+      <c r="R44" s="235"/>
+      <c r="S44" s="235"/>
       <c r="T44" s="29"/>
-      <c r="U44" s="237"/>
+      <c r="U44" s="236"/>
       <c r="V44" s="16"/>
       <c r="W44" s="11"/>
       <c r="X44" s="11"/>
-      <c r="Y44" s="236"/>
-      <c r="Z44" s="236"/>
+      <c r="Y44" s="235"/>
+      <c r="Z44" s="235"/>
       <c r="AA44" s="29"/>
-      <c r="AB44" s="237"/>
+      <c r="AB44" s="236"/>
       <c r="AC44" s="11"/>
       <c r="AD44" s="11"/>
       <c r="AE44" s="11"/>
@@ -4846,33 +4849,33 @@
       <c r="AH44" s="11"/>
     </row>
     <row r="45" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B45" s="236"/>
+      <c r="B45" s="235"/>
       <c r="C45" s="11"/>
-      <c r="D45" s="236"/>
+      <c r="D45" s="235"/>
       <c r="E45" s="29"/>
       <c r="F45" s="11"/>
       <c r="G45" s="11"/>
       <c r="H45" s="11"/>
       <c r="I45" s="11"/>
       <c r="J45" s="11"/>
-      <c r="K45" s="236"/>
-      <c r="L45" s="236"/>
+      <c r="K45" s="235"/>
+      <c r="L45" s="235"/>
       <c r="M45" s="29"/>
-      <c r="N45" s="237"/>
-      <c r="O45" s="237"/>
+      <c r="N45" s="236"/>
+      <c r="O45" s="236"/>
       <c r="P45" s="11"/>
       <c r="Q45" s="11"/>
-      <c r="R45" s="236"/>
-      <c r="S45" s="236"/>
+      <c r="R45" s="235"/>
+      <c r="S45" s="235"/>
       <c r="T45" s="29"/>
-      <c r="U45" s="237"/>
+      <c r="U45" s="236"/>
       <c r="V45" s="16"/>
       <c r="W45" s="11"/>
       <c r="X45" s="11"/>
-      <c r="Y45" s="236"/>
-      <c r="Z45" s="236"/>
+      <c r="Y45" s="235"/>
+      <c r="Z45" s="235"/>
       <c r="AA45" s="29"/>
-      <c r="AB45" s="237"/>
+      <c r="AB45" s="236"/>
       <c r="AC45" s="11"/>
       <c r="AD45" s="11"/>
       <c r="AE45" s="11"/>
@@ -4881,33 +4884,33 @@
       <c r="AH45" s="11"/>
     </row>
     <row r="46" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B46" s="236"/>
+      <c r="B46" s="235"/>
       <c r="C46" s="11"/>
-      <c r="D46" s="236"/>
+      <c r="D46" s="235"/>
       <c r="E46" s="29"/>
       <c r="F46" s="11"/>
       <c r="G46" s="11"/>
       <c r="H46" s="11"/>
       <c r="I46" s="11"/>
       <c r="J46" s="11"/>
-      <c r="K46" s="236"/>
-      <c r="L46" s="236"/>
+      <c r="K46" s="235"/>
+      <c r="L46" s="235"/>
       <c r="M46" s="29"/>
-      <c r="N46" s="237"/>
-      <c r="O46" s="237"/>
+      <c r="N46" s="236"/>
+      <c r="O46" s="236"/>
       <c r="P46" s="11"/>
       <c r="Q46" s="11"/>
-      <c r="R46" s="236"/>
-      <c r="S46" s="236"/>
+      <c r="R46" s="235"/>
+      <c r="S46" s="235"/>
       <c r="T46" s="29"/>
-      <c r="U46" s="237"/>
+      <c r="U46" s="236"/>
       <c r="V46" s="16"/>
       <c r="W46" s="11"/>
       <c r="X46" s="11"/>
-      <c r="Y46" s="236"/>
-      <c r="Z46" s="236"/>
+      <c r="Y46" s="235"/>
+      <c r="Z46" s="235"/>
       <c r="AA46" s="29"/>
-      <c r="AB46" s="237"/>
+      <c r="AB46" s="236"/>
       <c r="AC46" s="11"/>
       <c r="AD46" s="11"/>
       <c r="AE46" s="11"/>
@@ -4916,33 +4919,33 @@
       <c r="AH46" s="11"/>
     </row>
     <row r="47" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B47" s="236"/>
+      <c r="B47" s="235"/>
       <c r="C47" s="11"/>
-      <c r="D47" s="236"/>
+      <c r="D47" s="235"/>
       <c r="E47" s="29"/>
       <c r="F47" s="11"/>
       <c r="G47" s="11"/>
       <c r="H47" s="11"/>
       <c r="I47" s="11"/>
       <c r="J47" s="11"/>
-      <c r="K47" s="236"/>
-      <c r="L47" s="236"/>
+      <c r="K47" s="235"/>
+      <c r="L47" s="235"/>
       <c r="M47" s="29"/>
-      <c r="N47" s="237"/>
-      <c r="O47" s="237"/>
+      <c r="N47" s="236"/>
+      <c r="O47" s="236"/>
       <c r="P47" s="11"/>
       <c r="Q47" s="11"/>
-      <c r="R47" s="236"/>
-      <c r="S47" s="236"/>
+      <c r="R47" s="235"/>
+      <c r="S47" s="235"/>
       <c r="T47" s="29"/>
-      <c r="U47" s="237"/>
+      <c r="U47" s="236"/>
       <c r="V47" s="16"/>
       <c r="W47" s="11"/>
       <c r="X47" s="11"/>
-      <c r="Y47" s="236"/>
-      <c r="Z47" s="236"/>
+      <c r="Y47" s="235"/>
+      <c r="Z47" s="235"/>
       <c r="AA47" s="29"/>
-      <c r="AB47" s="237"/>
+      <c r="AB47" s="236"/>
       <c r="AC47" s="11"/>
       <c r="AD47" s="11"/>
       <c r="AE47" s="11"/>
@@ -4951,33 +4954,33 @@
       <c r="AH47" s="11"/>
     </row>
     <row r="48" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B48" s="236"/>
+      <c r="B48" s="235"/>
       <c r="C48" s="11"/>
-      <c r="D48" s="236"/>
+      <c r="D48" s="235"/>
       <c r="E48" s="29"/>
       <c r="F48" s="11"/>
       <c r="G48" s="11"/>
       <c r="H48" s="11"/>
       <c r="I48" s="11"/>
       <c r="J48" s="11"/>
-      <c r="K48" s="236"/>
-      <c r="L48" s="236"/>
+      <c r="K48" s="235"/>
+      <c r="L48" s="235"/>
       <c r="M48" s="29"/>
-      <c r="N48" s="237"/>
-      <c r="O48" s="237"/>
+      <c r="N48" s="236"/>
+      <c r="O48" s="236"/>
       <c r="P48" s="11"/>
       <c r="Q48" s="11"/>
-      <c r="R48" s="236"/>
-      <c r="S48" s="236"/>
+      <c r="R48" s="235"/>
+      <c r="S48" s="235"/>
       <c r="T48" s="29"/>
-      <c r="U48" s="237"/>
+      <c r="U48" s="236"/>
       <c r="V48" s="16"/>
       <c r="W48" s="11"/>
       <c r="X48" s="11"/>
-      <c r="Y48" s="236"/>
-      <c r="Z48" s="236"/>
+      <c r="Y48" s="235"/>
+      <c r="Z48" s="235"/>
       <c r="AA48" s="29"/>
-      <c r="AB48" s="237"/>
+      <c r="AB48" s="236"/>
       <c r="AC48" s="11"/>
       <c r="AD48" s="11"/>
       <c r="AE48" s="11"/>
@@ -4986,33 +4989,33 @@
       <c r="AH48" s="11"/>
     </row>
     <row r="49" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B49" s="236"/>
+      <c r="B49" s="235"/>
       <c r="C49" s="11"/>
-      <c r="D49" s="236"/>
+      <c r="D49" s="235"/>
       <c r="E49" s="29"/>
       <c r="F49" s="11"/>
       <c r="G49" s="11"/>
       <c r="H49" s="11"/>
       <c r="I49" s="11"/>
       <c r="J49" s="11"/>
-      <c r="K49" s="236"/>
-      <c r="L49" s="236"/>
+      <c r="K49" s="235"/>
+      <c r="L49" s="235"/>
       <c r="M49" s="29"/>
-      <c r="N49" s="237"/>
-      <c r="O49" s="237"/>
+      <c r="N49" s="236"/>
+      <c r="O49" s="236"/>
       <c r="P49" s="11"/>
       <c r="Q49" s="11"/>
-      <c r="R49" s="236"/>
-      <c r="S49" s="236"/>
+      <c r="R49" s="235"/>
+      <c r="S49" s="235"/>
       <c r="T49" s="29"/>
-      <c r="U49" s="237"/>
+      <c r="U49" s="236"/>
       <c r="V49" s="16"/>
       <c r="W49" s="11"/>
       <c r="X49" s="11"/>
-      <c r="Y49" s="236"/>
-      <c r="Z49" s="236"/>
+      <c r="Y49" s="235"/>
+      <c r="Z49" s="235"/>
       <c r="AA49" s="29"/>
-      <c r="AB49" s="237"/>
+      <c r="AB49" s="236"/>
       <c r="AC49" s="11"/>
       <c r="AD49" s="11"/>
       <c r="AE49" s="11"/>
@@ -5021,33 +5024,33 @@
       <c r="AH49" s="11"/>
     </row>
     <row r="50" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B50" s="236"/>
+      <c r="B50" s="235"/>
       <c r="C50" s="11"/>
-      <c r="D50" s="236"/>
+      <c r="D50" s="235"/>
       <c r="E50" s="29"/>
       <c r="F50" s="11"/>
       <c r="G50" s="11"/>
       <c r="H50" s="11"/>
       <c r="I50" s="11"/>
       <c r="J50" s="11"/>
-      <c r="K50" s="236"/>
-      <c r="L50" s="236"/>
+      <c r="K50" s="235"/>
+      <c r="L50" s="235"/>
       <c r="M50" s="29"/>
-      <c r="N50" s="237"/>
-      <c r="O50" s="237"/>
+      <c r="N50" s="236"/>
+      <c r="O50" s="236"/>
       <c r="P50" s="11"/>
       <c r="Q50" s="11"/>
-      <c r="R50" s="236"/>
-      <c r="S50" s="236"/>
+      <c r="R50" s="235"/>
+      <c r="S50" s="235"/>
       <c r="T50" s="29"/>
-      <c r="U50" s="237"/>
+      <c r="U50" s="236"/>
       <c r="V50" s="16"/>
       <c r="W50" s="11"/>
       <c r="X50" s="11"/>
-      <c r="Y50" s="236"/>
-      <c r="Z50" s="236"/>
+      <c r="Y50" s="235"/>
+      <c r="Z50" s="235"/>
       <c r="AA50" s="29"/>
-      <c r="AB50" s="237"/>
+      <c r="AB50" s="236"/>
       <c r="AC50" s="11"/>
       <c r="AD50" s="11"/>
       <c r="AE50" s="11"/>
@@ -5056,33 +5059,33 @@
       <c r="AH50" s="11"/>
     </row>
     <row r="51" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B51" s="236"/>
+      <c r="B51" s="235"/>
       <c r="C51" s="11"/>
-      <c r="D51" s="236"/>
+      <c r="D51" s="235"/>
       <c r="E51" s="29"/>
       <c r="F51" s="11"/>
       <c r="G51" s="11"/>
       <c r="H51" s="11"/>
       <c r="I51" s="11"/>
       <c r="J51" s="11"/>
-      <c r="K51" s="236"/>
-      <c r="L51" s="236"/>
+      <c r="K51" s="235"/>
+      <c r="L51" s="235"/>
       <c r="M51" s="29"/>
-      <c r="N51" s="237"/>
-      <c r="O51" s="237"/>
+      <c r="N51" s="236"/>
+      <c r="O51" s="236"/>
       <c r="P51" s="11"/>
       <c r="Q51" s="11"/>
-      <c r="R51" s="236"/>
-      <c r="S51" s="236"/>
+      <c r="R51" s="235"/>
+      <c r="S51" s="235"/>
       <c r="T51" s="29"/>
-      <c r="U51" s="237"/>
+      <c r="U51" s="236"/>
       <c r="V51" s="16"/>
       <c r="W51" s="11"/>
       <c r="X51" s="11"/>
-      <c r="Y51" s="236"/>
-      <c r="Z51" s="236"/>
+      <c r="Y51" s="235"/>
+      <c r="Z51" s="235"/>
       <c r="AA51" s="29"/>
-      <c r="AB51" s="237"/>
+      <c r="AB51" s="236"/>
       <c r="AC51" s="11"/>
       <c r="AD51" s="11"/>
       <c r="AE51" s="11"/>
@@ -5091,33 +5094,33 @@
       <c r="AH51" s="11"/>
     </row>
     <row r="52" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B52" s="236"/>
+      <c r="B52" s="235"/>
       <c r="C52" s="11"/>
-      <c r="D52" s="236"/>
+      <c r="D52" s="235"/>
       <c r="E52" s="29"/>
       <c r="F52" s="11"/>
       <c r="G52" s="11"/>
       <c r="H52" s="11"/>
       <c r="I52" s="11"/>
       <c r="J52" s="11"/>
-      <c r="K52" s="236"/>
-      <c r="L52" s="236"/>
+      <c r="K52" s="235"/>
+      <c r="L52" s="235"/>
       <c r="M52" s="29"/>
-      <c r="N52" s="237"/>
-      <c r="O52" s="237"/>
+      <c r="N52" s="236"/>
+      <c r="O52" s="236"/>
       <c r="P52" s="11"/>
       <c r="Q52" s="11"/>
-      <c r="R52" s="236"/>
-      <c r="S52" s="236"/>
+      <c r="R52" s="235"/>
+      <c r="S52" s="235"/>
       <c r="T52" s="29"/>
-      <c r="U52" s="237"/>
+      <c r="U52" s="236"/>
       <c r="V52" s="16"/>
       <c r="W52" s="11"/>
       <c r="X52" s="11"/>
-      <c r="Y52" s="236"/>
-      <c r="Z52" s="236"/>
+      <c r="Y52" s="235"/>
+      <c r="Z52" s="235"/>
       <c r="AA52" s="29"/>
-      <c r="AB52" s="237"/>
+      <c r="AB52" s="236"/>
       <c r="AC52" s="11"/>
       <c r="AD52" s="11"/>
       <c r="AE52" s="11"/>
@@ -5126,33 +5129,33 @@
       <c r="AH52" s="11"/>
     </row>
     <row r="53" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B53" s="236"/>
+      <c r="B53" s="235"/>
       <c r="C53" s="11"/>
-      <c r="D53" s="236"/>
+      <c r="D53" s="235"/>
       <c r="E53" s="29"/>
       <c r="F53" s="11"/>
       <c r="G53" s="11"/>
       <c r="H53" s="11"/>
       <c r="I53" s="11"/>
       <c r="J53" s="11"/>
-      <c r="K53" s="236"/>
-      <c r="L53" s="236"/>
+      <c r="K53" s="235"/>
+      <c r="L53" s="235"/>
       <c r="M53" s="29"/>
-      <c r="N53" s="237"/>
-      <c r="O53" s="237"/>
+      <c r="N53" s="236"/>
+      <c r="O53" s="236"/>
       <c r="P53" s="11"/>
       <c r="Q53" s="11"/>
-      <c r="R53" s="236"/>
-      <c r="S53" s="236"/>
+      <c r="R53" s="235"/>
+      <c r="S53" s="235"/>
       <c r="T53" s="29"/>
-      <c r="U53" s="237"/>
+      <c r="U53" s="236"/>
       <c r="V53" s="16"/>
       <c r="W53" s="11"/>
       <c r="X53" s="11"/>
-      <c r="Y53" s="236"/>
-      <c r="Z53" s="236"/>
+      <c r="Y53" s="235"/>
+      <c r="Z53" s="235"/>
       <c r="AA53" s="29"/>
-      <c r="AB53" s="237"/>
+      <c r="AB53" s="236"/>
       <c r="AC53" s="11"/>
       <c r="AD53" s="11"/>
       <c r="AE53" s="11"/>
@@ -5161,33 +5164,33 @@
       <c r="AH53" s="11"/>
     </row>
     <row r="54" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B54" s="236"/>
+      <c r="B54" s="235"/>
       <c r="C54" s="11"/>
-      <c r="D54" s="236"/>
+      <c r="D54" s="235"/>
       <c r="E54" s="29"/>
       <c r="F54" s="11"/>
       <c r="G54" s="11"/>
       <c r="H54" s="11"/>
       <c r="I54" s="11"/>
       <c r="J54" s="11"/>
-      <c r="K54" s="236"/>
-      <c r="L54" s="236"/>
+      <c r="K54" s="235"/>
+      <c r="L54" s="235"/>
       <c r="M54" s="29"/>
-      <c r="N54" s="237"/>
-      <c r="O54" s="237"/>
+      <c r="N54" s="236"/>
+      <c r="O54" s="236"/>
       <c r="P54" s="11"/>
       <c r="Q54" s="11"/>
-      <c r="R54" s="236"/>
-      <c r="S54" s="236"/>
+      <c r="R54" s="235"/>
+      <c r="S54" s="235"/>
       <c r="T54" s="29"/>
-      <c r="U54" s="237"/>
+      <c r="U54" s="236"/>
       <c r="V54" s="16"/>
       <c r="W54" s="11"/>
       <c r="X54" s="11"/>
-      <c r="Y54" s="236"/>
-      <c r="Z54" s="236"/>
+      <c r="Y54" s="235"/>
+      <c r="Z54" s="235"/>
       <c r="AA54" s="29"/>
-      <c r="AB54" s="237"/>
+      <c r="AB54" s="236"/>
       <c r="AC54" s="11"/>
       <c r="AD54" s="11"/>
       <c r="AE54" s="11"/>
@@ -5196,33 +5199,33 @@
       <c r="AH54" s="11"/>
     </row>
     <row r="55" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B55" s="236"/>
+      <c r="B55" s="235"/>
       <c r="C55" s="11"/>
-      <c r="D55" s="236"/>
+      <c r="D55" s="235"/>
       <c r="E55" s="29"/>
       <c r="F55" s="11"/>
       <c r="G55" s="11"/>
       <c r="H55" s="11"/>
       <c r="I55" s="11"/>
       <c r="J55" s="11"/>
-      <c r="K55" s="236"/>
-      <c r="L55" s="236"/>
+      <c r="K55" s="235"/>
+      <c r="L55" s="235"/>
       <c r="M55" s="29"/>
-      <c r="N55" s="237"/>
-      <c r="O55" s="237"/>
+      <c r="N55" s="236"/>
+      <c r="O55" s="236"/>
       <c r="P55" s="11"/>
       <c r="Q55" s="11"/>
-      <c r="R55" s="236"/>
-      <c r="S55" s="236"/>
+      <c r="R55" s="235"/>
+      <c r="S55" s="235"/>
       <c r="T55" s="29"/>
-      <c r="U55" s="237"/>
+      <c r="U55" s="236"/>
       <c r="V55" s="16"/>
       <c r="W55" s="11"/>
       <c r="X55" s="11"/>
-      <c r="Y55" s="236"/>
-      <c r="Z55" s="236"/>
+      <c r="Y55" s="235"/>
+      <c r="Z55" s="235"/>
       <c r="AA55" s="29"/>
-      <c r="AB55" s="237"/>
+      <c r="AB55" s="236"/>
       <c r="AC55" s="11"/>
       <c r="AD55" s="11"/>
       <c r="AE55" s="11"/>
@@ -5231,33 +5234,33 @@
       <c r="AH55" s="11"/>
     </row>
     <row r="56" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B56" s="236"/>
+      <c r="B56" s="235"/>
       <c r="C56" s="11"/>
-      <c r="D56" s="236"/>
+      <c r="D56" s="235"/>
       <c r="E56" s="29"/>
       <c r="F56" s="11"/>
       <c r="G56" s="11"/>
       <c r="H56" s="11"/>
       <c r="I56" s="11"/>
       <c r="J56" s="11"/>
-      <c r="K56" s="236"/>
-      <c r="L56" s="236"/>
+      <c r="K56" s="235"/>
+      <c r="L56" s="235"/>
       <c r="M56" s="29"/>
-      <c r="N56" s="237"/>
-      <c r="O56" s="237"/>
+      <c r="N56" s="236"/>
+      <c r="O56" s="236"/>
       <c r="P56" s="11"/>
       <c r="Q56" s="11"/>
-      <c r="R56" s="236"/>
-      <c r="S56" s="236"/>
+      <c r="R56" s="235"/>
+      <c r="S56" s="235"/>
       <c r="T56" s="29"/>
-      <c r="U56" s="237"/>
+      <c r="U56" s="236"/>
       <c r="V56" s="16"/>
       <c r="W56" s="11"/>
       <c r="X56" s="11"/>
-      <c r="Y56" s="236"/>
-      <c r="Z56" s="236"/>
+      <c r="Y56" s="235"/>
+      <c r="Z56" s="235"/>
       <c r="AA56" s="29"/>
-      <c r="AB56" s="237"/>
+      <c r="AB56" s="236"/>
       <c r="AC56" s="11"/>
       <c r="AD56" s="11"/>
       <c r="AE56" s="11"/>
@@ -5266,33 +5269,33 @@
       <c r="AH56" s="11"/>
     </row>
     <row r="57" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B57" s="236"/>
+      <c r="B57" s="235"/>
       <c r="C57" s="11"/>
-      <c r="D57" s="236"/>
+      <c r="D57" s="235"/>
       <c r="E57" s="29"/>
       <c r="F57" s="11"/>
       <c r="G57" s="11"/>
       <c r="H57" s="11"/>
       <c r="I57" s="11"/>
       <c r="J57" s="11"/>
-      <c r="K57" s="236"/>
-      <c r="L57" s="236"/>
+      <c r="K57" s="235"/>
+      <c r="L57" s="235"/>
       <c r="M57" s="29"/>
-      <c r="N57" s="237"/>
-      <c r="O57" s="237"/>
+      <c r="N57" s="236"/>
+      <c r="O57" s="236"/>
       <c r="P57" s="11"/>
       <c r="Q57" s="11"/>
-      <c r="R57" s="236"/>
-      <c r="S57" s="236"/>
+      <c r="R57" s="235"/>
+      <c r="S57" s="235"/>
       <c r="T57" s="29"/>
-      <c r="U57" s="237"/>
+      <c r="U57" s="236"/>
       <c r="V57" s="16"/>
       <c r="W57" s="11"/>
       <c r="X57" s="11"/>
-      <c r="Y57" s="236"/>
-      <c r="Z57" s="236"/>
+      <c r="Y57" s="235"/>
+      <c r="Z57" s="235"/>
       <c r="AA57" s="29"/>
-      <c r="AB57" s="237"/>
+      <c r="AB57" s="236"/>
       <c r="AC57" s="11"/>
       <c r="AD57" s="11"/>
       <c r="AE57" s="11"/>
@@ -5349,11 +5352,11 @@
   </sheetPr>
   <dimension ref="A1:AQ58"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AK19" activeCellId="0" sqref="AK19"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H14" activeCellId="0" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.51953125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.51171875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="12.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="1.63"/>
@@ -5618,47 +5621,47 @@
       <c r="A12" s="11"/>
       <c r="B12" s="12"/>
       <c r="C12" s="13"/>
-      <c r="D12" s="238" t="s">
+      <c r="D12" s="237" t="s">
         <v>31</v>
       </c>
-      <c r="E12" s="238"/>
-      <c r="F12" s="238"/>
+      <c r="E12" s="237"/>
+      <c r="F12" s="237"/>
       <c r="G12" s="19"/>
-      <c r="H12" s="238" t="s">
+      <c r="H12" s="237" t="s">
         <v>32</v>
       </c>
-      <c r="I12" s="238"/>
-      <c r="J12" s="238"/>
-      <c r="K12" s="238"/>
-      <c r="L12" s="238"/>
-      <c r="M12" s="238"/>
-      <c r="N12" s="238"/>
+      <c r="I12" s="237"/>
+      <c r="J12" s="237"/>
+      <c r="K12" s="237"/>
+      <c r="L12" s="237"/>
+      <c r="M12" s="237"/>
+      <c r="N12" s="237"/>
       <c r="O12" s="19"/>
-      <c r="P12" s="238" t="s">
+      <c r="P12" s="237" t="s">
         <v>32</v>
       </c>
-      <c r="Q12" s="238"/>
-      <c r="R12" s="238"/>
-      <c r="S12" s="238"/>
-      <c r="T12" s="238"/>
-      <c r="U12" s="238"/>
-      <c r="V12" s="239"/>
+      <c r="Q12" s="237"/>
+      <c r="R12" s="237"/>
+      <c r="S12" s="237"/>
+      <c r="T12" s="237"/>
+      <c r="U12" s="237"/>
+      <c r="V12" s="238"/>
       <c r="W12" s="19"/>
       <c r="X12" s="19"/>
-      <c r="Y12" s="238" t="s">
+      <c r="Y12" s="237" t="s">
         <v>32</v>
       </c>
-      <c r="Z12" s="238"/>
-      <c r="AA12" s="238"/>
+      <c r="Z12" s="237"/>
+      <c r="AA12" s="237"/>
       <c r="AB12" s="19"/>
-      <c r="AC12" s="238" t="s">
+      <c r="AC12" s="237" t="s">
         <v>33</v>
       </c>
-      <c r="AD12" s="238"/>
-      <c r="AE12" s="238"/>
-      <c r="AF12" s="238"/>
-      <c r="AG12" s="238"/>
-      <c r="AH12" s="238"/>
+      <c r="AD12" s="237"/>
+      <c r="AE12" s="237"/>
+      <c r="AF12" s="237"/>
+      <c r="AG12" s="237"/>
+      <c r="AH12" s="237"/>
       <c r="AI12" s="13"/>
       <c r="AJ12" s="29"/>
       <c r="AK12" s="11"/>
@@ -5675,13 +5678,14 @@
         <v>34</v>
       </c>
       <c r="C13" s="13"/>
-      <c r="D13" s="240" t="s">
+      <c r="D13" s="239" t="s">
         <v>35</v>
       </c>
-      <c r="E13" s="240"/>
-      <c r="F13" s="240"/>
+      <c r="E13" s="239"/>
+      <c r="F13" s="239"/>
       <c r="G13" s="19"/>
       <c r="H13" s="240" t="n">
+        <f aca="false">+H14*H16</f>
         <v>6</v>
       </c>
       <c r="I13" s="240"/>
@@ -5708,11 +5712,11 @@
         <v>36</v>
       </c>
       <c r="X13" s="28"/>
-      <c r="Y13" s="240" t="n">
+      <c r="Y13" s="239" t="n">
         <v>6</v>
       </c>
-      <c r="Z13" s="240"/>
-      <c r="AA13" s="240"/>
+      <c r="Z13" s="239"/>
+      <c r="AA13" s="239"/>
       <c r="AB13" s="19"/>
       <c r="AC13" s="242" t="n">
         <f aca="false">+2.506627216</f>
@@ -5807,15 +5811,16 @@
       <c r="E15" s="246"/>
       <c r="F15" s="246"/>
       <c r="G15" s="19"/>
-      <c r="H15" s="246" t="n">
+      <c r="H15" s="252" t="n">
+        <f aca="false">+H13*H16</f>
         <v>18</v>
       </c>
-      <c r="I15" s="246"/>
-      <c r="J15" s="246"/>
-      <c r="K15" s="246"/>
-      <c r="L15" s="246"/>
-      <c r="M15" s="246"/>
-      <c r="N15" s="246"/>
+      <c r="I15" s="252"/>
+      <c r="J15" s="252"/>
+      <c r="K15" s="252"/>
+      <c r="L15" s="252"/>
+      <c r="M15" s="252"/>
+      <c r="N15" s="252"/>
       <c r="O15" s="19"/>
       <c r="P15" s="247" t="n">
         <f aca="false">+V15</f>
@@ -5826,7 +5831,7 @@
       <c r="S15" s="247"/>
       <c r="T15" s="247"/>
       <c r="U15" s="247"/>
-      <c r="V15" s="252" t="n">
+      <c r="V15" s="253" t="n">
         <v>3.14159</v>
       </c>
       <c r="W15" s="28" t="s">
@@ -5839,17 +5844,17 @@
       <c r="Z15" s="246"/>
       <c r="AA15" s="246"/>
       <c r="AB15" s="19"/>
-      <c r="AC15" s="253" t="n">
+      <c r="AC15" s="254" t="n">
         <v>3.14159265359</v>
       </c>
       <c r="AD15" s="16"/>
       <c r="AE15" s="250"/>
-      <c r="AF15" s="254" t="s">
+      <c r="AF15" s="255" t="s">
         <v>42</v>
       </c>
-      <c r="AG15" s="254"/>
-      <c r="AH15" s="254"/>
-      <c r="AI15" s="255"/>
+      <c r="AG15" s="255"/>
+      <c r="AH15" s="255"/>
+      <c r="AI15" s="256"/>
       <c r="AJ15" s="29"/>
       <c r="AM15" s="13"/>
       <c r="AN15" s="14"/>
@@ -5863,31 +5868,31 @@
         <v>43</v>
       </c>
       <c r="C16" s="13"/>
-      <c r="D16" s="256" t="s">
+      <c r="D16" s="257" t="s">
         <v>44</v>
       </c>
-      <c r="E16" s="256"/>
-      <c r="F16" s="256"/>
+      <c r="E16" s="257"/>
+      <c r="F16" s="257"/>
       <c r="G16" s="19"/>
-      <c r="H16" s="256" t="n">
+      <c r="H16" s="257" t="n">
         <v>3</v>
       </c>
-      <c r="I16" s="256"/>
-      <c r="J16" s="256"/>
-      <c r="K16" s="256"/>
-      <c r="L16" s="256"/>
-      <c r="M16" s="256"/>
-      <c r="N16" s="256"/>
+      <c r="I16" s="257"/>
+      <c r="J16" s="257"/>
+      <c r="K16" s="257"/>
+      <c r="L16" s="257"/>
+      <c r="M16" s="257"/>
+      <c r="N16" s="257"/>
       <c r="O16" s="19"/>
-      <c r="P16" s="257" t="n">
+      <c r="P16" s="258" t="n">
         <f aca="false">+V16</f>
         <v>1.7724531023415</v>
       </c>
-      <c r="Q16" s="257"/>
-      <c r="R16" s="257"/>
-      <c r="S16" s="257"/>
-      <c r="T16" s="257"/>
-      <c r="U16" s="257"/>
+      <c r="Q16" s="258"/>
+      <c r="R16" s="258"/>
+      <c r="S16" s="258"/>
+      <c r="T16" s="258"/>
+      <c r="U16" s="258"/>
       <c r="V16" s="28" t="n">
         <f aca="false">+SQRT(V15/V14)</f>
         <v>1.7724531023415</v>
@@ -5896,23 +5901,23 @@
         <v>45</v>
       </c>
       <c r="X16" s="28"/>
-      <c r="Y16" s="256" t="n">
+      <c r="Y16" s="257" t="n">
         <v>3</v>
       </c>
-      <c r="Z16" s="256"/>
-      <c r="AA16" s="256"/>
+      <c r="Z16" s="257"/>
+      <c r="AA16" s="257"/>
       <c r="AB16" s="19"/>
-      <c r="AC16" s="258" t="n">
+      <c r="AC16" s="259" t="n">
         <f aca="false">AC13/+AC14</f>
         <v>1.253313608</v>
       </c>
-      <c r="AD16" s="259"/>
-      <c r="AE16" s="260"/>
-      <c r="AF16" s="261" t="s">
+      <c r="AD16" s="260"/>
+      <c r="AE16" s="261"/>
+      <c r="AF16" s="262" t="s">
         <v>45</v>
       </c>
-      <c r="AG16" s="261"/>
-      <c r="AH16" s="261"/>
+      <c r="AG16" s="262"/>
+      <c r="AH16" s="262"/>
       <c r="AI16" s="13"/>
       <c r="AJ16" s="29"/>
       <c r="AM16" s="13"/>
@@ -5931,18 +5936,18 @@
       <c r="G17" s="19"/>
       <c r="H17" s="18"/>
       <c r="I17" s="18"/>
-      <c r="J17" s="48"/>
-      <c r="K17" s="48"/>
+      <c r="J17" s="47"/>
+      <c r="K17" s="47"/>
       <c r="L17" s="18"/>
-      <c r="M17" s="49"/>
+      <c r="M17" s="48"/>
       <c r="N17" s="18"/>
       <c r="O17" s="19"/>
       <c r="P17" s="18"/>
       <c r="Q17" s="18"/>
-      <c r="R17" s="48"/>
-      <c r="S17" s="48"/>
+      <c r="R17" s="47"/>
+      <c r="S17" s="47"/>
       <c r="T17" s="18"/>
-      <c r="U17" s="49"/>
+      <c r="U17" s="48"/>
       <c r="V17" s="18"/>
       <c r="W17" s="19"/>
       <c r="X17" s="19"/>
@@ -5950,12 +5955,12 @@
       <c r="Z17" s="18"/>
       <c r="AA17" s="18"/>
       <c r="AB17" s="19"/>
-      <c r="AC17" s="262"/>
-      <c r="AD17" s="65"/>
+      <c r="AC17" s="263"/>
+      <c r="AD17" s="64"/>
       <c r="AE17" s="18"/>
-      <c r="AF17" s="263"/>
-      <c r="AG17" s="263"/>
-      <c r="AH17" s="263"/>
+      <c r="AF17" s="264"/>
+      <c r="AG17" s="264"/>
+      <c r="AH17" s="264"/>
       <c r="AI17" s="13"/>
       <c r="AJ17" s="29"/>
       <c r="AK17" s="14"/>
@@ -5970,93 +5975,93 @@
       <c r="A18" s="11"/>
       <c r="B18" s="12"/>
       <c r="C18" s="13"/>
-      <c r="D18" s="51" t="s">
+      <c r="D18" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="E18" s="52" t="s">
-        <v>1</v>
-      </c>
-      <c r="F18" s="53" t="s">
+      <c r="E18" s="51" t="s">
+        <v>1</v>
+      </c>
+      <c r="F18" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="G18" s="54"/>
-      <c r="H18" s="56" t="n">
+      <c r="G18" s="53"/>
+      <c r="H18" s="55" t="n">
         <f aca="false">SQRT(K18*M18)</f>
         <v>6</v>
       </c>
-      <c r="I18" s="52" t="s">
-        <v>1</v>
-      </c>
-      <c r="J18" s="264" t="s">
+      <c r="I18" s="51" t="s">
+        <v>1</v>
+      </c>
+      <c r="J18" s="265" t="s">
         <v>30</v>
       </c>
-      <c r="K18" s="264" t="n">
+      <c r="K18" s="265" t="n">
         <f aca="false">+$H$15</f>
         <v>18</v>
       </c>
-      <c r="L18" s="52" t="s">
+      <c r="L18" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="M18" s="265" t="n">
+      <c r="M18" s="266" t="n">
         <f aca="false">+$H$14</f>
         <v>2</v>
       </c>
-      <c r="N18" s="266" t="s">
+      <c r="N18" s="267" t="s">
         <v>46</v>
       </c>
-      <c r="O18" s="69"/>
-      <c r="P18" s="56" t="n">
+      <c r="O18" s="68"/>
+      <c r="P18" s="55" t="n">
         <f aca="false">SQRT(S18*U18)</f>
         <v>1.7724531023415</v>
       </c>
-      <c r="Q18" s="52" t="s">
-        <v>1</v>
-      </c>
-      <c r="R18" s="264" t="s">
+      <c r="Q18" s="51" t="s">
+        <v>1</v>
+      </c>
+      <c r="R18" s="265" t="s">
         <v>30</v>
       </c>
-      <c r="S18" s="264" t="n">
+      <c r="S18" s="265" t="n">
         <f aca="false">+$P$15</f>
         <v>3.14159</v>
       </c>
-      <c r="T18" s="52" t="s">
+      <c r="T18" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="U18" s="265" t="n">
+      <c r="U18" s="266" t="n">
         <f aca="false">+$P$14</f>
         <v>1</v>
       </c>
-      <c r="V18" s="266"/>
-      <c r="W18" s="69"/>
-      <c r="X18" s="69"/>
-      <c r="Y18" s="267" t="n">
+      <c r="V18" s="267"/>
+      <c r="W18" s="68"/>
+      <c r="X18" s="68"/>
+      <c r="Y18" s="268" t="n">
         <v>6</v>
       </c>
-      <c r="Z18" s="52" t="s">
-        <v>1</v>
-      </c>
-      <c r="AA18" s="268" t="s">
+      <c r="Z18" s="51" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA18" s="269" t="s">
         <v>46</v>
       </c>
-      <c r="AB18" s="69"/>
-      <c r="AC18" s="269" t="n">
+      <c r="AB18" s="68"/>
+      <c r="AC18" s="270" t="n">
         <f aca="false">SQRT(AF18*AH18)</f>
         <v>2.50662827463108</v>
       </c>
-      <c r="AD18" s="52" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE18" s="52" t="s">
+      <c r="AD18" s="51" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE18" s="51" t="s">
         <v>47</v>
       </c>
-      <c r="AF18" s="270" t="n">
+      <c r="AF18" s="271" t="n">
         <f aca="false">+$AC$15</f>
         <v>3.14159265359</v>
       </c>
-      <c r="AG18" s="271" t="s">
+      <c r="AG18" s="272" t="s">
         <v>16</v>
       </c>
-      <c r="AH18" s="272" t="n">
+      <c r="AH18" s="273" t="n">
         <f aca="false">+$AC$14</f>
         <v>2</v>
       </c>
@@ -6065,7 +6070,7 @@
       <c r="AK18" s="11"/>
       <c r="AL18" s="11"/>
       <c r="AM18" s="11"/>
-      <c r="AN18" s="70"/>
+      <c r="AN18" s="69"/>
       <c r="AO18" s="11"/>
       <c r="AP18" s="11"/>
       <c r="AQ18" s="11"/>
@@ -6074,87 +6079,87 @@
       <c r="A19" s="11"/>
       <c r="B19" s="12"/>
       <c r="C19" s="13"/>
-      <c r="D19" s="71" t="s">
+      <c r="D19" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="E19" s="72" t="s">
-        <v>1</v>
-      </c>
-      <c r="F19" s="73" t="s">
+      <c r="E19" s="71" t="s">
+        <v>1</v>
+      </c>
+      <c r="F19" s="72" t="s">
         <v>17</v>
       </c>
-      <c r="G19" s="54"/>
-      <c r="H19" s="74" t="n">
+      <c r="G19" s="53"/>
+      <c r="H19" s="73" t="n">
         <f aca="false">+K19/M19</f>
         <v>6</v>
       </c>
-      <c r="I19" s="72" t="s">
-        <v>1</v>
-      </c>
-      <c r="J19" s="76"/>
-      <c r="K19" s="76" t="n">
+      <c r="I19" s="71" t="s">
+        <v>1</v>
+      </c>
+      <c r="J19" s="75"/>
+      <c r="K19" s="75" t="n">
         <f aca="false">+$H$15</f>
         <v>18</v>
       </c>
-      <c r="L19" s="75" t="s">
+      <c r="L19" s="74" t="s">
         <v>18</v>
       </c>
-      <c r="M19" s="273" t="n">
+      <c r="M19" s="274" t="n">
         <f aca="false">+$H$16</f>
         <v>3</v>
       </c>
-      <c r="N19" s="266" t="s">
+      <c r="N19" s="267" t="s">
         <v>48</v>
       </c>
-      <c r="O19" s="69"/>
-      <c r="P19" s="74" t="n">
+      <c r="O19" s="68"/>
+      <c r="P19" s="73" t="n">
         <f aca="false">+S19/U19</f>
         <v>1.7724531023415</v>
       </c>
-      <c r="Q19" s="75" t="s">
-        <v>1</v>
-      </c>
-      <c r="R19" s="76"/>
-      <c r="S19" s="76" t="n">
+      <c r="Q19" s="74" t="s">
+        <v>1</v>
+      </c>
+      <c r="R19" s="75"/>
+      <c r="S19" s="75" t="n">
         <f aca="false">+$P$15</f>
         <v>3.14159</v>
       </c>
-      <c r="T19" s="75" t="s">
+      <c r="T19" s="74" t="s">
         <v>18</v>
       </c>
-      <c r="U19" s="273" t="n">
+      <c r="U19" s="274" t="n">
         <f aca="false">+$P$16</f>
         <v>1.7724531023415</v>
       </c>
-      <c r="V19" s="266"/>
-      <c r="W19" s="69"/>
-      <c r="X19" s="69"/>
-      <c r="Y19" s="274" t="n">
+      <c r="V19" s="267"/>
+      <c r="W19" s="68"/>
+      <c r="X19" s="68"/>
+      <c r="Y19" s="275" t="n">
         <v>6</v>
       </c>
-      <c r="Z19" s="72" t="s">
-        <v>1</v>
-      </c>
-      <c r="AA19" s="275" t="s">
+      <c r="Z19" s="71" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA19" s="276" t="s">
         <v>48</v>
       </c>
-      <c r="AB19" s="69"/>
-      <c r="AC19" s="276" t="n">
+      <c r="AB19" s="68"/>
+      <c r="AC19" s="277" t="n">
         <f aca="false">+AF19/AH19</f>
         <v>2.50662933326261</v>
       </c>
-      <c r="AD19" s="72" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE19" s="72"/>
-      <c r="AF19" s="277" t="n">
+      <c r="AD19" s="71" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE19" s="71"/>
+      <c r="AF19" s="278" t="n">
         <f aca="false">+$AC$15</f>
         <v>3.14159265359</v>
       </c>
-      <c r="AG19" s="72" t="s">
+      <c r="AG19" s="71" t="s">
         <v>18</v>
       </c>
-      <c r="AH19" s="278" t="n">
+      <c r="AH19" s="279" t="n">
         <f aca="false">+$AC$16</f>
         <v>1.253313608</v>
       </c>
@@ -6165,87 +6170,87 @@
       <c r="A20" s="11"/>
       <c r="B20" s="12"/>
       <c r="C20" s="13"/>
-      <c r="D20" s="86" t="s">
+      <c r="D20" s="85" t="s">
         <v>0</v>
       </c>
-      <c r="E20" s="87" t="s">
-        <v>1</v>
-      </c>
-      <c r="F20" s="88" t="s">
+      <c r="E20" s="86" t="s">
+        <v>1</v>
+      </c>
+      <c r="F20" s="87" t="s">
         <v>19</v>
       </c>
-      <c r="G20" s="54"/>
-      <c r="H20" s="89" t="n">
+      <c r="G20" s="53"/>
+      <c r="H20" s="88" t="n">
         <f aca="false">+M20*K20</f>
         <v>6</v>
       </c>
-      <c r="I20" s="87" t="s">
-        <v>1</v>
-      </c>
-      <c r="J20" s="90"/>
-      <c r="K20" s="90" t="n">
+      <c r="I20" s="86" t="s">
+        <v>1</v>
+      </c>
+      <c r="J20" s="89"/>
+      <c r="K20" s="89" t="n">
         <f aca="false">+$H$16</f>
         <v>3</v>
       </c>
-      <c r="L20" s="87" t="s">
+      <c r="L20" s="86" t="s">
         <v>16</v>
       </c>
-      <c r="M20" s="279" t="n">
+      <c r="M20" s="280" t="n">
         <f aca="false">+$H$14</f>
         <v>2</v>
       </c>
-      <c r="N20" s="266" t="s">
+      <c r="N20" s="267" t="s">
         <v>49</v>
       </c>
-      <c r="O20" s="69"/>
-      <c r="P20" s="89" t="n">
+      <c r="O20" s="68"/>
+      <c r="P20" s="88" t="n">
         <f aca="false">+U20*S20</f>
         <v>1.7724531023415</v>
       </c>
-      <c r="Q20" s="87" t="s">
-        <v>1</v>
-      </c>
-      <c r="R20" s="90"/>
-      <c r="S20" s="280" t="n">
+      <c r="Q20" s="86" t="s">
+        <v>1</v>
+      </c>
+      <c r="R20" s="89"/>
+      <c r="S20" s="281" t="n">
         <f aca="false">+$P$16</f>
         <v>1.7724531023415</v>
       </c>
-      <c r="T20" s="87" t="s">
+      <c r="T20" s="86" t="s">
         <v>16</v>
       </c>
-      <c r="U20" s="279" t="n">
+      <c r="U20" s="280" t="n">
         <f aca="false">+$P$14</f>
         <v>1</v>
       </c>
-      <c r="V20" s="266"/>
-      <c r="W20" s="69"/>
-      <c r="X20" s="69"/>
-      <c r="Y20" s="281" t="n">
+      <c r="V20" s="267"/>
+      <c r="W20" s="68"/>
+      <c r="X20" s="68"/>
+      <c r="Y20" s="282" t="n">
         <v>6</v>
       </c>
-      <c r="Z20" s="87" t="s">
-        <v>1</v>
-      </c>
-      <c r="AA20" s="282" t="s">
+      <c r="Z20" s="86" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA20" s="283" t="s">
         <v>49</v>
       </c>
-      <c r="AB20" s="69"/>
-      <c r="AC20" s="283" t="n">
+      <c r="AB20" s="68"/>
+      <c r="AC20" s="284" t="n">
         <f aca="false">+AH20*AF20</f>
         <v>2.506627216</v>
       </c>
-      <c r="AD20" s="87" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE20" s="87"/>
-      <c r="AF20" s="284" t="n">
+      <c r="AD20" s="86" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE20" s="86"/>
+      <c r="AF20" s="285" t="n">
         <f aca="false">+$AC$14</f>
         <v>2</v>
       </c>
-      <c r="AG20" s="87" t="s">
+      <c r="AG20" s="86" t="s">
         <v>16</v>
       </c>
-      <c r="AH20" s="285" t="n">
+      <c r="AH20" s="286" t="n">
         <f aca="false">+$AC$16</f>
         <v>1.253313608</v>
       </c>
@@ -6255,87 +6260,87 @@
       <c r="A21" s="11"/>
       <c r="B21" s="12"/>
       <c r="C21" s="13"/>
-      <c r="D21" s="100" t="s">
+      <c r="D21" s="99" t="s">
         <v>2</v>
       </c>
-      <c r="E21" s="101" t="s">
-        <v>1</v>
-      </c>
-      <c r="F21" s="102" t="s">
+      <c r="E21" s="100" t="s">
+        <v>1</v>
+      </c>
+      <c r="F21" s="101" t="s">
         <v>20</v>
       </c>
-      <c r="G21" s="54"/>
-      <c r="H21" s="103" t="n">
+      <c r="G21" s="53"/>
+      <c r="H21" s="102" t="n">
         <f aca="false">+K21/M21</f>
         <v>2</v>
       </c>
-      <c r="I21" s="101" t="s">
-        <v>1</v>
-      </c>
-      <c r="J21" s="104"/>
-      <c r="K21" s="286" t="n">
+      <c r="I21" s="100" t="s">
+        <v>1</v>
+      </c>
+      <c r="J21" s="103"/>
+      <c r="K21" s="287" t="n">
         <f aca="false">+$H$13</f>
         <v>6</v>
       </c>
-      <c r="L21" s="110" t="s">
+      <c r="L21" s="109" t="s">
         <v>18</v>
       </c>
-      <c r="M21" s="287" t="n">
+      <c r="M21" s="288" t="n">
         <f aca="false">+$H$16</f>
         <v>3</v>
       </c>
-      <c r="N21" s="288" t="s">
+      <c r="N21" s="289" t="s">
         <v>50</v>
       </c>
-      <c r="O21" s="69"/>
-      <c r="P21" s="103" t="n">
+      <c r="O21" s="68"/>
+      <c r="P21" s="102" t="n">
         <f aca="false">+S21/U21</f>
         <v>1</v>
       </c>
-      <c r="Q21" s="101" t="s">
-        <v>1</v>
-      </c>
-      <c r="R21" s="104"/>
-      <c r="S21" s="286" t="n">
+      <c r="Q21" s="100" t="s">
+        <v>1</v>
+      </c>
+      <c r="R21" s="103"/>
+      <c r="S21" s="287" t="n">
         <f aca="false">+$P$13</f>
         <v>1.7724531023415</v>
       </c>
-      <c r="T21" s="110" t="s">
+      <c r="T21" s="109" t="s">
         <v>18</v>
       </c>
-      <c r="U21" s="287" t="n">
+      <c r="U21" s="288" t="n">
         <f aca="false">+$P$16</f>
         <v>1.7724531023415</v>
       </c>
-      <c r="V21" s="288"/>
-      <c r="W21" s="69"/>
-      <c r="X21" s="69"/>
-      <c r="Y21" s="289" t="n">
+      <c r="V21" s="289"/>
+      <c r="W21" s="68"/>
+      <c r="X21" s="68"/>
+      <c r="Y21" s="290" t="n">
         <v>2</v>
       </c>
-      <c r="Z21" s="101" t="s">
-        <v>1</v>
-      </c>
-      <c r="AA21" s="290" t="s">
+      <c r="Z21" s="100" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA21" s="291" t="s">
         <v>50</v>
       </c>
-      <c r="AB21" s="69"/>
-      <c r="AC21" s="291" t="n">
+      <c r="AB21" s="68"/>
+      <c r="AC21" s="292" t="n">
         <f aca="false">+AF21/AH21</f>
         <v>2</v>
       </c>
-      <c r="AD21" s="101" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE21" s="101"/>
-      <c r="AF21" s="292" t="n">
+      <c r="AD21" s="100" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE21" s="100"/>
+      <c r="AF21" s="293" t="n">
         <f aca="false">+$AC$13</f>
         <v>2.506627216</v>
       </c>
-      <c r="AG21" s="101" t="s">
+      <c r="AG21" s="100" t="s">
         <v>18</v>
       </c>
-      <c r="AH21" s="293" t="n">
+      <c r="AH21" s="294" t="n">
         <f aca="false">+$AC$16</f>
         <v>1.253313608</v>
       </c>
@@ -6346,87 +6351,87 @@
       <c r="A22" s="11"/>
       <c r="B22" s="12"/>
       <c r="C22" s="13"/>
-      <c r="D22" s="116" t="s">
+      <c r="D22" s="115" t="s">
         <v>2</v>
       </c>
-      <c r="E22" s="117" t="s">
-        <v>1</v>
-      </c>
-      <c r="F22" s="118" t="s">
+      <c r="E22" s="116" t="s">
+        <v>1</v>
+      </c>
+      <c r="F22" s="117" t="s">
         <v>21</v>
       </c>
-      <c r="G22" s="54"/>
-      <c r="H22" s="119" t="n">
+      <c r="G22" s="53"/>
+      <c r="H22" s="118" t="n">
         <f aca="false">+K22/M22</f>
         <v>2</v>
       </c>
-      <c r="I22" s="117" t="s">
-        <v>1</v>
-      </c>
-      <c r="J22" s="120"/>
-      <c r="K22" s="120" t="n">
+      <c r="I22" s="116" t="s">
+        <v>1</v>
+      </c>
+      <c r="J22" s="119"/>
+      <c r="K22" s="119" t="n">
         <f aca="false">+$H$13^2</f>
         <v>36</v>
       </c>
-      <c r="L22" s="126" t="s">
+      <c r="L22" s="125" t="s">
         <v>18</v>
       </c>
-      <c r="M22" s="294" t="n">
+      <c r="M22" s="295" t="n">
         <f aca="false">+$H$15</f>
         <v>18</v>
       </c>
-      <c r="N22" s="266" t="s">
+      <c r="N22" s="267" t="s">
         <v>51</v>
       </c>
-      <c r="O22" s="69"/>
-      <c r="P22" s="119" t="n">
+      <c r="O22" s="68"/>
+      <c r="P22" s="118" t="n">
         <f aca="false">+S22/U22</f>
         <v>1</v>
       </c>
-      <c r="Q22" s="117" t="s">
-        <v>1</v>
-      </c>
-      <c r="R22" s="120"/>
-      <c r="S22" s="120" t="n">
+      <c r="Q22" s="116" t="s">
+        <v>1</v>
+      </c>
+      <c r="R22" s="119"/>
+      <c r="S22" s="119" t="n">
         <f aca="false">+$P$13^2</f>
         <v>3.14159</v>
       </c>
-      <c r="T22" s="126" t="s">
+      <c r="T22" s="125" t="s">
         <v>18</v>
       </c>
-      <c r="U22" s="294" t="n">
+      <c r="U22" s="295" t="n">
         <f aca="false">+$P$15</f>
         <v>3.14159</v>
       </c>
-      <c r="V22" s="266"/>
-      <c r="W22" s="69"/>
-      <c r="X22" s="69"/>
-      <c r="Y22" s="295" t="n">
+      <c r="V22" s="267"/>
+      <c r="W22" s="68"/>
+      <c r="X22" s="68"/>
+      <c r="Y22" s="296" t="n">
         <v>2</v>
       </c>
-      <c r="Z22" s="117" t="s">
-        <v>1</v>
-      </c>
-      <c r="AA22" s="296" t="s">
+      <c r="Z22" s="116" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA22" s="297" t="s">
         <v>51</v>
       </c>
-      <c r="AB22" s="69"/>
-      <c r="AC22" s="291" t="n">
+      <c r="AB22" s="68"/>
+      <c r="AC22" s="292" t="n">
         <f aca="false">+AF22/AH22</f>
         <v>1.99999831066956</v>
       </c>
-      <c r="AD22" s="117" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE22" s="117"/>
-      <c r="AF22" s="297" t="n">
+      <c r="AD22" s="116" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE22" s="116"/>
+      <c r="AF22" s="298" t="n">
         <f aca="false">+$AC$13^2</f>
         <v>6.28317999999191</v>
       </c>
-      <c r="AG22" s="117" t="s">
+      <c r="AG22" s="116" t="s">
         <v>18</v>
       </c>
-      <c r="AH22" s="298" t="n">
+      <c r="AH22" s="299" t="n">
         <f aca="false">+$AC$15</f>
         <v>3.14159265359</v>
       </c>
@@ -6437,86 +6442,86 @@
       <c r="A23" s="11"/>
       <c r="B23" s="12"/>
       <c r="C23" s="13"/>
-      <c r="D23" s="131" t="s">
+      <c r="D23" s="130" t="s">
         <v>2</v>
       </c>
-      <c r="E23" s="132" t="s">
-        <v>1</v>
-      </c>
-      <c r="F23" s="133" t="s">
+      <c r="E23" s="131" t="s">
+        <v>1</v>
+      </c>
+      <c r="F23" s="132" t="s">
         <v>22</v>
       </c>
-      <c r="G23" s="54"/>
-      <c r="H23" s="134" t="n">
+      <c r="G23" s="53"/>
+      <c r="H23" s="133" t="n">
         <f aca="false">+K23/M23</f>
         <v>2</v>
       </c>
-      <c r="I23" s="132" t="s">
-        <v>1</v>
-      </c>
-      <c r="J23" s="135"/>
-      <c r="K23" s="135" t="n">
+      <c r="I23" s="131" t="s">
+        <v>1</v>
+      </c>
+      <c r="J23" s="134"/>
+      <c r="K23" s="134" t="n">
         <f aca="false">+$H$15</f>
         <v>18</v>
       </c>
-      <c r="L23" s="132" t="s">
+      <c r="L23" s="131" t="s">
         <v>18</v>
       </c>
-      <c r="M23" s="299" t="n">
+      <c r="M23" s="300" t="n">
         <f aca="false">+$H$16^2</f>
         <v>9</v>
       </c>
-      <c r="N23" s="266" t="s">
+      <c r="N23" s="267" t="s">
         <v>52</v>
       </c>
-      <c r="O23" s="69"/>
-      <c r="P23" s="134" t="n">
+      <c r="O23" s="68"/>
+      <c r="P23" s="133" t="n">
         <f aca="false">+S23/U23</f>
         <v>1</v>
       </c>
-      <c r="Q23" s="132" t="s">
-        <v>1</v>
-      </c>
-      <c r="R23" s="135"/>
-      <c r="S23" s="135" t="n">
+      <c r="Q23" s="131" t="s">
+        <v>1</v>
+      </c>
+      <c r="R23" s="134"/>
+      <c r="S23" s="134" t="n">
         <f aca="false">+$P$15</f>
         <v>3.14159</v>
       </c>
-      <c r="T23" s="132" t="s">
+      <c r="T23" s="131" t="s">
         <v>18</v>
       </c>
-      <c r="U23" s="299" t="n">
+      <c r="U23" s="300" t="n">
         <f aca="false">+$P$16^2</f>
         <v>3.14159</v>
       </c>
-      <c r="V23" s="266"/>
-      <c r="W23" s="69"/>
-      <c r="X23" s="69"/>
-      <c r="Y23" s="300" t="n">
+      <c r="V23" s="267"/>
+      <c r="W23" s="68"/>
+      <c r="X23" s="68"/>
+      <c r="Y23" s="301" t="n">
         <v>2</v>
       </c>
-      <c r="Z23" s="132" t="s">
-        <v>1</v>
-      </c>
-      <c r="AA23" s="301" t="s">
+      <c r="Z23" s="131" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA23" s="302" t="s">
         <v>52</v>
       </c>
-      <c r="AB23" s="69"/>
-      <c r="AC23" s="291" t="n">
+      <c r="AB23" s="68"/>
+      <c r="AC23" s="292" t="n">
         <f aca="false">+AF23/AH23</f>
         <v>1.99898777370952</v>
       </c>
-      <c r="AD23" s="132" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE23" s="132"/>
-      <c r="AF23" s="302" t="n">
+      <c r="AD23" s="131" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE23" s="131"/>
+      <c r="AF23" s="303" t="n">
         <v>3.14</v>
       </c>
-      <c r="AG23" s="132" t="s">
+      <c r="AG23" s="131" t="s">
         <v>18</v>
       </c>
-      <c r="AH23" s="303" t="n">
+      <c r="AH23" s="304" t="n">
         <f aca="false">+$AC$16^2</f>
         <v>1.57079499999798</v>
       </c>
@@ -6527,87 +6532,87 @@
       <c r="A24" s="11"/>
       <c r="B24" s="12"/>
       <c r="C24" s="13"/>
-      <c r="D24" s="145" t="s">
+      <c r="D24" s="144" t="s">
         <v>23</v>
       </c>
-      <c r="E24" s="146" t="s">
-        <v>1</v>
-      </c>
-      <c r="F24" s="147" t="s">
+      <c r="E24" s="145" t="s">
+        <v>1</v>
+      </c>
+      <c r="F24" s="146" t="s">
         <v>24</v>
       </c>
-      <c r="G24" s="54"/>
-      <c r="H24" s="148" t="n">
+      <c r="G24" s="53"/>
+      <c r="H24" s="147" t="n">
         <f aca="false">+K24/M24</f>
         <v>18</v>
       </c>
-      <c r="I24" s="146" t="s">
-        <v>1</v>
-      </c>
-      <c r="J24" s="149"/>
-      <c r="K24" s="149" t="n">
+      <c r="I24" s="145" t="s">
+        <v>1</v>
+      </c>
+      <c r="J24" s="148"/>
+      <c r="K24" s="148" t="n">
         <f aca="false">+$H$13^2</f>
         <v>36</v>
       </c>
-      <c r="L24" s="146" t="s">
+      <c r="L24" s="145" t="s">
         <v>18</v>
       </c>
-      <c r="M24" s="304" t="n">
+      <c r="M24" s="305" t="n">
         <f aca="false">+$H$14</f>
         <v>2</v>
       </c>
-      <c r="N24" s="266" t="s">
+      <c r="N24" s="267" t="s">
         <v>53</v>
       </c>
-      <c r="O24" s="69"/>
-      <c r="P24" s="148" t="n">
+      <c r="O24" s="68"/>
+      <c r="P24" s="147" t="n">
         <f aca="false">+S24/U24</f>
         <v>3.14159</v>
       </c>
-      <c r="Q24" s="146" t="s">
-        <v>1</v>
-      </c>
-      <c r="R24" s="149"/>
-      <c r="S24" s="149" t="n">
+      <c r="Q24" s="145" t="s">
+        <v>1</v>
+      </c>
+      <c r="R24" s="148"/>
+      <c r="S24" s="148" t="n">
         <f aca="false">+$P$13^2</f>
         <v>3.14159</v>
       </c>
-      <c r="T24" s="146" t="s">
+      <c r="T24" s="145" t="s">
         <v>18</v>
       </c>
-      <c r="U24" s="304" t="n">
+      <c r="U24" s="305" t="n">
         <f aca="false">+$P$14</f>
         <v>1</v>
       </c>
-      <c r="V24" s="266"/>
-      <c r="W24" s="69"/>
-      <c r="X24" s="69"/>
-      <c r="Y24" s="305" t="n">
+      <c r="V24" s="267"/>
+      <c r="W24" s="68"/>
+      <c r="X24" s="68"/>
+      <c r="Y24" s="306" t="n">
         <v>18</v>
       </c>
-      <c r="Z24" s="146" t="s">
-        <v>1</v>
-      </c>
-      <c r="AA24" s="306" t="s">
+      <c r="Z24" s="145" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA24" s="307" t="s">
         <v>53</v>
       </c>
-      <c r="AB24" s="69"/>
-      <c r="AC24" s="307" t="n">
+      <c r="AB24" s="68"/>
+      <c r="AC24" s="308" t="n">
         <f aca="false">+AF24/AH24</f>
         <v>3.14158999999596</v>
       </c>
-      <c r="AD24" s="146" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE24" s="146"/>
-      <c r="AF24" s="308" t="n">
+      <c r="AD24" s="145" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE24" s="145"/>
+      <c r="AF24" s="309" t="n">
         <f aca="false">+$AC$13^2</f>
         <v>6.28317999999191</v>
       </c>
-      <c r="AG24" s="169" t="s">
+      <c r="AG24" s="168" t="s">
         <v>18</v>
       </c>
-      <c r="AH24" s="309" t="n">
+      <c r="AH24" s="310" t="n">
         <f aca="false">+$AC$14</f>
         <v>2</v>
       </c>
@@ -6618,87 +6623,87 @@
       <c r="A25" s="11"/>
       <c r="B25" s="12"/>
       <c r="C25" s="13"/>
-      <c r="D25" s="159" t="s">
+      <c r="D25" s="158" t="s">
         <v>3</v>
       </c>
-      <c r="E25" s="160" t="s">
-        <v>1</v>
-      </c>
-      <c r="F25" s="161" t="s">
+      <c r="E25" s="159" t="s">
+        <v>1</v>
+      </c>
+      <c r="F25" s="160" t="s">
         <v>25</v>
       </c>
-      <c r="G25" s="54"/>
-      <c r="H25" s="162" t="n">
+      <c r="G25" s="53"/>
+      <c r="H25" s="161" t="n">
         <f aca="false">+M25*K25</f>
         <v>18</v>
       </c>
-      <c r="I25" s="160" t="s">
-        <v>1</v>
-      </c>
-      <c r="J25" s="163"/>
-      <c r="K25" s="163" t="n">
+      <c r="I25" s="159" t="s">
+        <v>1</v>
+      </c>
+      <c r="J25" s="162"/>
+      <c r="K25" s="162" t="n">
         <f aca="false">+$H$16^2</f>
         <v>9</v>
       </c>
-      <c r="L25" s="169" t="s">
+      <c r="L25" s="168" t="s">
         <v>16</v>
       </c>
-      <c r="M25" s="310" t="n">
+      <c r="M25" s="311" t="n">
         <f aca="false">+$H$14</f>
         <v>2</v>
       </c>
-      <c r="N25" s="266" t="s">
+      <c r="N25" s="267" t="s">
         <v>54</v>
       </c>
-      <c r="O25" s="69"/>
-      <c r="P25" s="162" t="n">
+      <c r="O25" s="68"/>
+      <c r="P25" s="161" t="n">
         <f aca="false">+U25*S25</f>
         <v>3.14159</v>
       </c>
-      <c r="Q25" s="160" t="s">
-        <v>1</v>
-      </c>
-      <c r="R25" s="163"/>
-      <c r="S25" s="163" t="n">
+      <c r="Q25" s="159" t="s">
+        <v>1</v>
+      </c>
+      <c r="R25" s="162"/>
+      <c r="S25" s="162" t="n">
         <f aca="false">+$P$16^2</f>
         <v>3.14159</v>
       </c>
-      <c r="T25" s="169" t="s">
+      <c r="T25" s="168" t="s">
         <v>16</v>
       </c>
-      <c r="U25" s="310" t="n">
+      <c r="U25" s="311" t="n">
         <f aca="false">+$P$14</f>
         <v>1</v>
       </c>
-      <c r="V25" s="266"/>
-      <c r="W25" s="69"/>
-      <c r="X25" s="69"/>
-      <c r="Y25" s="311" t="n">
+      <c r="V25" s="267"/>
+      <c r="W25" s="68"/>
+      <c r="X25" s="68"/>
+      <c r="Y25" s="312" t="n">
         <v>18</v>
       </c>
-      <c r="Z25" s="160" t="s">
-        <v>1</v>
-      </c>
-      <c r="AA25" s="312" t="s">
+      <c r="Z25" s="159" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA25" s="313" t="s">
         <v>54</v>
       </c>
-      <c r="AB25" s="69"/>
-      <c r="AC25" s="313" t="n">
+      <c r="AB25" s="68"/>
+      <c r="AC25" s="314" t="n">
         <f aca="false">+AH25*AF25</f>
         <v>3.14158999999596</v>
       </c>
-      <c r="AD25" s="160" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE25" s="160"/>
-      <c r="AF25" s="309" t="n">
+      <c r="AD25" s="159" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE25" s="159"/>
+      <c r="AF25" s="310" t="n">
         <f aca="false">+$AC$14</f>
         <v>2</v>
       </c>
-      <c r="AG25" s="160" t="s">
+      <c r="AG25" s="159" t="s">
         <v>16</v>
       </c>
-      <c r="AH25" s="314" t="n">
+      <c r="AH25" s="315" t="n">
         <f aca="false">+$AC$16^2</f>
         <v>1.57079499999798</v>
       </c>
@@ -6708,87 +6713,87 @@
       <c r="A26" s="11"/>
       <c r="B26" s="12"/>
       <c r="C26" s="13"/>
-      <c r="D26" s="174" t="s">
+      <c r="D26" s="173" t="s">
         <v>3</v>
       </c>
-      <c r="E26" s="175" t="s">
-        <v>1</v>
-      </c>
-      <c r="F26" s="176" t="s">
+      <c r="E26" s="174" t="s">
+        <v>1</v>
+      </c>
+      <c r="F26" s="175" t="s">
         <v>26</v>
       </c>
-      <c r="G26" s="54"/>
-      <c r="H26" s="177" t="n">
+      <c r="G26" s="53"/>
+      <c r="H26" s="176" t="n">
         <f aca="false">+K26*M26</f>
         <v>18</v>
       </c>
-      <c r="I26" s="175" t="s">
-        <v>1</v>
-      </c>
-      <c r="J26" s="178"/>
-      <c r="K26" s="178" t="n">
+      <c r="I26" s="174" t="s">
+        <v>1</v>
+      </c>
+      <c r="J26" s="177"/>
+      <c r="K26" s="177" t="n">
         <f aca="false">+$H$13</f>
         <v>6</v>
       </c>
-      <c r="L26" s="175" t="s">
+      <c r="L26" s="174" t="s">
         <v>16</v>
       </c>
-      <c r="M26" s="315" t="n">
+      <c r="M26" s="316" t="n">
         <f aca="false">+$H$16</f>
         <v>3</v>
       </c>
-      <c r="N26" s="266" t="s">
+      <c r="N26" s="267" t="s">
         <v>55</v>
       </c>
-      <c r="O26" s="69"/>
-      <c r="P26" s="177" t="n">
+      <c r="O26" s="68"/>
+      <c r="P26" s="176" t="n">
         <f aca="false">+S26*U26</f>
         <v>3.14159</v>
       </c>
-      <c r="Q26" s="175" t="s">
-        <v>1</v>
-      </c>
-      <c r="R26" s="178"/>
-      <c r="S26" s="178" t="n">
+      <c r="Q26" s="174" t="s">
+        <v>1</v>
+      </c>
+      <c r="R26" s="177"/>
+      <c r="S26" s="177" t="n">
         <f aca="false">+$P$13</f>
         <v>1.7724531023415</v>
       </c>
-      <c r="T26" s="175" t="s">
+      <c r="T26" s="174" t="s">
         <v>16</v>
       </c>
-      <c r="U26" s="315" t="n">
+      <c r="U26" s="316" t="n">
         <f aca="false">+$P$16</f>
         <v>1.7724531023415</v>
       </c>
-      <c r="V26" s="266"/>
-      <c r="W26" s="69"/>
-      <c r="X26" s="69"/>
-      <c r="Y26" s="316" t="n">
+      <c r="V26" s="267"/>
+      <c r="W26" s="68"/>
+      <c r="X26" s="68"/>
+      <c r="Y26" s="317" t="n">
         <v>18</v>
       </c>
-      <c r="Z26" s="175" t="s">
-        <v>1</v>
-      </c>
-      <c r="AA26" s="317" t="s">
+      <c r="Z26" s="174" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA26" s="318" t="s">
         <v>55</v>
       </c>
-      <c r="AB26" s="69"/>
-      <c r="AC26" s="318" t="n">
+      <c r="AB26" s="68"/>
+      <c r="AC26" s="319" t="n">
         <f aca="false">+AF26*AH26</f>
         <v>3.14158999999596</v>
       </c>
-      <c r="AD26" s="175" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE26" s="175"/>
-      <c r="AF26" s="319" t="n">
+      <c r="AD26" s="174" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE26" s="174"/>
+      <c r="AF26" s="320" t="n">
         <f aca="false">+$AC$13</f>
         <v>2.506627216</v>
       </c>
-      <c r="AG26" s="175" t="s">
+      <c r="AG26" s="174" t="s">
         <v>16</v>
       </c>
-      <c r="AH26" s="320" t="n">
+      <c r="AH26" s="321" t="n">
         <f aca="false">+$AC$16</f>
         <v>1.253313608</v>
       </c>
@@ -6799,87 +6804,87 @@
       <c r="A27" s="11"/>
       <c r="B27" s="12"/>
       <c r="C27" s="13"/>
-      <c r="D27" s="188" t="s">
+      <c r="D27" s="187" t="s">
         <v>4</v>
       </c>
-      <c r="E27" s="189" t="s">
-        <v>1</v>
-      </c>
-      <c r="F27" s="190" t="s">
+      <c r="E27" s="188" t="s">
+        <v>1</v>
+      </c>
+      <c r="F27" s="189" t="s">
         <v>27</v>
       </c>
-      <c r="G27" s="54"/>
-      <c r="H27" s="191" t="n">
+      <c r="G27" s="53"/>
+      <c r="H27" s="190" t="n">
         <f aca="false">+K27/M27</f>
         <v>3</v>
       </c>
-      <c r="I27" s="192" t="s">
-        <v>1</v>
-      </c>
-      <c r="J27" s="193"/>
-      <c r="K27" s="321" t="n">
+      <c r="I27" s="191" t="s">
+        <v>1</v>
+      </c>
+      <c r="J27" s="192"/>
+      <c r="K27" s="322" t="n">
         <f aca="false">+$H$13</f>
         <v>6</v>
       </c>
-      <c r="L27" s="199" t="s">
+      <c r="L27" s="198" t="s">
         <v>18</v>
       </c>
-      <c r="M27" s="322" t="n">
+      <c r="M27" s="323" t="n">
         <f aca="false">+$H$14</f>
         <v>2</v>
       </c>
-      <c r="N27" s="288" t="s">
+      <c r="N27" s="289" t="s">
         <v>56</v>
       </c>
-      <c r="O27" s="54"/>
-      <c r="P27" s="191" t="n">
+      <c r="O27" s="53"/>
+      <c r="P27" s="190" t="n">
         <f aca="false">+S27/U27</f>
         <v>1.7724531023415</v>
       </c>
-      <c r="Q27" s="192" t="s">
-        <v>1</v>
-      </c>
-      <c r="R27" s="193"/>
-      <c r="S27" s="321" t="n">
+      <c r="Q27" s="191" t="s">
+        <v>1</v>
+      </c>
+      <c r="R27" s="192"/>
+      <c r="S27" s="322" t="n">
         <f aca="false">+$P$13</f>
         <v>1.7724531023415</v>
       </c>
-      <c r="T27" s="199" t="s">
+      <c r="T27" s="198" t="s">
         <v>18</v>
       </c>
-      <c r="U27" s="322" t="n">
+      <c r="U27" s="323" t="n">
         <f aca="false">+$P$14</f>
         <v>1</v>
       </c>
-      <c r="V27" s="288"/>
-      <c r="W27" s="54"/>
-      <c r="X27" s="54"/>
-      <c r="Y27" s="323" t="n">
+      <c r="V27" s="289"/>
+      <c r="W27" s="53"/>
+      <c r="X27" s="53"/>
+      <c r="Y27" s="324" t="n">
         <v>3</v>
       </c>
-      <c r="Z27" s="189" t="s">
-        <v>1</v>
-      </c>
-      <c r="AA27" s="324" t="s">
+      <c r="Z27" s="188" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA27" s="325" t="s">
         <v>56</v>
       </c>
-      <c r="AB27" s="54"/>
-      <c r="AC27" s="325" t="n">
+      <c r="AB27" s="53"/>
+      <c r="AC27" s="326" t="n">
         <f aca="false">+AF27/AH27</f>
         <v>1.253313608</v>
       </c>
-      <c r="AD27" s="189" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE27" s="189"/>
-      <c r="AF27" s="326" t="n">
+      <c r="AD27" s="188" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE27" s="188"/>
+      <c r="AF27" s="327" t="n">
         <f aca="false">+$AC$13</f>
         <v>2.506627216</v>
       </c>
-      <c r="AG27" s="189" t="s">
+      <c r="AG27" s="188" t="s">
         <v>18</v>
       </c>
-      <c r="AH27" s="327" t="n">
+      <c r="AH27" s="328" t="n">
         <f aca="false">+$AC$14</f>
         <v>2</v>
       </c>
@@ -6890,87 +6895,87 @@
       <c r="A28" s="11"/>
       <c r="B28" s="12"/>
       <c r="C28" s="13"/>
-      <c r="D28" s="204" t="s">
+      <c r="D28" s="203" t="s">
         <v>4</v>
       </c>
-      <c r="E28" s="205" t="s">
-        <v>1</v>
-      </c>
-      <c r="F28" s="206" t="s">
+      <c r="E28" s="204" t="s">
+        <v>1</v>
+      </c>
+      <c r="F28" s="205" t="s">
         <v>28</v>
       </c>
-      <c r="G28" s="54"/>
-      <c r="H28" s="207" t="n">
+      <c r="G28" s="53"/>
+      <c r="H28" s="206" t="n">
         <f aca="false">+K28/M28</f>
         <v>3</v>
       </c>
-      <c r="I28" s="208" t="s">
-        <v>1</v>
-      </c>
-      <c r="J28" s="209"/>
-      <c r="K28" s="209" t="n">
+      <c r="I28" s="207" t="s">
+        <v>1</v>
+      </c>
+      <c r="J28" s="208"/>
+      <c r="K28" s="208" t="n">
         <f aca="false">+$H$15</f>
         <v>18</v>
       </c>
-      <c r="L28" s="215" t="s">
+      <c r="L28" s="214" t="s">
         <v>18</v>
       </c>
-      <c r="M28" s="328" t="n">
+      <c r="M28" s="329" t="n">
         <f aca="false">+$H$13</f>
         <v>6</v>
       </c>
-      <c r="N28" s="266" t="s">
+      <c r="N28" s="267" t="s">
         <v>57</v>
       </c>
-      <c r="O28" s="54"/>
-      <c r="P28" s="207" t="n">
+      <c r="O28" s="53"/>
+      <c r="P28" s="206" t="n">
         <f aca="false">+S28/U28</f>
         <v>1.7724531023415</v>
       </c>
-      <c r="Q28" s="208" t="s">
-        <v>1</v>
-      </c>
-      <c r="R28" s="209"/>
-      <c r="S28" s="209" t="n">
+      <c r="Q28" s="207" t="s">
+        <v>1</v>
+      </c>
+      <c r="R28" s="208"/>
+      <c r="S28" s="208" t="n">
         <f aca="false">+$P$15</f>
         <v>3.14159</v>
       </c>
-      <c r="T28" s="215" t="s">
+      <c r="T28" s="214" t="s">
         <v>18</v>
       </c>
-      <c r="U28" s="328" t="n">
+      <c r="U28" s="329" t="n">
         <f aca="false">+$P$13</f>
         <v>1.7724531023415</v>
       </c>
-      <c r="V28" s="266"/>
-      <c r="W28" s="54"/>
-      <c r="X28" s="54"/>
-      <c r="Y28" s="329" t="n">
+      <c r="V28" s="267"/>
+      <c r="W28" s="53"/>
+      <c r="X28" s="53"/>
+      <c r="Y28" s="330" t="n">
         <v>3</v>
       </c>
-      <c r="Z28" s="205" t="s">
-        <v>1</v>
-      </c>
-      <c r="AA28" s="330" t="s">
+      <c r="Z28" s="204" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA28" s="331" t="s">
         <v>57</v>
       </c>
-      <c r="AB28" s="54"/>
-      <c r="AC28" s="331" t="n">
+      <c r="AB28" s="53"/>
+      <c r="AC28" s="332" t="n">
         <f aca="false">+AF28/AH28</f>
         <v>1.25331466663131</v>
       </c>
-      <c r="AD28" s="205" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE28" s="205"/>
-      <c r="AF28" s="332" t="n">
+      <c r="AD28" s="204" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE28" s="204"/>
+      <c r="AF28" s="333" t="n">
         <f aca="false">+$AC$15</f>
         <v>3.14159265359</v>
       </c>
-      <c r="AG28" s="205" t="s">
+      <c r="AG28" s="204" t="s">
         <v>18</v>
       </c>
-      <c r="AH28" s="333" t="n">
+      <c r="AH28" s="334" t="n">
         <f aca="false">+$AC$13</f>
         <v>2.506627216</v>
       </c>
@@ -6981,93 +6986,93 @@
       <c r="A29" s="11"/>
       <c r="B29" s="12"/>
       <c r="C29" s="13"/>
-      <c r="D29" s="220" t="s">
+      <c r="D29" s="219" t="s">
         <v>4</v>
       </c>
-      <c r="E29" s="221" t="s">
-        <v>1</v>
-      </c>
-      <c r="F29" s="222" t="s">
+      <c r="E29" s="220" t="s">
+        <v>1</v>
+      </c>
+      <c r="F29" s="221" t="s">
         <v>29</v>
       </c>
-      <c r="G29" s="54"/>
-      <c r="H29" s="223" t="n">
+      <c r="G29" s="53"/>
+      <c r="H29" s="222" t="n">
         <f aca="false">+SQRT(K29/M29)</f>
         <v>3</v>
       </c>
-      <c r="I29" s="224" t="s">
-        <v>1</v>
-      </c>
-      <c r="J29" s="334" t="s">
+      <c r="I29" s="223" t="s">
+        <v>1</v>
+      </c>
+      <c r="J29" s="335" t="s">
         <v>30</v>
       </c>
-      <c r="K29" s="334" t="n">
+      <c r="K29" s="335" t="n">
         <f aca="false">+$H$15</f>
         <v>18</v>
       </c>
-      <c r="L29" s="224" t="s">
+      <c r="L29" s="223" t="s">
         <v>18</v>
       </c>
-      <c r="M29" s="335" t="n">
+      <c r="M29" s="336" t="n">
         <f aca="false">+$H$14</f>
         <v>2</v>
       </c>
-      <c r="N29" s="266" t="s">
+      <c r="N29" s="267" t="s">
         <v>58</v>
       </c>
-      <c r="O29" s="54"/>
-      <c r="P29" s="223" t="n">
+      <c r="O29" s="53"/>
+      <c r="P29" s="222" t="n">
         <f aca="false">+SQRT(S29/U29)</f>
         <v>1.7724531023415</v>
       </c>
-      <c r="Q29" s="224" t="s">
-        <v>1</v>
-      </c>
-      <c r="R29" s="334" t="s">
+      <c r="Q29" s="223" t="s">
+        <v>1</v>
+      </c>
+      <c r="R29" s="335" t="s">
         <v>30</v>
       </c>
-      <c r="S29" s="334" t="n">
+      <c r="S29" s="335" t="n">
         <f aca="false">+$P$15</f>
         <v>3.14159</v>
       </c>
-      <c r="T29" s="224" t="s">
+      <c r="T29" s="223" t="s">
         <v>18</v>
       </c>
-      <c r="U29" s="335" t="n">
+      <c r="U29" s="336" t="n">
         <f aca="false">+$P$14</f>
         <v>1</v>
       </c>
-      <c r="V29" s="266"/>
-      <c r="W29" s="54"/>
-      <c r="X29" s="54"/>
-      <c r="Y29" s="336" t="n">
+      <c r="V29" s="267"/>
+      <c r="W29" s="53"/>
+      <c r="X29" s="53"/>
+      <c r="Y29" s="337" t="n">
         <v>3</v>
       </c>
-      <c r="Z29" s="221" t="s">
-        <v>1</v>
-      </c>
-      <c r="AA29" s="337" t="s">
+      <c r="Z29" s="220" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA29" s="338" t="s">
         <v>58</v>
       </c>
-      <c r="AB29" s="54"/>
-      <c r="AC29" s="338" t="n">
+      <c r="AB29" s="53"/>
+      <c r="AC29" s="339" t="n">
         <f aca="false">+SQRT(AF29/AH29)</f>
         <v>1.25331413731554</v>
       </c>
-      <c r="AD29" s="221" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE29" s="221" t="s">
+      <c r="AD29" s="220" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE29" s="220" t="s">
         <v>47</v>
       </c>
-      <c r="AF29" s="339" t="n">
+      <c r="AF29" s="340" t="n">
         <f aca="false">+$AC$15</f>
         <v>3.14159265359</v>
       </c>
-      <c r="AG29" s="221" t="s">
+      <c r="AG29" s="220" t="s">
         <v>18</v>
       </c>
-      <c r="AH29" s="340" t="n">
+      <c r="AH29" s="341" t="n">
         <f aca="false">+$AC$14</f>
         <v>2</v>
       </c>
@@ -7111,13 +7116,13 @@
       <c r="AH30" s="13"/>
       <c r="AI30" s="13"/>
       <c r="AJ30" s="11"/>
-      <c r="AO30" s="341" t="s">
+      <c r="AO30" s="342" t="s">
         <v>46</v>
       </c>
-      <c r="AP30" s="341" t="s">
-        <v>1</v>
-      </c>
-      <c r="AQ30" s="342" t="n">
+      <c r="AP30" s="342" t="s">
+        <v>1</v>
+      </c>
+      <c r="AQ30" s="343" t="n">
         <f aca="false">SQRT(AC15*2)</f>
         <v>2.50662827463108</v>
       </c>
@@ -7159,13 +7164,13 @@
       <c r="AH31" s="13"/>
       <c r="AI31" s="13"/>
       <c r="AJ31" s="11"/>
-      <c r="AO31" s="341" t="s">
+      <c r="AO31" s="342" t="s">
         <v>48</v>
       </c>
-      <c r="AP31" s="341" t="s">
-        <v>1</v>
-      </c>
-      <c r="AQ31" s="342" t="n">
+      <c r="AP31" s="342" t="s">
+        <v>1</v>
+      </c>
+      <c r="AQ31" s="343" t="n">
         <f aca="false">AC15/AC16</f>
         <v>2.50662933326261</v>
       </c>
@@ -7206,13 +7211,13 @@
       <c r="AH32" s="13"/>
       <c r="AI32" s="13"/>
       <c r="AJ32" s="11"/>
-      <c r="AO32" s="341" t="s">
+      <c r="AO32" s="342" t="s">
         <v>49</v>
       </c>
-      <c r="AP32" s="341" t="s">
-        <v>1</v>
-      </c>
-      <c r="AQ32" s="342" t="n">
+      <c r="AP32" s="342" t="s">
+        <v>1</v>
+      </c>
+      <c r="AQ32" s="343" t="n">
         <f aca="false">+AC14*AC16</f>
         <v>2.506627216</v>
       </c>
@@ -7254,38 +7259,38 @@
       <c r="AI33" s="13"/>
       <c r="AJ33" s="11"/>
       <c r="AK33" s="11"/>
-      <c r="AO33" s="343" t="s">
+      <c r="AO33" s="344" t="s">
         <v>50</v>
       </c>
-      <c r="AP33" s="344" t="s">
-        <v>1</v>
-      </c>
-      <c r="AQ33" s="345" t="n">
+      <c r="AP33" s="345" t="s">
+        <v>1</v>
+      </c>
+      <c r="AQ33" s="346" t="n">
         <f aca="false">+AC13/AC16</f>
         <v>2</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B34" s="236"/>
+      <c r="B34" s="235"/>
       <c r="C34" s="11"/>
-      <c r="D34" s="236"/>
+      <c r="D34" s="235"/>
       <c r="E34" s="29"/>
       <c r="F34" s="11"/>
       <c r="G34" s="11"/>
       <c r="H34" s="11"/>
       <c r="I34" s="11"/>
-      <c r="J34" s="236"/>
-      <c r="K34" s="236"/>
+      <c r="J34" s="235"/>
+      <c r="K34" s="235"/>
       <c r="L34" s="29"/>
-      <c r="M34" s="237"/>
+      <c r="M34" s="236"/>
       <c r="N34" s="29"/>
       <c r="O34" s="11"/>
       <c r="P34" s="11"/>
       <c r="Q34" s="11"/>
-      <c r="R34" s="236"/>
-      <c r="S34" s="236"/>
+      <c r="R34" s="235"/>
+      <c r="S34" s="235"/>
       <c r="T34" s="29"/>
-      <c r="U34" s="237"/>
+      <c r="U34" s="236"/>
       <c r="V34" s="29"/>
       <c r="W34" s="11"/>
       <c r="X34" s="11"/>
@@ -7302,38 +7307,38 @@
       <c r="AI34" s="11"/>
       <c r="AJ34" s="11"/>
       <c r="AK34" s="11"/>
-      <c r="AO34" s="344" t="s">
+      <c r="AO34" s="345" t="s">
         <v>51</v>
       </c>
-      <c r="AP34" s="344" t="s">
-        <v>1</v>
-      </c>
-      <c r="AQ34" s="345" t="n">
+      <c r="AP34" s="345" t="s">
+        <v>1</v>
+      </c>
+      <c r="AQ34" s="346" t="n">
         <f aca="false">+AC13^2/AC15</f>
         <v>1.99999831066956</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B35" s="236"/>
+      <c r="B35" s="235"/>
       <c r="C35" s="11"/>
-      <c r="D35" s="236"/>
+      <c r="D35" s="235"/>
       <c r="E35" s="29"/>
       <c r="F35" s="11"/>
       <c r="G35" s="11"/>
       <c r="H35" s="11"/>
       <c r="I35" s="11"/>
-      <c r="J35" s="236"/>
-      <c r="K35" s="236"/>
+      <c r="J35" s="235"/>
+      <c r="K35" s="235"/>
       <c r="L35" s="29"/>
-      <c r="M35" s="237"/>
+      <c r="M35" s="236"/>
       <c r="N35" s="29"/>
       <c r="O35" s="11"/>
       <c r="P35" s="11"/>
       <c r="Q35" s="11"/>
-      <c r="R35" s="236"/>
-      <c r="S35" s="236"/>
+      <c r="R35" s="235"/>
+      <c r="S35" s="235"/>
       <c r="T35" s="29"/>
-      <c r="U35" s="237"/>
+      <c r="U35" s="236"/>
       <c r="V35" s="29"/>
       <c r="W35" s="11"/>
       <c r="X35" s="11"/>
@@ -7350,38 +7355,38 @@
       <c r="AI35" s="11"/>
       <c r="AJ35" s="11"/>
       <c r="AK35" s="11"/>
-      <c r="AO35" s="344" t="s">
+      <c r="AO35" s="345" t="s">
         <v>52</v>
       </c>
-      <c r="AP35" s="344" t="s">
-        <v>1</v>
-      </c>
-      <c r="AQ35" s="345" t="n">
+      <c r="AP35" s="345" t="s">
+        <v>1</v>
+      </c>
+      <c r="AQ35" s="346" t="n">
         <f aca="false">+AC15/AC16^2</f>
         <v>2.00000168933186</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B36" s="236"/>
+      <c r="B36" s="235"/>
       <c r="C36" s="11"/>
-      <c r="D36" s="236"/>
+      <c r="D36" s="235"/>
       <c r="E36" s="29"/>
       <c r="F36" s="11"/>
       <c r="G36" s="11"/>
       <c r="H36" s="11"/>
       <c r="I36" s="11"/>
-      <c r="J36" s="236"/>
-      <c r="K36" s="236"/>
+      <c r="J36" s="235"/>
+      <c r="K36" s="235"/>
       <c r="L36" s="29"/>
-      <c r="M36" s="237"/>
+      <c r="M36" s="236"/>
       <c r="N36" s="29"/>
       <c r="O36" s="11"/>
       <c r="P36" s="11"/>
       <c r="Q36" s="11"/>
-      <c r="R36" s="236"/>
-      <c r="S36" s="236"/>
+      <c r="R36" s="235"/>
+      <c r="S36" s="235"/>
       <c r="T36" s="29"/>
-      <c r="U36" s="237"/>
+      <c r="U36" s="236"/>
       <c r="V36" s="29"/>
       <c r="W36" s="11"/>
       <c r="X36" s="11"/>
@@ -7398,38 +7403,38 @@
       <c r="AI36" s="11"/>
       <c r="AJ36" s="11"/>
       <c r="AK36" s="11"/>
-      <c r="AO36" s="346" t="s">
+      <c r="AO36" s="347" t="s">
         <v>53</v>
       </c>
-      <c r="AP36" s="346" t="s">
-        <v>1</v>
-      </c>
-      <c r="AQ36" s="347" t="n">
+      <c r="AP36" s="347" t="s">
+        <v>1</v>
+      </c>
+      <c r="AQ36" s="348" t="n">
         <f aca="false">+AC13^2/AC14</f>
         <v>3.14158999999596</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B37" s="236"/>
+      <c r="B37" s="235"/>
       <c r="C37" s="11"/>
-      <c r="D37" s="236"/>
+      <c r="D37" s="235"/>
       <c r="E37" s="29"/>
       <c r="F37" s="11"/>
       <c r="G37" s="11"/>
       <c r="H37" s="11"/>
       <c r="I37" s="11"/>
-      <c r="J37" s="236"/>
-      <c r="K37" s="236"/>
+      <c r="J37" s="235"/>
+      <c r="K37" s="235"/>
       <c r="L37" s="29"/>
-      <c r="M37" s="237"/>
+      <c r="M37" s="236"/>
       <c r="N37" s="29"/>
       <c r="O37" s="11"/>
       <c r="P37" s="11"/>
       <c r="Q37" s="11"/>
-      <c r="R37" s="236"/>
-      <c r="S37" s="236"/>
+      <c r="R37" s="235"/>
+      <c r="S37" s="235"/>
       <c r="T37" s="29"/>
-      <c r="U37" s="237"/>
+      <c r="U37" s="236"/>
       <c r="V37" s="29"/>
       <c r="W37" s="11"/>
       <c r="X37" s="11"/>
@@ -7446,38 +7451,38 @@
       <c r="AI37" s="11"/>
       <c r="AJ37" s="11"/>
       <c r="AK37" s="11"/>
-      <c r="AO37" s="346" t="s">
+      <c r="AO37" s="347" t="s">
         <v>54</v>
       </c>
-      <c r="AP37" s="346" t="s">
-        <v>1</v>
-      </c>
-      <c r="AQ37" s="347" t="n">
+      <c r="AP37" s="347" t="s">
+        <v>1</v>
+      </c>
+      <c r="AQ37" s="348" t="n">
         <f aca="false">+(AC16^2)*2</f>
         <v>3.14158999999596</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B38" s="236"/>
+      <c r="B38" s="235"/>
       <c r="C38" s="11"/>
-      <c r="D38" s="236"/>
+      <c r="D38" s="235"/>
       <c r="E38" s="29"/>
       <c r="F38" s="11"/>
       <c r="G38" s="11"/>
       <c r="H38" s="11"/>
       <c r="I38" s="11"/>
-      <c r="J38" s="236"/>
-      <c r="K38" s="236"/>
+      <c r="J38" s="235"/>
+      <c r="K38" s="235"/>
       <c r="L38" s="29"/>
-      <c r="M38" s="237"/>
+      <c r="M38" s="236"/>
       <c r="N38" s="29"/>
       <c r="O38" s="11"/>
       <c r="P38" s="11"/>
       <c r="Q38" s="11"/>
-      <c r="R38" s="236"/>
-      <c r="S38" s="236"/>
+      <c r="R38" s="235"/>
+      <c r="S38" s="235"/>
       <c r="T38" s="29"/>
-      <c r="U38" s="237"/>
+      <c r="U38" s="236"/>
       <c r="V38" s="29"/>
       <c r="W38" s="11"/>
       <c r="X38" s="11"/>
@@ -7494,38 +7499,38 @@
       <c r="AI38" s="11"/>
       <c r="AJ38" s="11"/>
       <c r="AK38" s="11"/>
-      <c r="AO38" s="346" t="s">
+      <c r="AO38" s="347" t="s">
         <v>55</v>
       </c>
-      <c r="AP38" s="346" t="s">
-        <v>1</v>
-      </c>
-      <c r="AQ38" s="347" t="n">
+      <c r="AP38" s="347" t="s">
+        <v>1</v>
+      </c>
+      <c r="AQ38" s="348" t="n">
         <f aca="false">+AC13*AC16</f>
         <v>3.14158999999596</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B39" s="236"/>
+      <c r="B39" s="235"/>
       <c r="C39" s="11"/>
-      <c r="D39" s="236"/>
+      <c r="D39" s="235"/>
       <c r="E39" s="29"/>
       <c r="F39" s="11"/>
       <c r="G39" s="11"/>
       <c r="H39" s="11"/>
       <c r="I39" s="11"/>
-      <c r="J39" s="236"/>
-      <c r="K39" s="236"/>
+      <c r="J39" s="235"/>
+      <c r="K39" s="235"/>
       <c r="L39" s="29"/>
-      <c r="M39" s="237"/>
+      <c r="M39" s="236"/>
       <c r="N39" s="29"/>
       <c r="O39" s="11"/>
       <c r="P39" s="11"/>
       <c r="Q39" s="11"/>
-      <c r="R39" s="236"/>
-      <c r="S39" s="236"/>
+      <c r="R39" s="235"/>
+      <c r="S39" s="235"/>
       <c r="T39" s="29"/>
-      <c r="U39" s="237"/>
+      <c r="U39" s="236"/>
       <c r="V39" s="29"/>
       <c r="W39" s="11"/>
       <c r="X39" s="11"/>
@@ -7542,38 +7547,38 @@
       <c r="AI39" s="11"/>
       <c r="AJ39" s="11"/>
       <c r="AK39" s="11"/>
-      <c r="AO39" s="348" t="s">
+      <c r="AO39" s="349" t="s">
         <v>56</v>
       </c>
-      <c r="AP39" s="349" t="s">
-        <v>1</v>
-      </c>
-      <c r="AQ39" s="350" t="n">
+      <c r="AP39" s="350" t="s">
+        <v>1</v>
+      </c>
+      <c r="AQ39" s="351" t="n">
         <f aca="false">+AC13/AC14</f>
         <v>1.253313608</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B40" s="236"/>
+      <c r="B40" s="235"/>
       <c r="C40" s="11"/>
-      <c r="D40" s="236"/>
+      <c r="D40" s="235"/>
       <c r="E40" s="29"/>
       <c r="F40" s="11"/>
       <c r="G40" s="11"/>
       <c r="H40" s="11"/>
       <c r="I40" s="11"/>
-      <c r="J40" s="236"/>
-      <c r="K40" s="236"/>
+      <c r="J40" s="235"/>
+      <c r="K40" s="235"/>
       <c r="L40" s="29"/>
-      <c r="M40" s="237"/>
+      <c r="M40" s="236"/>
       <c r="N40" s="29"/>
       <c r="O40" s="11"/>
       <c r="P40" s="11"/>
       <c r="Q40" s="11"/>
-      <c r="R40" s="236"/>
-      <c r="S40" s="236"/>
+      <c r="R40" s="235"/>
+      <c r="S40" s="235"/>
       <c r="T40" s="29"/>
-      <c r="U40" s="237"/>
+      <c r="U40" s="236"/>
       <c r="V40" s="29"/>
       <c r="W40" s="11"/>
       <c r="X40" s="11"/>
@@ -7590,38 +7595,38 @@
       <c r="AI40" s="11"/>
       <c r="AJ40" s="11"/>
       <c r="AK40" s="11"/>
-      <c r="AO40" s="349" t="s">
+      <c r="AO40" s="350" t="s">
         <v>57</v>
       </c>
-      <c r="AP40" s="349" t="s">
-        <v>1</v>
-      </c>
-      <c r="AQ40" s="350" t="n">
+      <c r="AP40" s="350" t="s">
+        <v>1</v>
+      </c>
+      <c r="AQ40" s="351" t="n">
         <f aca="false">+AC15/AC13</f>
         <v>1.25331466663131</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B41" s="236"/>
+      <c r="B41" s="235"/>
       <c r="C41" s="11"/>
-      <c r="D41" s="236"/>
+      <c r="D41" s="235"/>
       <c r="E41" s="29"/>
       <c r="F41" s="11"/>
       <c r="G41" s="11"/>
       <c r="H41" s="11"/>
       <c r="I41" s="11"/>
-      <c r="J41" s="236"/>
-      <c r="K41" s="236"/>
+      <c r="J41" s="235"/>
+      <c r="K41" s="235"/>
       <c r="L41" s="29"/>
-      <c r="M41" s="237"/>
+      <c r="M41" s="236"/>
       <c r="N41" s="29"/>
       <c r="O41" s="11"/>
       <c r="P41" s="11"/>
       <c r="Q41" s="11"/>
-      <c r="R41" s="236"/>
-      <c r="S41" s="236"/>
+      <c r="R41" s="235"/>
+      <c r="S41" s="235"/>
       <c r="T41" s="29"/>
-      <c r="U41" s="237"/>
+      <c r="U41" s="236"/>
       <c r="V41" s="29"/>
       <c r="W41" s="11"/>
       <c r="X41" s="11"/>
@@ -7638,38 +7643,38 @@
       <c r="AI41" s="11"/>
       <c r="AJ41" s="11"/>
       <c r="AK41" s="11"/>
-      <c r="AO41" s="349" t="s">
+      <c r="AO41" s="350" t="s">
         <v>58</v>
       </c>
-      <c r="AP41" s="349" t="s">
-        <v>1</v>
-      </c>
-      <c r="AQ41" s="350" t="n">
+      <c r="AP41" s="350" t="s">
+        <v>1</v>
+      </c>
+      <c r="AQ41" s="351" t="n">
         <f aca="false">+SQRT(AC15/AC14)</f>
         <v>1.25331413731554</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B42" s="236"/>
+      <c r="B42" s="235"/>
       <c r="C42" s="11"/>
-      <c r="D42" s="236"/>
+      <c r="D42" s="235"/>
       <c r="E42" s="29"/>
       <c r="F42" s="11"/>
       <c r="G42" s="11"/>
       <c r="H42" s="11"/>
       <c r="I42" s="11"/>
-      <c r="J42" s="236"/>
-      <c r="K42" s="236"/>
+      <c r="J42" s="235"/>
+      <c r="K42" s="235"/>
       <c r="L42" s="29"/>
-      <c r="M42" s="237"/>
+      <c r="M42" s="236"/>
       <c r="N42" s="29"/>
       <c r="O42" s="11"/>
       <c r="P42" s="11"/>
       <c r="Q42" s="11"/>
-      <c r="R42" s="236"/>
-      <c r="S42" s="236"/>
+      <c r="R42" s="235"/>
+      <c r="S42" s="235"/>
       <c r="T42" s="29"/>
-      <c r="U42" s="237"/>
+      <c r="U42" s="236"/>
       <c r="V42" s="29"/>
       <c r="W42" s="11"/>
       <c r="X42" s="11"/>
@@ -7688,26 +7693,26 @@
       <c r="AK42" s="11"/>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B43" s="236"/>
+      <c r="B43" s="235"/>
       <c r="C43" s="11"/>
-      <c r="D43" s="236"/>
+      <c r="D43" s="235"/>
       <c r="E43" s="29"/>
       <c r="F43" s="11"/>
       <c r="G43" s="11"/>
       <c r="H43" s="11"/>
       <c r="I43" s="11"/>
-      <c r="J43" s="236"/>
-      <c r="K43" s="236"/>
+      <c r="J43" s="235"/>
+      <c r="K43" s="235"/>
       <c r="L43" s="29"/>
-      <c r="M43" s="237"/>
+      <c r="M43" s="236"/>
       <c r="N43" s="29"/>
       <c r="O43" s="11"/>
       <c r="P43" s="11"/>
       <c r="Q43" s="11"/>
-      <c r="R43" s="236"/>
-      <c r="S43" s="236"/>
+      <c r="R43" s="235"/>
+      <c r="S43" s="235"/>
       <c r="T43" s="29"/>
-      <c r="U43" s="237"/>
+      <c r="U43" s="236"/>
       <c r="V43" s="29"/>
       <c r="W43" s="11"/>
       <c r="X43" s="11"/>
@@ -7726,26 +7731,26 @@
       <c r="AK43" s="11"/>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B44" s="236"/>
+      <c r="B44" s="235"/>
       <c r="C44" s="11"/>
-      <c r="D44" s="236"/>
+      <c r="D44" s="235"/>
       <c r="E44" s="29"/>
       <c r="F44" s="11"/>
       <c r="G44" s="11"/>
       <c r="H44" s="11"/>
       <c r="I44" s="11"/>
-      <c r="J44" s="236"/>
-      <c r="K44" s="236"/>
+      <c r="J44" s="235"/>
+      <c r="K44" s="235"/>
       <c r="L44" s="29"/>
-      <c r="M44" s="237"/>
+      <c r="M44" s="236"/>
       <c r="N44" s="29"/>
       <c r="O44" s="11"/>
       <c r="P44" s="11"/>
       <c r="Q44" s="11"/>
-      <c r="R44" s="236"/>
-      <c r="S44" s="236"/>
+      <c r="R44" s="235"/>
+      <c r="S44" s="235"/>
       <c r="T44" s="29"/>
-      <c r="U44" s="237"/>
+      <c r="U44" s="236"/>
       <c r="V44" s="29"/>
       <c r="W44" s="11"/>
       <c r="X44" s="11"/>
@@ -7764,26 +7769,26 @@
       <c r="AK44" s="11"/>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B45" s="236"/>
+      <c r="B45" s="235"/>
       <c r="C45" s="11"/>
-      <c r="D45" s="236"/>
+      <c r="D45" s="235"/>
       <c r="E45" s="29"/>
       <c r="F45" s="11"/>
       <c r="G45" s="11"/>
       <c r="H45" s="11"/>
       <c r="I45" s="11"/>
-      <c r="J45" s="236"/>
-      <c r="K45" s="236"/>
+      <c r="J45" s="235"/>
+      <c r="K45" s="235"/>
       <c r="L45" s="29"/>
-      <c r="M45" s="237"/>
+      <c r="M45" s="236"/>
       <c r="N45" s="29"/>
       <c r="O45" s="11"/>
       <c r="P45" s="11"/>
       <c r="Q45" s="11"/>
-      <c r="R45" s="236"/>
-      <c r="S45" s="236"/>
+      <c r="R45" s="235"/>
+      <c r="S45" s="235"/>
       <c r="T45" s="29"/>
-      <c r="U45" s="237"/>
+      <c r="U45" s="236"/>
       <c r="V45" s="29"/>
       <c r="W45" s="11"/>
       <c r="X45" s="11"/>
@@ -7802,26 +7807,26 @@
       <c r="AK45" s="11"/>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B46" s="236"/>
+      <c r="B46" s="235"/>
       <c r="C46" s="11"/>
-      <c r="D46" s="236"/>
+      <c r="D46" s="235"/>
       <c r="E46" s="29"/>
       <c r="F46" s="11"/>
       <c r="G46" s="11"/>
       <c r="H46" s="11"/>
       <c r="I46" s="11"/>
-      <c r="J46" s="236"/>
-      <c r="K46" s="236"/>
+      <c r="J46" s="235"/>
+      <c r="K46" s="235"/>
       <c r="L46" s="29"/>
-      <c r="M46" s="237"/>
+      <c r="M46" s="236"/>
       <c r="N46" s="29"/>
       <c r="O46" s="11"/>
       <c r="P46" s="11"/>
       <c r="Q46" s="11"/>
-      <c r="R46" s="236"/>
-      <c r="S46" s="236"/>
+      <c r="R46" s="235"/>
+      <c r="S46" s="235"/>
       <c r="T46" s="29"/>
-      <c r="U46" s="237"/>
+      <c r="U46" s="236"/>
       <c r="V46" s="29"/>
       <c r="W46" s="11"/>
       <c r="X46" s="11"/>
@@ -7840,26 +7845,26 @@
       <c r="AK46" s="11"/>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B47" s="236"/>
+      <c r="B47" s="235"/>
       <c r="C47" s="11"/>
-      <c r="D47" s="236"/>
+      <c r="D47" s="235"/>
       <c r="E47" s="29"/>
       <c r="F47" s="11"/>
       <c r="G47" s="11"/>
       <c r="H47" s="11"/>
       <c r="I47" s="11"/>
-      <c r="J47" s="236"/>
-      <c r="K47" s="236"/>
+      <c r="J47" s="235"/>
+      <c r="K47" s="235"/>
       <c r="L47" s="29"/>
-      <c r="M47" s="237"/>
+      <c r="M47" s="236"/>
       <c r="N47" s="29"/>
       <c r="O47" s="11"/>
       <c r="P47" s="11"/>
       <c r="Q47" s="11"/>
-      <c r="R47" s="236"/>
-      <c r="S47" s="236"/>
+      <c r="R47" s="235"/>
+      <c r="S47" s="235"/>
       <c r="T47" s="29"/>
-      <c r="U47" s="237"/>
+      <c r="U47" s="236"/>
       <c r="V47" s="29"/>
       <c r="W47" s="11"/>
       <c r="X47" s="11"/>
@@ -7878,26 +7883,26 @@
       <c r="AK47" s="11"/>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B48" s="236"/>
+      <c r="B48" s="235"/>
       <c r="C48" s="11"/>
-      <c r="D48" s="236"/>
+      <c r="D48" s="235"/>
       <c r="E48" s="29"/>
       <c r="F48" s="11"/>
       <c r="G48" s="11"/>
       <c r="H48" s="11"/>
       <c r="I48" s="11"/>
-      <c r="J48" s="236"/>
-      <c r="K48" s="236"/>
+      <c r="J48" s="235"/>
+      <c r="K48" s="235"/>
       <c r="L48" s="29"/>
-      <c r="M48" s="237"/>
+      <c r="M48" s="236"/>
       <c r="N48" s="29"/>
       <c r="O48" s="11"/>
       <c r="P48" s="11"/>
       <c r="Q48" s="11"/>
-      <c r="R48" s="236"/>
-      <c r="S48" s="236"/>
+      <c r="R48" s="235"/>
+      <c r="S48" s="235"/>
       <c r="T48" s="29"/>
-      <c r="U48" s="237"/>
+      <c r="U48" s="236"/>
       <c r="V48" s="29"/>
       <c r="W48" s="11"/>
       <c r="X48" s="11"/>
@@ -7916,26 +7921,26 @@
       <c r="AK48" s="11"/>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B49" s="236"/>
+      <c r="B49" s="235"/>
       <c r="C49" s="11"/>
-      <c r="D49" s="236"/>
+      <c r="D49" s="235"/>
       <c r="E49" s="29"/>
       <c r="F49" s="11"/>
       <c r="G49" s="11"/>
       <c r="H49" s="11"/>
       <c r="I49" s="11"/>
-      <c r="J49" s="236"/>
-      <c r="K49" s="236"/>
+      <c r="J49" s="235"/>
+      <c r="K49" s="235"/>
       <c r="L49" s="29"/>
-      <c r="M49" s="237"/>
+      <c r="M49" s="236"/>
       <c r="N49" s="29"/>
       <c r="O49" s="11"/>
       <c r="P49" s="11"/>
       <c r="Q49" s="11"/>
-      <c r="R49" s="236"/>
-      <c r="S49" s="236"/>
+      <c r="R49" s="235"/>
+      <c r="S49" s="235"/>
       <c r="T49" s="29"/>
-      <c r="U49" s="237"/>
+      <c r="U49" s="236"/>
       <c r="V49" s="29"/>
       <c r="W49" s="11"/>
       <c r="X49" s="11"/>
@@ -7954,26 +7959,26 @@
       <c r="AK49" s="11"/>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B50" s="236"/>
+      <c r="B50" s="235"/>
       <c r="C50" s="11"/>
-      <c r="D50" s="236"/>
+      <c r="D50" s="235"/>
       <c r="E50" s="29"/>
       <c r="F50" s="11"/>
       <c r="G50" s="11"/>
       <c r="H50" s="11"/>
       <c r="I50" s="11"/>
-      <c r="J50" s="236"/>
-      <c r="K50" s="236"/>
+      <c r="J50" s="235"/>
+      <c r="K50" s="235"/>
       <c r="L50" s="29"/>
-      <c r="M50" s="237"/>
+      <c r="M50" s="236"/>
       <c r="N50" s="29"/>
       <c r="O50" s="11"/>
       <c r="P50" s="11"/>
       <c r="Q50" s="11"/>
-      <c r="R50" s="236"/>
-      <c r="S50" s="236"/>
+      <c r="R50" s="235"/>
+      <c r="S50" s="235"/>
       <c r="T50" s="29"/>
-      <c r="U50" s="237"/>
+      <c r="U50" s="236"/>
       <c r="V50" s="29"/>
       <c r="W50" s="11"/>
       <c r="X50" s="11"/>
@@ -7992,26 +7997,26 @@
       <c r="AK50" s="11"/>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B51" s="236"/>
+      <c r="B51" s="235"/>
       <c r="C51" s="11"/>
-      <c r="D51" s="236"/>
+      <c r="D51" s="235"/>
       <c r="E51" s="29"/>
       <c r="F51" s="11"/>
       <c r="G51" s="11"/>
       <c r="H51" s="11"/>
       <c r="I51" s="11"/>
-      <c r="J51" s="236"/>
-      <c r="K51" s="236"/>
+      <c r="J51" s="235"/>
+      <c r="K51" s="235"/>
       <c r="L51" s="29"/>
-      <c r="M51" s="237"/>
+      <c r="M51" s="236"/>
       <c r="N51" s="29"/>
       <c r="O51" s="11"/>
       <c r="P51" s="11"/>
       <c r="Q51" s="11"/>
-      <c r="R51" s="236"/>
-      <c r="S51" s="236"/>
+      <c r="R51" s="235"/>
+      <c r="S51" s="235"/>
       <c r="T51" s="29"/>
-      <c r="U51" s="237"/>
+      <c r="U51" s="236"/>
       <c r="V51" s="29"/>
       <c r="W51" s="11"/>
       <c r="X51" s="11"/>
@@ -8030,26 +8035,26 @@
       <c r="AK51" s="11"/>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B52" s="236"/>
+      <c r="B52" s="235"/>
       <c r="C52" s="11"/>
-      <c r="D52" s="236"/>
+      <c r="D52" s="235"/>
       <c r="E52" s="29"/>
       <c r="F52" s="11"/>
       <c r="G52" s="11"/>
       <c r="H52" s="11"/>
       <c r="I52" s="11"/>
-      <c r="J52" s="236"/>
-      <c r="K52" s="236"/>
+      <c r="J52" s="235"/>
+      <c r="K52" s="235"/>
       <c r="L52" s="29"/>
-      <c r="M52" s="237"/>
+      <c r="M52" s="236"/>
       <c r="N52" s="29"/>
       <c r="O52" s="11"/>
       <c r="P52" s="11"/>
       <c r="Q52" s="11"/>
-      <c r="R52" s="236"/>
-      <c r="S52" s="236"/>
+      <c r="R52" s="235"/>
+      <c r="S52" s="235"/>
       <c r="T52" s="29"/>
-      <c r="U52" s="237"/>
+      <c r="U52" s="236"/>
       <c r="V52" s="29"/>
       <c r="W52" s="11"/>
       <c r="X52" s="11"/>
@@ -8068,26 +8073,26 @@
       <c r="AK52" s="11"/>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B53" s="236"/>
+      <c r="B53" s="235"/>
       <c r="C53" s="11"/>
-      <c r="D53" s="236"/>
+      <c r="D53" s="235"/>
       <c r="E53" s="29"/>
       <c r="F53" s="11"/>
       <c r="G53" s="11"/>
       <c r="H53" s="11"/>
       <c r="I53" s="11"/>
-      <c r="J53" s="236"/>
-      <c r="K53" s="236"/>
+      <c r="J53" s="235"/>
+      <c r="K53" s="235"/>
       <c r="L53" s="29"/>
-      <c r="M53" s="237"/>
+      <c r="M53" s="236"/>
       <c r="N53" s="29"/>
       <c r="O53" s="11"/>
       <c r="P53" s="11"/>
       <c r="Q53" s="11"/>
-      <c r="R53" s="236"/>
-      <c r="S53" s="236"/>
+      <c r="R53" s="235"/>
+      <c r="S53" s="235"/>
       <c r="T53" s="29"/>
-      <c r="U53" s="237"/>
+      <c r="U53" s="236"/>
       <c r="V53" s="29"/>
       <c r="W53" s="11"/>
       <c r="X53" s="11"/>
@@ -8106,26 +8111,26 @@
       <c r="AK53" s="11"/>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B54" s="236"/>
+      <c r="B54" s="235"/>
       <c r="C54" s="11"/>
-      <c r="D54" s="236"/>
+      <c r="D54" s="235"/>
       <c r="E54" s="29"/>
       <c r="F54" s="11"/>
       <c r="G54" s="11"/>
       <c r="H54" s="11"/>
       <c r="I54" s="11"/>
-      <c r="J54" s="236"/>
-      <c r="K54" s="236"/>
+      <c r="J54" s="235"/>
+      <c r="K54" s="235"/>
       <c r="L54" s="29"/>
-      <c r="M54" s="237"/>
+      <c r="M54" s="236"/>
       <c r="N54" s="29"/>
       <c r="O54" s="11"/>
       <c r="P54" s="11"/>
       <c r="Q54" s="11"/>
-      <c r="R54" s="236"/>
-      <c r="S54" s="236"/>
+      <c r="R54" s="235"/>
+      <c r="S54" s="235"/>
       <c r="T54" s="29"/>
-      <c r="U54" s="237"/>
+      <c r="U54" s="236"/>
       <c r="V54" s="29"/>
       <c r="W54" s="11"/>
       <c r="X54" s="11"/>
@@ -8144,26 +8149,26 @@
       <c r="AK54" s="11"/>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B55" s="236"/>
+      <c r="B55" s="235"/>
       <c r="C55" s="11"/>
-      <c r="D55" s="236"/>
+      <c r="D55" s="235"/>
       <c r="E55" s="29"/>
       <c r="F55" s="11"/>
       <c r="G55" s="11"/>
       <c r="H55" s="11"/>
       <c r="I55" s="11"/>
-      <c r="J55" s="236"/>
-      <c r="K55" s="236"/>
+      <c r="J55" s="235"/>
+      <c r="K55" s="235"/>
       <c r="L55" s="29"/>
-      <c r="M55" s="237"/>
+      <c r="M55" s="236"/>
       <c r="N55" s="29"/>
       <c r="O55" s="11"/>
       <c r="P55" s="11"/>
       <c r="Q55" s="11"/>
-      <c r="R55" s="236"/>
-      <c r="S55" s="236"/>
+      <c r="R55" s="235"/>
+      <c r="S55" s="235"/>
       <c r="T55" s="29"/>
-      <c r="U55" s="237"/>
+      <c r="U55" s="236"/>
       <c r="V55" s="29"/>
       <c r="W55" s="11"/>
       <c r="X55" s="11"/>
@@ -8182,26 +8187,26 @@
       <c r="AK55" s="11"/>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B56" s="236"/>
+      <c r="B56" s="235"/>
       <c r="C56" s="11"/>
-      <c r="D56" s="236"/>
+      <c r="D56" s="235"/>
       <c r="E56" s="29"/>
       <c r="F56" s="11"/>
       <c r="G56" s="11"/>
       <c r="H56" s="11"/>
       <c r="I56" s="11"/>
-      <c r="J56" s="236"/>
-      <c r="K56" s="236"/>
+      <c r="J56" s="235"/>
+      <c r="K56" s="235"/>
       <c r="L56" s="29"/>
-      <c r="M56" s="237"/>
+      <c r="M56" s="236"/>
       <c r="N56" s="29"/>
       <c r="O56" s="11"/>
       <c r="P56" s="11"/>
       <c r="Q56" s="11"/>
-      <c r="R56" s="236"/>
-      <c r="S56" s="236"/>
+      <c r="R56" s="235"/>
+      <c r="S56" s="235"/>
       <c r="T56" s="29"/>
-      <c r="U56" s="237"/>
+      <c r="U56" s="236"/>
       <c r="V56" s="29"/>
       <c r="W56" s="11"/>
       <c r="X56" s="11"/>
@@ -8220,26 +8225,26 @@
       <c r="AK56" s="11"/>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B57" s="236"/>
+      <c r="B57" s="235"/>
       <c r="C57" s="11"/>
-      <c r="D57" s="236"/>
+      <c r="D57" s="235"/>
       <c r="E57" s="29"/>
       <c r="F57" s="11"/>
       <c r="G57" s="11"/>
       <c r="H57" s="11"/>
       <c r="I57" s="11"/>
-      <c r="J57" s="236"/>
-      <c r="K57" s="236"/>
+      <c r="J57" s="235"/>
+      <c r="K57" s="235"/>
       <c r="L57" s="29"/>
-      <c r="M57" s="237"/>
+      <c r="M57" s="236"/>
       <c r="N57" s="29"/>
       <c r="O57" s="11"/>
       <c r="P57" s="11"/>
       <c r="Q57" s="11"/>
-      <c r="R57" s="236"/>
-      <c r="S57" s="236"/>
+      <c r="R57" s="235"/>
+      <c r="S57" s="235"/>
       <c r="T57" s="29"/>
-      <c r="U57" s="237"/>
+      <c r="U57" s="236"/>
       <c r="V57" s="29"/>
       <c r="W57" s="11"/>
       <c r="X57" s="11"/>
@@ -8258,26 +8263,26 @@
       <c r="AK57" s="11"/>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B58" s="236"/>
+      <c r="B58" s="235"/>
       <c r="C58" s="11"/>
-      <c r="D58" s="236"/>
+      <c r="D58" s="235"/>
       <c r="E58" s="29"/>
       <c r="F58" s="11"/>
       <c r="G58" s="11"/>
       <c r="H58" s="11"/>
       <c r="I58" s="11"/>
-      <c r="J58" s="236"/>
-      <c r="K58" s="236"/>
+      <c r="J58" s="235"/>
+      <c r="K58" s="235"/>
       <c r="L58" s="29"/>
-      <c r="M58" s="237"/>
+      <c r="M58" s="236"/>
       <c r="N58" s="29"/>
       <c r="O58" s="11"/>
       <c r="P58" s="11"/>
       <c r="Q58" s="11"/>
-      <c r="R58" s="236"/>
-      <c r="S58" s="236"/>
+      <c r="R58" s="235"/>
+      <c r="S58" s="235"/>
       <c r="T58" s="29"/>
-      <c r="U58" s="237"/>
+      <c r="U58" s="236"/>
       <c r="V58" s="29"/>
       <c r="W58" s="11"/>
       <c r="X58" s="11"/>
@@ -8341,11 +8346,11 @@
   </sheetPr>
   <dimension ref="A2:Z52"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L6" activeCellId="0" sqref="L6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H12" activeCellId="0" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.51953125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.51171875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="12.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="1.63"/>
@@ -8499,26 +8504,26 @@
       <c r="A6" s="11"/>
       <c r="B6" s="12"/>
       <c r="C6" s="13"/>
-      <c r="D6" s="238" t="s">
+      <c r="D6" s="237" t="s">
         <v>31</v>
       </c>
-      <c r="E6" s="238"/>
-      <c r="F6" s="238"/>
+      <c r="E6" s="237"/>
+      <c r="F6" s="237"/>
       <c r="G6" s="19"/>
-      <c r="H6" s="238" t="s">
+      <c r="H6" s="237" t="s">
         <v>32</v>
       </c>
-      <c r="I6" s="238"/>
-      <c r="J6" s="238"/>
+      <c r="I6" s="237"/>
+      <c r="J6" s="237"/>
       <c r="K6" s="19"/>
-      <c r="L6" s="238" t="s">
+      <c r="L6" s="237" t="s">
         <v>59</v>
       </c>
-      <c r="M6" s="238"/>
-      <c r="N6" s="238"/>
-      <c r="O6" s="238"/>
-      <c r="P6" s="238"/>
-      <c r="Q6" s="238"/>
+      <c r="M6" s="237"/>
+      <c r="N6" s="237"/>
+      <c r="O6" s="237"/>
+      <c r="P6" s="237"/>
+      <c r="Q6" s="237"/>
       <c r="R6" s="13"/>
       <c r="S6" s="29"/>
       <c r="T6" s="5" t="s">
@@ -8541,17 +8546,17 @@
       <c r="A7" s="11"/>
       <c r="B7" s="17"/>
       <c r="C7" s="13"/>
-      <c r="D7" s="351" t="s">
+      <c r="D7" s="352" t="s">
         <v>35</v>
       </c>
-      <c r="E7" s="351"/>
-      <c r="F7" s="351"/>
+      <c r="E7" s="352"/>
+      <c r="F7" s="352"/>
       <c r="G7" s="19"/>
-      <c r="H7" s="351" t="n">
+      <c r="H7" s="352" t="n">
         <v>6</v>
       </c>
-      <c r="I7" s="351"/>
-      <c r="J7" s="351"/>
+      <c r="I7" s="352"/>
+      <c r="J7" s="352"/>
       <c r="K7" s="19"/>
       <c r="L7" s="242" t="n">
         <v>2.506627216</v>
@@ -8570,25 +8575,25 @@
       <c r="V7" s="6"/>
       <c r="W7" s="5"/>
       <c r="X7" s="5"/>
-      <c r="Y7" s="352"/>
+      <c r="Y7" s="353"/>
     </row>
     <row r="8" customFormat="false" ht="33.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="11"/>
       <c r="B8" s="17"/>
       <c r="C8" s="13"/>
-      <c r="D8" s="353" t="s">
+      <c r="D8" s="354" t="s">
         <v>38</v>
       </c>
-      <c r="E8" s="353"/>
-      <c r="F8" s="353"/>
+      <c r="E8" s="354"/>
+      <c r="F8" s="354"/>
       <c r="G8" s="19"/>
-      <c r="H8" s="353" t="n">
+      <c r="H8" s="354" t="n">
         <v>2</v>
       </c>
-      <c r="I8" s="353"/>
-      <c r="J8" s="353"/>
+      <c r="I8" s="354"/>
+      <c r="J8" s="354"/>
       <c r="K8" s="19"/>
-      <c r="L8" s="354" t="n">
+      <c r="L8" s="355" t="n">
         <v>2</v>
       </c>
       <c r="M8" s="16"/>
@@ -8605,69 +8610,69 @@
       <c r="V8" s="6"/>
       <c r="W8" s="5"/>
       <c r="X8" s="5"/>
-      <c r="Y8" s="352"/>
+      <c r="Y8" s="353"/>
     </row>
     <row r="9" customFormat="false" ht="33.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="11"/>
       <c r="B9" s="17"/>
       <c r="C9" s="13"/>
-      <c r="D9" s="353" t="s">
+      <c r="D9" s="354" t="s">
         <v>41</v>
       </c>
-      <c r="E9" s="353"/>
-      <c r="F9" s="353"/>
+      <c r="E9" s="354"/>
+      <c r="F9" s="354"/>
       <c r="G9" s="19"/>
-      <c r="H9" s="353" t="n">
+      <c r="H9" s="354" t="n">
         <v>18</v>
       </c>
-      <c r="I9" s="353"/>
-      <c r="J9" s="353"/>
+      <c r="I9" s="354"/>
+      <c r="J9" s="354"/>
       <c r="K9" s="19"/>
-      <c r="L9" s="253" t="n">
+      <c r="L9" s="254" t="n">
         <v>3.14159265359</v>
       </c>
       <c r="M9" s="16"/>
       <c r="N9" s="250"/>
-      <c r="O9" s="254" t="s">
+      <c r="O9" s="255" t="s">
         <v>42</v>
       </c>
-      <c r="P9" s="254"/>
-      <c r="Q9" s="254"/>
-      <c r="R9" s="255"/>
+      <c r="P9" s="255"/>
+      <c r="Q9" s="255"/>
+      <c r="R9" s="256"/>
       <c r="S9" s="29"/>
       <c r="T9" s="5"/>
       <c r="U9" s="5"/>
       <c r="V9" s="6"/>
       <c r="W9" s="5"/>
       <c r="X9" s="5"/>
-      <c r="Y9" s="352"/>
+      <c r="Y9" s="353"/>
     </row>
     <row r="10" customFormat="false" ht="33.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="11"/>
       <c r="B10" s="17"/>
       <c r="C10" s="13"/>
-      <c r="D10" s="355" t="s">
+      <c r="D10" s="356" t="s">
         <v>44</v>
       </c>
-      <c r="E10" s="355"/>
-      <c r="F10" s="355"/>
+      <c r="E10" s="356"/>
+      <c r="F10" s="356"/>
       <c r="G10" s="19"/>
-      <c r="H10" s="355" t="n">
+      <c r="H10" s="356" t="n">
         <v>3</v>
       </c>
-      <c r="I10" s="355"/>
-      <c r="J10" s="355"/>
+      <c r="I10" s="356"/>
+      <c r="J10" s="356"/>
       <c r="K10" s="19"/>
-      <c r="L10" s="258" t="n">
+      <c r="L10" s="259" t="n">
         <v>1.25331413732</v>
       </c>
-      <c r="M10" s="259"/>
-      <c r="N10" s="260"/>
-      <c r="O10" s="261" t="s">
+      <c r="M10" s="260"/>
+      <c r="N10" s="261"/>
+      <c r="O10" s="262" t="s">
         <v>45</v>
       </c>
-      <c r="P10" s="261"/>
-      <c r="Q10" s="261"/>
+      <c r="P10" s="262"/>
+      <c r="Q10" s="262"/>
       <c r="R10" s="13"/>
       <c r="S10" s="29"/>
       <c r="T10" s="5"/>
@@ -8675,7 +8680,7 @@
       <c r="V10" s="6"/>
       <c r="W10" s="5"/>
       <c r="X10" s="5"/>
-      <c r="Y10" s="352"/>
+      <c r="Y10" s="353"/>
     </row>
     <row r="11" customFormat="false" ht="22.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="11"/>
@@ -8689,12 +8694,12 @@
       <c r="I11" s="18"/>
       <c r="J11" s="18"/>
       <c r="K11" s="19"/>
-      <c r="L11" s="262"/>
-      <c r="M11" s="65"/>
+      <c r="L11" s="263"/>
+      <c r="M11" s="64"/>
       <c r="N11" s="18"/>
-      <c r="O11" s="263"/>
-      <c r="P11" s="263"/>
-      <c r="Q11" s="263"/>
+      <c r="O11" s="264"/>
+      <c r="P11" s="264"/>
+      <c r="Q11" s="264"/>
       <c r="R11" s="13"/>
       <c r="S11" s="29"/>
       <c r="T11" s="5"/>
@@ -8702,97 +8707,97 @@
       <c r="V11" s="6"/>
       <c r="W11" s="5"/>
       <c r="X11" s="5"/>
-      <c r="Y11" s="352"/>
+      <c r="Y11" s="353"/>
     </row>
     <row r="12" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="11"/>
       <c r="B12" s="12"/>
       <c r="C12" s="13"/>
-      <c r="D12" s="51" t="s">
+      <c r="D12" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="E12" s="52" t="s">
-        <v>1</v>
-      </c>
-      <c r="F12" s="53" t="s">
+      <c r="E12" s="51" t="s">
+        <v>1</v>
+      </c>
+      <c r="F12" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="G12" s="54"/>
-      <c r="H12" s="267" t="n">
+      <c r="G12" s="53"/>
+      <c r="H12" s="268" t="n">
         <v>6</v>
       </c>
-      <c r="I12" s="52" t="s">
-        <v>1</v>
-      </c>
-      <c r="J12" s="268" t="s">
+      <c r="I12" s="51" t="s">
+        <v>1</v>
+      </c>
+      <c r="J12" s="269" t="s">
         <v>46</v>
       </c>
-      <c r="K12" s="69"/>
-      <c r="L12" s="269" t="n">
+      <c r="K12" s="68"/>
+      <c r="L12" s="270" t="n">
         <f aca="false">SQRT(O12*Q12)</f>
         <v>2.50662827463108</v>
       </c>
-      <c r="M12" s="52" t="s">
-        <v>1</v>
-      </c>
-      <c r="N12" s="52" t="s">
+      <c r="M12" s="51" t="s">
+        <v>1</v>
+      </c>
+      <c r="N12" s="51" t="s">
         <v>47</v>
       </c>
-      <c r="O12" s="270" t="n">
+      <c r="O12" s="271" t="n">
         <f aca="false">+$L$9</f>
         <v>3.14159265359</v>
       </c>
-      <c r="P12" s="271" t="s">
+      <c r="P12" s="272" t="s">
         <v>16</v>
       </c>
-      <c r="Q12" s="356" t="n">
+      <c r="Q12" s="357" t="n">
         <f aca="false">+$L$8</f>
         <v>2</v>
       </c>
       <c r="R12" s="13"/>
       <c r="S12" s="11"/>
-      <c r="W12" s="357"/>
+      <c r="W12" s="358"/>
     </row>
     <row r="13" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="11"/>
       <c r="B13" s="12"/>
       <c r="C13" s="13"/>
-      <c r="D13" s="71" t="s">
+      <c r="D13" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="E13" s="72" t="s">
-        <v>1</v>
-      </c>
-      <c r="F13" s="73" t="s">
+      <c r="E13" s="71" t="s">
+        <v>1</v>
+      </c>
+      <c r="F13" s="72" t="s">
         <v>17</v>
       </c>
-      <c r="G13" s="54"/>
-      <c r="H13" s="274" t="n">
+      <c r="G13" s="53"/>
+      <c r="H13" s="275" t="n">
         <v>6</v>
       </c>
-      <c r="I13" s="72" t="s">
-        <v>1</v>
-      </c>
-      <c r="J13" s="275" t="s">
+      <c r="I13" s="71" t="s">
+        <v>1</v>
+      </c>
+      <c r="J13" s="276" t="s">
         <v>48</v>
       </c>
-      <c r="K13" s="69"/>
-      <c r="L13" s="276" t="n">
+      <c r="K13" s="68"/>
+      <c r="L13" s="277" t="n">
         <f aca="false">+O13/Q13</f>
         <v>2.50662827462217</v>
       </c>
-      <c r="M13" s="72" t="s">
-        <v>1</v>
-      </c>
-      <c r="N13" s="72"/>
-      <c r="O13" s="277" t="n">
+      <c r="M13" s="71" t="s">
+        <v>1</v>
+      </c>
+      <c r="N13" s="71"/>
+      <c r="O13" s="278" t="n">
         <f aca="false">+$L$9</f>
         <v>3.14159265359</v>
       </c>
-      <c r="P13" s="72" t="s">
+      <c r="P13" s="71" t="s">
         <v>18</v>
       </c>
-      <c r="Q13" s="278" t="n">
+      <c r="Q13" s="279" t="n">
         <f aca="false">+$L$10</f>
         <v>1.25331413732</v>
       </c>
@@ -8803,42 +8808,42 @@
       <c r="A14" s="11"/>
       <c r="B14" s="12"/>
       <c r="C14" s="13"/>
-      <c r="D14" s="86" t="s">
+      <c r="D14" s="85" t="s">
         <v>0</v>
       </c>
-      <c r="E14" s="87" t="s">
-        <v>1</v>
-      </c>
-      <c r="F14" s="88" t="s">
+      <c r="E14" s="86" t="s">
+        <v>1</v>
+      </c>
+      <c r="F14" s="87" t="s">
         <v>19</v>
       </c>
-      <c r="G14" s="54"/>
-      <c r="H14" s="281" t="n">
+      <c r="G14" s="53"/>
+      <c r="H14" s="282" t="n">
         <v>6</v>
       </c>
-      <c r="I14" s="87" t="s">
-        <v>1</v>
-      </c>
-      <c r="J14" s="282" t="s">
+      <c r="I14" s="86" t="s">
+        <v>1</v>
+      </c>
+      <c r="J14" s="283" t="s">
         <v>49</v>
       </c>
-      <c r="K14" s="69"/>
-      <c r="L14" s="283" t="n">
+      <c r="K14" s="68"/>
+      <c r="L14" s="284" t="n">
         <f aca="false">+Q14*O14</f>
         <v>2.50662827464</v>
       </c>
-      <c r="M14" s="87" t="s">
-        <v>1</v>
-      </c>
-      <c r="N14" s="87"/>
-      <c r="O14" s="92" t="n">
+      <c r="M14" s="86" t="s">
+        <v>1</v>
+      </c>
+      <c r="N14" s="86"/>
+      <c r="O14" s="91" t="n">
         <f aca="false">+$L$8</f>
         <v>2</v>
       </c>
-      <c r="P14" s="87" t="s">
+      <c r="P14" s="86" t="s">
         <v>16</v>
       </c>
-      <c r="Q14" s="285" t="n">
+      <c r="Q14" s="286" t="n">
         <f aca="false">+$L$10</f>
         <v>1.25331413732</v>
       </c>
@@ -8848,41 +8853,41 @@
       <c r="A15" s="11"/>
       <c r="B15" s="12"/>
       <c r="C15" s="13"/>
-      <c r="D15" s="100" t="s">
+      <c r="D15" s="99" t="s">
         <v>2</v>
       </c>
-      <c r="E15" s="101" t="s">
-        <v>1</v>
-      </c>
-      <c r="F15" s="102" t="s">
+      <c r="E15" s="100" t="s">
+        <v>1</v>
+      </c>
+      <c r="F15" s="101" t="s">
         <v>20</v>
       </c>
-      <c r="G15" s="54"/>
-      <c r="H15" s="289" t="n">
+      <c r="G15" s="53"/>
+      <c r="H15" s="290" t="n">
         <v>2</v>
       </c>
-      <c r="I15" s="101" t="s">
-        <v>1</v>
-      </c>
-      <c r="J15" s="290" t="s">
+      <c r="I15" s="100" t="s">
+        <v>1</v>
+      </c>
+      <c r="J15" s="291" t="s">
         <v>50</v>
       </c>
-      <c r="K15" s="69"/>
-      <c r="L15" s="103" t="n">
+      <c r="K15" s="68"/>
+      <c r="L15" s="102" t="n">
         <v>2</v>
       </c>
-      <c r="M15" s="101" t="s">
-        <v>1</v>
-      </c>
-      <c r="N15" s="101"/>
-      <c r="O15" s="292" t="n">
+      <c r="M15" s="100" t="s">
+        <v>1</v>
+      </c>
+      <c r="N15" s="100"/>
+      <c r="O15" s="293" t="n">
         <f aca="false">+$L$7</f>
         <v>2.506627216</v>
       </c>
-      <c r="P15" s="101" t="s">
+      <c r="P15" s="100" t="s">
         <v>18</v>
       </c>
-      <c r="Q15" s="293" t="n">
+      <c r="Q15" s="294" t="n">
         <f aca="false">+$L$10</f>
         <v>1.25331413732</v>
       </c>
@@ -8893,41 +8898,41 @@
       <c r="A16" s="11"/>
       <c r="B16" s="12"/>
       <c r="C16" s="13"/>
-      <c r="D16" s="116" t="s">
+      <c r="D16" s="115" t="s">
         <v>2</v>
       </c>
-      <c r="E16" s="117" t="s">
-        <v>1</v>
-      </c>
-      <c r="F16" s="118" t="s">
+      <c r="E16" s="116" t="s">
+        <v>1</v>
+      </c>
+      <c r="F16" s="117" t="s">
         <v>21</v>
       </c>
-      <c r="G16" s="54"/>
-      <c r="H16" s="295" t="n">
+      <c r="G16" s="53"/>
+      <c r="H16" s="296" t="n">
         <v>2</v>
       </c>
-      <c r="I16" s="117" t="s">
-        <v>1</v>
-      </c>
-      <c r="J16" s="296" t="s">
+      <c r="I16" s="116" t="s">
+        <v>1</v>
+      </c>
+      <c r="J16" s="297" t="s">
         <v>51</v>
       </c>
-      <c r="K16" s="69"/>
-      <c r="L16" s="119" t="n">
+      <c r="K16" s="68"/>
+      <c r="L16" s="118" t="n">
         <v>2</v>
       </c>
-      <c r="M16" s="117" t="s">
-        <v>1</v>
-      </c>
-      <c r="N16" s="117"/>
-      <c r="O16" s="297" t="n">
+      <c r="M16" s="116" t="s">
+        <v>1</v>
+      </c>
+      <c r="N16" s="116"/>
+      <c r="O16" s="298" t="n">
         <f aca="false">+$L$7^2</f>
         <v>6.28317999999191</v>
       </c>
-      <c r="P16" s="117" t="s">
+      <c r="P16" s="116" t="s">
         <v>18</v>
       </c>
-      <c r="Q16" s="298" t="n">
+      <c r="Q16" s="299" t="n">
         <f aca="false">+$L$9</f>
         <v>3.14159265359</v>
       </c>
@@ -8938,41 +8943,41 @@
       <c r="A17" s="11"/>
       <c r="B17" s="12"/>
       <c r="C17" s="13"/>
-      <c r="D17" s="131" t="s">
+      <c r="D17" s="130" t="s">
         <v>2</v>
       </c>
-      <c r="E17" s="132" t="s">
-        <v>1</v>
-      </c>
-      <c r="F17" s="133" t="s">
+      <c r="E17" s="131" t="s">
+        <v>1</v>
+      </c>
+      <c r="F17" s="132" t="s">
         <v>22</v>
       </c>
-      <c r="G17" s="54"/>
-      <c r="H17" s="300" t="n">
+      <c r="G17" s="53"/>
+      <c r="H17" s="301" t="n">
         <v>2</v>
       </c>
-      <c r="I17" s="132" t="s">
-        <v>1</v>
-      </c>
-      <c r="J17" s="301" t="s">
+      <c r="I17" s="131" t="s">
+        <v>1</v>
+      </c>
+      <c r="J17" s="302" t="s">
         <v>52</v>
       </c>
-      <c r="K17" s="69"/>
-      <c r="L17" s="134" t="n">
+      <c r="K17" s="68"/>
+      <c r="L17" s="133" t="n">
         <f aca="false">+O17/Q17</f>
         <v>1.99898608521985</v>
       </c>
-      <c r="M17" s="132" t="s">
-        <v>1</v>
-      </c>
-      <c r="N17" s="132"/>
-      <c r="O17" s="302" t="n">
+      <c r="M17" s="131" t="s">
+        <v>1</v>
+      </c>
+      <c r="N17" s="131"/>
+      <c r="O17" s="303" t="n">
         <v>3.14</v>
       </c>
-      <c r="P17" s="132" t="s">
+      <c r="P17" s="131" t="s">
         <v>18</v>
       </c>
-      <c r="Q17" s="303" t="n">
+      <c r="Q17" s="304" t="n">
         <f aca="false">+$L$10^2</f>
         <v>1.57079632680618</v>
       </c>
@@ -8983,42 +8988,42 @@
       <c r="A18" s="11"/>
       <c r="B18" s="12"/>
       <c r="C18" s="13"/>
-      <c r="D18" s="145" t="s">
+      <c r="D18" s="144" t="s">
         <v>23</v>
       </c>
-      <c r="E18" s="146" t="s">
-        <v>1</v>
-      </c>
-      <c r="F18" s="147" t="s">
+      <c r="E18" s="145" t="s">
+        <v>1</v>
+      </c>
+      <c r="F18" s="146" t="s">
         <v>24</v>
       </c>
-      <c r="G18" s="54"/>
-      <c r="H18" s="305" t="n">
+      <c r="G18" s="53"/>
+      <c r="H18" s="306" t="n">
         <v>18</v>
       </c>
-      <c r="I18" s="146" t="s">
-        <v>1</v>
-      </c>
-      <c r="J18" s="306" t="s">
+      <c r="I18" s="145" t="s">
+        <v>1</v>
+      </c>
+      <c r="J18" s="307" t="s">
         <v>53</v>
       </c>
-      <c r="K18" s="69"/>
-      <c r="L18" s="307" t="n">
+      <c r="K18" s="68"/>
+      <c r="L18" s="308" t="n">
         <f aca="false">+O18/Q18</f>
         <v>3.14158999999596</v>
       </c>
-      <c r="M18" s="146" t="s">
-        <v>1</v>
-      </c>
-      <c r="N18" s="146"/>
-      <c r="O18" s="358" t="n">
+      <c r="M18" s="145" t="s">
+        <v>1</v>
+      </c>
+      <c r="N18" s="145"/>
+      <c r="O18" s="359" t="n">
         <f aca="false">+$L$7^2</f>
         <v>6.28317999999191</v>
       </c>
-      <c r="P18" s="146" t="s">
+      <c r="P18" s="145" t="s">
         <v>18</v>
       </c>
-      <c r="Q18" s="359" t="n">
+      <c r="Q18" s="360" t="n">
         <f aca="false">+$L$8</f>
         <v>2</v>
       </c>
@@ -9029,42 +9034,42 @@
       <c r="A19" s="11"/>
       <c r="B19" s="12"/>
       <c r="C19" s="13"/>
-      <c r="D19" s="159" t="s">
+      <c r="D19" s="158" t="s">
         <v>3</v>
       </c>
-      <c r="E19" s="160" t="s">
-        <v>1</v>
-      </c>
-      <c r="F19" s="161" t="s">
+      <c r="E19" s="159" t="s">
+        <v>1</v>
+      </c>
+      <c r="F19" s="160" t="s">
         <v>25</v>
       </c>
-      <c r="G19" s="54"/>
-      <c r="H19" s="311" t="n">
+      <c r="G19" s="53"/>
+      <c r="H19" s="312" t="n">
         <v>18</v>
       </c>
-      <c r="I19" s="160" t="s">
-        <v>1</v>
-      </c>
-      <c r="J19" s="312" t="s">
+      <c r="I19" s="159" t="s">
+        <v>1</v>
+      </c>
+      <c r="J19" s="313" t="s">
         <v>54</v>
       </c>
-      <c r="K19" s="69"/>
-      <c r="L19" s="313" t="n">
+      <c r="K19" s="68"/>
+      <c r="L19" s="314" t="n">
         <f aca="false">+Q19*O19</f>
         <v>3.14159265361235</v>
       </c>
-      <c r="M19" s="160" t="s">
-        <v>1</v>
-      </c>
-      <c r="N19" s="160"/>
-      <c r="O19" s="165" t="n">
+      <c r="M19" s="159" t="s">
+        <v>1</v>
+      </c>
+      <c r="N19" s="159"/>
+      <c r="O19" s="164" t="n">
         <f aca="false">+$L$8</f>
         <v>2</v>
       </c>
-      <c r="P19" s="160" t="s">
+      <c r="P19" s="159" t="s">
         <v>16</v>
       </c>
-      <c r="Q19" s="360" t="n">
+      <c r="Q19" s="361" t="n">
         <f aca="false">+$L$10^2</f>
         <v>1.57079632680618</v>
       </c>
@@ -9074,42 +9079,42 @@
       <c r="A20" s="11"/>
       <c r="B20" s="12"/>
       <c r="C20" s="13"/>
-      <c r="D20" s="174" t="s">
+      <c r="D20" s="173" t="s">
         <v>3</v>
       </c>
-      <c r="E20" s="175" t="s">
-        <v>1</v>
-      </c>
-      <c r="F20" s="176" t="s">
+      <c r="E20" s="174" t="s">
+        <v>1</v>
+      </c>
+      <c r="F20" s="175" t="s">
         <v>26</v>
       </c>
-      <c r="G20" s="54"/>
-      <c r="H20" s="316" t="n">
+      <c r="G20" s="53"/>
+      <c r="H20" s="317" t="n">
         <v>18</v>
       </c>
-      <c r="I20" s="175" t="s">
-        <v>1</v>
-      </c>
-      <c r="J20" s="317" t="s">
+      <c r="I20" s="174" t="s">
+        <v>1</v>
+      </c>
+      <c r="J20" s="318" t="s">
         <v>55</v>
       </c>
-      <c r="K20" s="69"/>
-      <c r="L20" s="318" t="n">
+      <c r="K20" s="68"/>
+      <c r="L20" s="319" t="n">
         <f aca="false">+O20*Q20</f>
         <v>3.14159132680387</v>
       </c>
-      <c r="M20" s="175" t="s">
-        <v>1</v>
-      </c>
-      <c r="N20" s="175"/>
-      <c r="O20" s="319" t="n">
+      <c r="M20" s="174" t="s">
+        <v>1</v>
+      </c>
+      <c r="N20" s="174"/>
+      <c r="O20" s="320" t="n">
         <f aca="false">+$L$7</f>
         <v>2.506627216</v>
       </c>
-      <c r="P20" s="175" t="s">
+      <c r="P20" s="174" t="s">
         <v>16</v>
       </c>
-      <c r="Q20" s="320" t="n">
+      <c r="Q20" s="321" t="n">
         <f aca="false">+$L$10</f>
         <v>1.25331413732</v>
       </c>
@@ -9120,42 +9125,42 @@
       <c r="A21" s="11"/>
       <c r="B21" s="12"/>
       <c r="C21" s="13"/>
-      <c r="D21" s="188" t="s">
+      <c r="D21" s="187" t="s">
         <v>4</v>
       </c>
-      <c r="E21" s="189" t="s">
-        <v>1</v>
-      </c>
-      <c r="F21" s="190" t="s">
+      <c r="E21" s="188" t="s">
+        <v>1</v>
+      </c>
+      <c r="F21" s="189" t="s">
         <v>27</v>
       </c>
-      <c r="G21" s="54"/>
-      <c r="H21" s="323" t="n">
+      <c r="G21" s="53"/>
+      <c r="H21" s="324" t="n">
         <v>3</v>
       </c>
-      <c r="I21" s="189" t="s">
-        <v>1</v>
-      </c>
-      <c r="J21" s="324" t="s">
+      <c r="I21" s="188" t="s">
+        <v>1</v>
+      </c>
+      <c r="J21" s="325" t="s">
         <v>56</v>
       </c>
-      <c r="K21" s="54"/>
-      <c r="L21" s="325" t="n">
+      <c r="K21" s="53"/>
+      <c r="L21" s="326" t="n">
         <f aca="false">+O21/Q21</f>
         <v>1.253313608</v>
       </c>
-      <c r="M21" s="189" t="s">
-        <v>1</v>
-      </c>
-      <c r="N21" s="189"/>
-      <c r="O21" s="326" t="n">
+      <c r="M21" s="188" t="s">
+        <v>1</v>
+      </c>
+      <c r="N21" s="188"/>
+      <c r="O21" s="327" t="n">
         <f aca="false">+$L$7</f>
         <v>2.506627216</v>
       </c>
-      <c r="P21" s="189" t="s">
+      <c r="P21" s="188" t="s">
         <v>18</v>
       </c>
-      <c r="Q21" s="361" t="n">
+      <c r="Q21" s="362" t="n">
         <f aca="false">+$L$8</f>
         <v>2</v>
       </c>
@@ -9166,42 +9171,42 @@
       <c r="A22" s="11"/>
       <c r="B22" s="12"/>
       <c r="C22" s="13"/>
-      <c r="D22" s="204" t="s">
+      <c r="D22" s="203" t="s">
         <v>4</v>
       </c>
-      <c r="E22" s="205" t="s">
-        <v>1</v>
-      </c>
-      <c r="F22" s="206" t="s">
+      <c r="E22" s="204" t="s">
+        <v>1</v>
+      </c>
+      <c r="F22" s="205" t="s">
         <v>28</v>
       </c>
-      <c r="G22" s="54"/>
-      <c r="H22" s="329" t="n">
+      <c r="G22" s="53"/>
+      <c r="H22" s="330" t="n">
         <v>3</v>
       </c>
-      <c r="I22" s="205" t="s">
-        <v>1</v>
-      </c>
-      <c r="J22" s="330" t="s">
+      <c r="I22" s="204" t="s">
+        <v>1</v>
+      </c>
+      <c r="J22" s="331" t="s">
         <v>57</v>
       </c>
-      <c r="K22" s="54"/>
-      <c r="L22" s="331" t="n">
+      <c r="K22" s="53"/>
+      <c r="L22" s="332" t="n">
         <f aca="false">+O22/Q22</f>
         <v>1.25331466663131</v>
       </c>
-      <c r="M22" s="205" t="s">
-        <v>1</v>
-      </c>
-      <c r="N22" s="205"/>
-      <c r="O22" s="332" t="n">
+      <c r="M22" s="204" t="s">
+        <v>1</v>
+      </c>
+      <c r="N22" s="204"/>
+      <c r="O22" s="333" t="n">
         <f aca="false">+$L$9</f>
         <v>3.14159265359</v>
       </c>
-      <c r="P22" s="205" t="s">
+      <c r="P22" s="204" t="s">
         <v>18</v>
       </c>
-      <c r="Q22" s="333" t="n">
+      <c r="Q22" s="334" t="n">
         <f aca="false">+$L$7</f>
         <v>2.506627216</v>
       </c>
@@ -9212,44 +9217,44 @@
       <c r="A23" s="11"/>
       <c r="B23" s="12"/>
       <c r="C23" s="13"/>
-      <c r="D23" s="220" t="s">
+      <c r="D23" s="219" t="s">
         <v>4</v>
       </c>
-      <c r="E23" s="221" t="s">
-        <v>1</v>
-      </c>
-      <c r="F23" s="222" t="s">
+      <c r="E23" s="220" t="s">
+        <v>1</v>
+      </c>
+      <c r="F23" s="221" t="s">
         <v>29</v>
       </c>
-      <c r="G23" s="54"/>
-      <c r="H23" s="336" t="n">
+      <c r="G23" s="53"/>
+      <c r="H23" s="337" t="n">
         <v>3</v>
       </c>
-      <c r="I23" s="221" t="s">
-        <v>1</v>
-      </c>
-      <c r="J23" s="337" t="s">
+      <c r="I23" s="220" t="s">
+        <v>1</v>
+      </c>
+      <c r="J23" s="338" t="s">
         <v>58</v>
       </c>
-      <c r="K23" s="54"/>
-      <c r="L23" s="338" t="n">
+      <c r="K23" s="53"/>
+      <c r="L23" s="339" t="n">
         <f aca="false">+SQRT(O23/Q23)</f>
         <v>1.25331413731554</v>
       </c>
-      <c r="M23" s="221" t="s">
-        <v>1</v>
-      </c>
-      <c r="N23" s="221" t="s">
+      <c r="M23" s="220" t="s">
+        <v>1</v>
+      </c>
+      <c r="N23" s="220" t="s">
         <v>47</v>
       </c>
-      <c r="O23" s="339" t="n">
+      <c r="O23" s="340" t="n">
         <f aca="false">+$L$9</f>
         <v>3.14159265359</v>
       </c>
-      <c r="P23" s="221" t="s">
+      <c r="P23" s="220" t="s">
         <v>18</v>
       </c>
-      <c r="Q23" s="362" t="n">
+      <c r="Q23" s="363" t="n">
         <f aca="false">+$L$8</f>
         <v>2</v>
       </c>
@@ -9276,13 +9281,13 @@
       <c r="Q24" s="13"/>
       <c r="R24" s="13"/>
       <c r="S24" s="11"/>
-      <c r="X24" s="341" t="s">
+      <c r="X24" s="342" t="s">
         <v>46</v>
       </c>
-      <c r="Y24" s="341" t="s">
-        <v>1</v>
-      </c>
-      <c r="Z24" s="342" t="n">
+      <c r="Y24" s="342" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z24" s="343" t="n">
         <f aca="false">SQRT(L9*2)</f>
         <v>2.50662827463108</v>
       </c>
@@ -9307,13 +9312,13 @@
       <c r="Q25" s="13"/>
       <c r="R25" s="13"/>
       <c r="S25" s="11"/>
-      <c r="X25" s="341" t="s">
+      <c r="X25" s="342" t="s">
         <v>48</v>
       </c>
-      <c r="Y25" s="341" t="s">
-        <v>1</v>
-      </c>
-      <c r="Z25" s="342" t="n">
+      <c r="Y25" s="342" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z25" s="343" t="n">
         <f aca="false">L9/L10</f>
         <v>2.50662827462217</v>
       </c>
@@ -9337,13 +9342,13 @@
       <c r="Q26" s="13"/>
       <c r="R26" s="13"/>
       <c r="S26" s="11"/>
-      <c r="X26" s="341" t="s">
+      <c r="X26" s="342" t="s">
         <v>49</v>
       </c>
-      <c r="Y26" s="341" t="s">
-        <v>1</v>
-      </c>
-      <c r="Z26" s="342" t="n">
+      <c r="Y26" s="342" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z26" s="343" t="n">
         <f aca="false">+L8*L10</f>
         <v>2.50662827464</v>
       </c>
@@ -9368,21 +9373,21 @@
       <c r="R27" s="13"/>
       <c r="S27" s="11"/>
       <c r="T27" s="11"/>
-      <c r="X27" s="343" t="s">
+      <c r="X27" s="344" t="s">
         <v>50</v>
       </c>
-      <c r="Y27" s="344" t="s">
-        <v>1</v>
-      </c>
-      <c r="Z27" s="345" t="n">
+      <c r="Y27" s="345" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z27" s="346" t="n">
         <f aca="false">+L7/L10</f>
         <v>1.99999915532749</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="236"/>
+      <c r="B28" s="235"/>
       <c r="C28" s="11"/>
-      <c r="D28" s="236"/>
+      <c r="D28" s="235"/>
       <c r="E28" s="29"/>
       <c r="F28" s="11"/>
       <c r="G28" s="11"/>
@@ -9399,21 +9404,21 @@
       <c r="R28" s="11"/>
       <c r="S28" s="11"/>
       <c r="T28" s="11"/>
-      <c r="X28" s="344" t="s">
+      <c r="X28" s="345" t="s">
         <v>51</v>
       </c>
-      <c r="Y28" s="344" t="s">
-        <v>1</v>
-      </c>
-      <c r="Z28" s="345" t="n">
+      <c r="Y28" s="345" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z28" s="346" t="n">
         <f aca="false">+L7^2/L9</f>
         <v>1.99999831066956</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="236"/>
+      <c r="B29" s="235"/>
       <c r="C29" s="11"/>
-      <c r="D29" s="236"/>
+      <c r="D29" s="235"/>
       <c r="E29" s="29"/>
       <c r="F29" s="11"/>
       <c r="G29" s="11"/>
@@ -9430,21 +9435,21 @@
       <c r="R29" s="11"/>
       <c r="S29" s="11"/>
       <c r="T29" s="11"/>
-      <c r="X29" s="344" t="s">
+      <c r="X29" s="345" t="s">
         <v>52</v>
       </c>
-      <c r="Y29" s="344" t="s">
-        <v>1</v>
-      </c>
-      <c r="Z29" s="345" t="n">
+      <c r="Y29" s="345" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z29" s="346" t="n">
         <f aca="false">+L9/L10^2</f>
         <v>1.99999999998577</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="236"/>
+      <c r="B30" s="235"/>
       <c r="C30" s="11"/>
-      <c r="D30" s="236"/>
+      <c r="D30" s="235"/>
       <c r="E30" s="29"/>
       <c r="F30" s="11"/>
       <c r="G30" s="11"/>
@@ -9461,21 +9466,21 @@
       <c r="R30" s="11"/>
       <c r="S30" s="11"/>
       <c r="T30" s="11"/>
-      <c r="X30" s="346" t="s">
+      <c r="X30" s="347" t="s">
         <v>53</v>
       </c>
-      <c r="Y30" s="346" t="s">
-        <v>1</v>
-      </c>
-      <c r="Z30" s="347" t="n">
+      <c r="Y30" s="347" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z30" s="348" t="n">
         <f aca="false">+L7^2/L8</f>
         <v>3.14158999999596</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="236"/>
+      <c r="B31" s="235"/>
       <c r="C31" s="11"/>
-      <c r="D31" s="236"/>
+      <c r="D31" s="235"/>
       <c r="E31" s="29"/>
       <c r="F31" s="11"/>
       <c r="G31" s="11"/>
@@ -9492,21 +9497,21 @@
       <c r="R31" s="11"/>
       <c r="S31" s="11"/>
       <c r="T31" s="11"/>
-      <c r="X31" s="346" t="s">
+      <c r="X31" s="347" t="s">
         <v>54</v>
       </c>
-      <c r="Y31" s="346" t="s">
-        <v>1</v>
-      </c>
-      <c r="Z31" s="347" t="n">
+      <c r="Y31" s="347" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z31" s="348" t="n">
         <f aca="false">+(L10^2)*2</f>
         <v>3.14159265361235</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="236"/>
+      <c r="B32" s="235"/>
       <c r="C32" s="11"/>
-      <c r="D32" s="236"/>
+      <c r="D32" s="235"/>
       <c r="E32" s="29"/>
       <c r="F32" s="11"/>
       <c r="G32" s="11"/>
@@ -9523,21 +9528,21 @@
       <c r="R32" s="11"/>
       <c r="S32" s="11"/>
       <c r="T32" s="11"/>
-      <c r="X32" s="346" t="s">
+      <c r="X32" s="347" t="s">
         <v>55</v>
       </c>
-      <c r="Y32" s="346" t="s">
-        <v>1</v>
-      </c>
-      <c r="Z32" s="347" t="n">
+      <c r="Y32" s="347" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z32" s="348" t="n">
         <f aca="false">+L7*L10</f>
         <v>3.14159132680387</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="236"/>
+      <c r="B33" s="235"/>
       <c r="C33" s="11"/>
-      <c r="D33" s="236"/>
+      <c r="D33" s="235"/>
       <c r="E33" s="29"/>
       <c r="F33" s="11"/>
       <c r="G33" s="11"/>
@@ -9554,21 +9559,21 @@
       <c r="R33" s="11"/>
       <c r="S33" s="11"/>
       <c r="T33" s="11"/>
-      <c r="X33" s="348" t="s">
+      <c r="X33" s="349" t="s">
         <v>56</v>
       </c>
-      <c r="Y33" s="349" t="s">
-        <v>1</v>
-      </c>
-      <c r="Z33" s="350" t="n">
+      <c r="Y33" s="350" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z33" s="351" t="n">
         <f aca="false">+L7/L8</f>
         <v>1.253313608</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B34" s="236"/>
+      <c r="B34" s="235"/>
       <c r="C34" s="11"/>
-      <c r="D34" s="236"/>
+      <c r="D34" s="235"/>
       <c r="E34" s="29"/>
       <c r="F34" s="11"/>
       <c r="G34" s="11"/>
@@ -9585,21 +9590,21 @@
       <c r="R34" s="11"/>
       <c r="S34" s="11"/>
       <c r="T34" s="11"/>
-      <c r="X34" s="349" t="s">
+      <c r="X34" s="350" t="s">
         <v>57</v>
       </c>
-      <c r="Y34" s="349" t="s">
-        <v>1</v>
-      </c>
-      <c r="Z34" s="350" t="n">
+      <c r="Y34" s="350" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z34" s="351" t="n">
         <f aca="false">+L9/L7</f>
         <v>1.25331466663131</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B35" s="236"/>
+      <c r="B35" s="235"/>
       <c r="C35" s="11"/>
-      <c r="D35" s="236"/>
+      <c r="D35" s="235"/>
       <c r="E35" s="29"/>
       <c r="F35" s="11"/>
       <c r="G35" s="11"/>
@@ -9616,21 +9621,21 @@
       <c r="R35" s="11"/>
       <c r="S35" s="11"/>
       <c r="T35" s="11"/>
-      <c r="X35" s="349" t="s">
+      <c r="X35" s="350" t="s">
         <v>58</v>
       </c>
-      <c r="Y35" s="349" t="s">
-        <v>1</v>
-      </c>
-      <c r="Z35" s="350" t="n">
+      <c r="Y35" s="350" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z35" s="351" t="n">
         <f aca="false">+SQRT(L9/L8)</f>
         <v>1.25331413731554</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B36" s="236"/>
+      <c r="B36" s="235"/>
       <c r="C36" s="11"/>
-      <c r="D36" s="236"/>
+      <c r="D36" s="235"/>
       <c r="E36" s="29"/>
       <c r="F36" s="11"/>
       <c r="G36" s="11"/>
@@ -9649,9 +9654,9 @@
       <c r="T36" s="11"/>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B37" s="236"/>
+      <c r="B37" s="235"/>
       <c r="C37" s="11"/>
-      <c r="D37" s="236"/>
+      <c r="D37" s="235"/>
       <c r="E37" s="29"/>
       <c r="F37" s="11"/>
       <c r="G37" s="11"/>
@@ -9670,9 +9675,9 @@
       <c r="T37" s="11"/>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B38" s="236"/>
+      <c r="B38" s="235"/>
       <c r="C38" s="11"/>
-      <c r="D38" s="236"/>
+      <c r="D38" s="235"/>
       <c r="E38" s="29"/>
       <c r="F38" s="11"/>
       <c r="G38" s="11"/>
@@ -9691,9 +9696,9 @@
       <c r="T38" s="11"/>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B39" s="236"/>
+      <c r="B39" s="235"/>
       <c r="C39" s="11"/>
-      <c r="D39" s="236"/>
+      <c r="D39" s="235"/>
       <c r="E39" s="29"/>
       <c r="F39" s="11"/>
       <c r="G39" s="11"/>
@@ -9712,9 +9717,9 @@
       <c r="T39" s="11"/>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B40" s="236"/>
+      <c r="B40" s="235"/>
       <c r="C40" s="11"/>
-      <c r="D40" s="236"/>
+      <c r="D40" s="235"/>
       <c r="E40" s="29"/>
       <c r="F40" s="11"/>
       <c r="G40" s="11"/>
@@ -9733,9 +9738,9 @@
       <c r="T40" s="11"/>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B41" s="236"/>
+      <c r="B41" s="235"/>
       <c r="C41" s="11"/>
-      <c r="D41" s="236"/>
+      <c r="D41" s="235"/>
       <c r="E41" s="29"/>
       <c r="F41" s="11"/>
       <c r="G41" s="11"/>
@@ -9754,9 +9759,9 @@
       <c r="T41" s="11"/>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B42" s="236"/>
+      <c r="B42" s="235"/>
       <c r="C42" s="11"/>
-      <c r="D42" s="236"/>
+      <c r="D42" s="235"/>
       <c r="E42" s="29"/>
       <c r="F42" s="11"/>
       <c r="G42" s="11"/>
@@ -9775,9 +9780,9 @@
       <c r="T42" s="11"/>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B43" s="236"/>
+      <c r="B43" s="235"/>
       <c r="C43" s="11"/>
-      <c r="D43" s="236"/>
+      <c r="D43" s="235"/>
       <c r="E43" s="29"/>
       <c r="F43" s="11"/>
       <c r="G43" s="11"/>
@@ -9796,9 +9801,9 @@
       <c r="T43" s="11"/>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B44" s="236"/>
+      <c r="B44" s="235"/>
       <c r="C44" s="11"/>
-      <c r="D44" s="236"/>
+      <c r="D44" s="235"/>
       <c r="E44" s="29"/>
       <c r="F44" s="11"/>
       <c r="G44" s="11"/>
@@ -9817,9 +9822,9 @@
       <c r="T44" s="11"/>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B45" s="236"/>
+      <c r="B45" s="235"/>
       <c r="C45" s="11"/>
-      <c r="D45" s="236"/>
+      <c r="D45" s="235"/>
       <c r="E45" s="29"/>
       <c r="F45" s="11"/>
       <c r="G45" s="11"/>
@@ -9838,9 +9843,9 @@
       <c r="T45" s="11"/>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B46" s="236"/>
+      <c r="B46" s="235"/>
       <c r="C46" s="11"/>
-      <c r="D46" s="236"/>
+      <c r="D46" s="235"/>
       <c r="E46" s="29"/>
       <c r="F46" s="11"/>
       <c r="G46" s="11"/>
@@ -9859,9 +9864,9 @@
       <c r="T46" s="11"/>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B47" s="236"/>
+      <c r="B47" s="235"/>
       <c r="C47" s="11"/>
-      <c r="D47" s="236"/>
+      <c r="D47" s="235"/>
       <c r="E47" s="29"/>
       <c r="F47" s="11"/>
       <c r="G47" s="11"/>
@@ -9880,9 +9885,9 @@
       <c r="T47" s="11"/>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B48" s="236"/>
+      <c r="B48" s="235"/>
       <c r="C48" s="11"/>
-      <c r="D48" s="236"/>
+      <c r="D48" s="235"/>
       <c r="E48" s="29"/>
       <c r="F48" s="11"/>
       <c r="G48" s="11"/>
@@ -9901,9 +9906,9 @@
       <c r="T48" s="11"/>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B49" s="236"/>
+      <c r="B49" s="235"/>
       <c r="C49" s="11"/>
-      <c r="D49" s="236"/>
+      <c r="D49" s="235"/>
       <c r="E49" s="29"/>
       <c r="F49" s="11"/>
       <c r="G49" s="11"/>
@@ -9922,9 +9927,9 @@
       <c r="T49" s="11"/>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B50" s="236"/>
+      <c r="B50" s="235"/>
       <c r="C50" s="11"/>
-      <c r="D50" s="236"/>
+      <c r="D50" s="235"/>
       <c r="E50" s="29"/>
       <c r="F50" s="11"/>
       <c r="G50" s="11"/>
@@ -9943,9 +9948,9 @@
       <c r="T50" s="11"/>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B51" s="236"/>
+      <c r="B51" s="235"/>
       <c r="C51" s="11"/>
-      <c r="D51" s="236"/>
+      <c r="D51" s="235"/>
       <c r="E51" s="29"/>
       <c r="F51" s="11"/>
       <c r="G51" s="11"/>
@@ -9964,9 +9969,9 @@
       <c r="T51" s="11"/>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B52" s="236"/>
+      <c r="B52" s="235"/>
       <c r="C52" s="11"/>
-      <c r="D52" s="236"/>
+      <c r="D52" s="235"/>
       <c r="E52" s="29"/>
       <c r="F52" s="11"/>
       <c r="G52" s="11"/>
